--- a/Parts_list.xlsx
+++ b/Parts_list.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="678">
   <si>
     <t>LOCKER A</t>
   </si>
@@ -47,6 +47,18 @@
     <t>Description</t>
   </si>
   <si>
+    <t>Tilt Switch</t>
+  </si>
+  <si>
+    <t>Test Brand</t>
+  </si>
+  <si>
+    <t>GOOD ONE</t>
+  </si>
+  <si>
+    <t>XLSD</t>
+  </si>
+  <si>
     <t>Sdfsf</t>
   </si>
   <si>
@@ -146,6 +158,12 @@
     <t>Draw Two</t>
   </si>
   <si>
+    <t>Ssd</t>
+  </si>
+  <si>
+    <t>Sd</t>
+  </si>
+  <si>
     <t>Micro Switch</t>
   </si>
   <si>
@@ -164,6 +182,12 @@
     <t>Draw Three</t>
   </si>
   <si>
+    <t>How About This</t>
+  </si>
+  <si>
+    <t>Cx</t>
+  </si>
+  <si>
     <t>Omron</t>
   </si>
   <si>
@@ -185,6 +209,21 @@
     <t>Draw Four</t>
   </si>
   <si>
+    <t>Dfsf</t>
+  </si>
+  <si>
+    <t>Sdfs</t>
+  </si>
+  <si>
+    <t>SDFSD</t>
+  </si>
+  <si>
+    <t>DSFD</t>
+  </si>
+  <si>
+    <t>Sdfsd</t>
+  </si>
+  <si>
     <t xml:space="preserve">Laser Light </t>
   </si>
   <si>
@@ -212,9 +251,6 @@
     <t>E21224</t>
   </si>
   <si>
-    <t>Tilt Switch</t>
-  </si>
-  <si>
     <t>Ramsey</t>
   </si>
   <si>
@@ -275,6 +311,9 @@
     <t>Draw Seven</t>
   </si>
   <si>
+    <t>This?</t>
+  </si>
+  <si>
     <t>Orca Sonar Amplifier</t>
   </si>
   <si>
@@ -986,6 +1025,21 @@
     <t>BF22</t>
   </si>
   <si>
+    <t>Acadcadc</t>
+  </si>
+  <si>
+    <t>Axasxaasxaxsax</t>
+  </si>
+  <si>
+    <t>XSAXASXA</t>
+  </si>
+  <si>
+    <t>ASDSADADS</t>
+  </si>
+  <si>
+    <t>Asdasdasda</t>
+  </si>
+  <si>
     <t>NBB5-18GM40-Z0</t>
   </si>
   <si>
@@ -1028,6 +1082,18 @@
     <t>KFU8-DW-1D</t>
   </si>
   <si>
+    <t>Rfwfw</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Xcx</t>
+  </si>
+  <si>
+    <t>Xc</t>
+  </si>
+  <si>
     <t>Flow Sensor</t>
   </si>
   <si>
@@ -1250,12 +1316,6 @@
     <t>Fsdfs</t>
   </si>
   <si>
-    <t>Sdfsd</t>
-  </si>
-  <si>
-    <t>SDFSD</t>
-  </si>
-  <si>
     <t>67843</t>
   </si>
   <si>
@@ -1370,6 +1430,18 @@
     <t>1NO, 1NC</t>
   </si>
   <si>
+    <t>Sfds Testtt</t>
+  </si>
+  <si>
+    <t>Wew</t>
+  </si>
+  <si>
+    <t>Sds</t>
+  </si>
+  <si>
+    <t>Asc</t>
+  </si>
+  <si>
     <t>Rubber Boot</t>
   </si>
   <si>
@@ -1491,6 +1563,18 @@
   </si>
   <si>
     <t>P048403-STD-P-D-K</t>
+  </si>
+  <si>
+    <t>New Itess</t>
+  </si>
+  <si>
+    <t>??A</t>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t>Aa</t>
   </si>
   <si>
     <t>Pullwire Spring</t>
@@ -2241,7 +2325,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="7" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="8" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -2401,6 +2485,9 @@
     <xf borderId="16" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="17" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="18" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="15" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -2700,7 +2787,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F81"/>
+  <dimension ref="A1:F87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M15" sqref="M15"/>
@@ -2763,52 +2850,62 @@
         <v>10</v>
       </c>
       <c r="D5" s="69" t="n">
-        <v>0</v>
+        <v>8925732</v>
       </c>
       <c r="E5" s="69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" s="69" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" s="69" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C6" s="69" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D6" s="69" t="n">
-        <v>3463</v>
+        <v>0</v>
       </c>
       <c r="E6" s="69" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F6" s="69" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="69" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B7" s="69" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="69" t="n"/>
+        <v>15</v>
+      </c>
+      <c r="C7" s="69" t="s">
+        <v>16</v>
+      </c>
       <c r="D7" s="69" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="69" t="n"/>
-      <c r="F7" s="69" t="n"/>
+        <v>3463</v>
+      </c>
+      <c r="E7" s="69" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="69" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="69" t="n"/>
-      <c r="B8" s="69" t="n"/>
+      <c r="A8" s="69" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="69" t="s">
+        <v>15</v>
+      </c>
       <c r="C8" s="69" t="n"/>
       <c r="D8" s="69" t="n">
         <v>0</v>
@@ -2817,9 +2914,7 @@
       <c r="F8" s="69" t="n"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="69" t="s">
-        <v>14</v>
-      </c>
+      <c r="A9" s="69" t="n"/>
       <c r="B9" s="69" t="n"/>
       <c r="C9" s="69" t="n"/>
       <c r="D9" s="69" t="n">
@@ -2829,522 +2924,514 @@
       <c r="F9" s="69" t="n"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="72" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="72" t="n"/>
-      <c r="C10" s="72" t="n"/>
-      <c r="D10" s="72" t="n">
+      <c r="A10" s="69" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="69" t="n"/>
+      <c r="C10" s="69" t="n"/>
+      <c r="D10" s="69" t="n">
         <v>0</v>
       </c>
-      <c r="E10" s="72" t="n"/>
-      <c r="F10" s="72" t="n"/>
+      <c r="E10" s="69" t="n"/>
+      <c r="F10" s="69" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="11" s="52" spans="1:6" thickBot="1">
-      <c r="A11" s="71" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="71" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="71" t="n"/>
-      <c r="D11" s="71" t="n">
+      <c r="A11" s="72" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="72" t="n"/>
+      <c r="C11" s="72" t="n"/>
+      <c r="D11" s="72" t="n">
         <v>0</v>
       </c>
-      <c r="E11" s="71" t="n"/>
-      <c r="F11" s="71" t="n"/>
+      <c r="E11" s="72" t="n"/>
+      <c r="F11" s="72" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="12" s="52" spans="1:6" thickBot="1">
-      <c r="A12" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="54" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="40" t="n"/>
-      <c r="D12" s="40" t="n"/>
-      <c r="E12" s="54" t="s">
+      <c r="A12" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="54" t="n"/>
+      <c r="B12" s="71" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="71" t="n"/>
+      <c r="D12" s="71" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="71" t="n"/>
+      <c r="F12" s="71" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="13" s="52" spans="1:6" thickBot="1">
-      <c r="A13" s="70" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="70" t="s">
+      <c r="A13" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="70" t="n"/>
-      <c r="D13" s="70" t="n">
+      <c r="B13" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="40" t="n"/>
+      <c r="D13" s="40" t="n"/>
+      <c r="E13" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="54" t="n"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="70" t="n"/>
+      <c r="D14" s="70" t="n">
         <v>0</v>
       </c>
-      <c r="E13" s="70" t="n"/>
-      <c r="F13" s="70" t="n"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="69" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="69" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="69" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="69" t="n">
+      <c r="E14" s="70" t="n"/>
+      <c r="F14" s="70" t="n"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="69" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="69" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="69" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="69" t="n">
         <v>5346</v>
       </c>
-      <c r="E14" s="69" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" s="69" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="55" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="41" t="n"/>
-      <c r="D15" s="41" t="n"/>
-      <c r="E15" s="55" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" s="55" t="n"/>
+      <c r="E15" s="69" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="69" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="55" t="n"/>
+        <v>22</v>
+      </c>
+      <c r="B16" s="55" t="s">
+        <v>32</v>
+      </c>
       <c r="C16" s="41" t="n"/>
       <c r="D16" s="41" t="n"/>
       <c r="E16" s="55" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F16" s="55" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="17" s="52" spans="1:6" thickBot="1">
       <c r="A17" s="55" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="55" t="s">
-        <v>32</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B17" s="55" t="n"/>
       <c r="C17" s="41" t="n"/>
-      <c r="D17" s="41" t="n">
-        <v>40530177</v>
-      </c>
+      <c r="D17" s="41" t="n"/>
       <c r="E17" s="55" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F17" s="55" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="18" s="52" spans="1:6" thickBot="1">
       <c r="A18" s="55" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B18" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="41" t="n"/>
-      <c r="E18" s="55" t="n"/>
+      <c r="C18" s="41" t="n"/>
+      <c r="D18" s="41" t="n">
+        <v>40530177</v>
+      </c>
+      <c r="E18" s="55" t="s">
+        <v>37</v>
+      </c>
       <c r="F18" s="55" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="19" s="52" spans="1:6" thickBot="1">
       <c r="A19" s="55" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="B19" s="55" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="41" t="n"/>
+        <v>39</v>
+      </c>
+      <c r="C19" s="41" t="s">
+        <v>40</v>
+      </c>
       <c r="D19" s="41" t="n"/>
-      <c r="E19" s="55" t="s">
-        <v>37</v>
-      </c>
+      <c r="E19" s="55" t="n"/>
       <c r="F19" s="55" t="n"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="56" t="n"/>
-      <c r="D20" s="56" t="n"/>
-      <c r="E20" s="56" t="s">
-        <v>39</v>
-      </c>
-      <c r="F20" s="56" t="n"/>
+      <c r="A20" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="41" t="n"/>
+      <c r="D20" s="41" t="n"/>
+      <c r="E20" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="55" t="n"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="25" t="n"/>
-      <c r="C21" s="26" t="n"/>
-      <c r="D21" s="26" t="n"/>
-      <c r="E21" s="26" t="n"/>
-      <c r="F21" s="27" t="n"/>
+      <c r="A21" s="53" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="56" t="n"/>
+      <c r="D21" s="56" t="n"/>
+      <c r="E21" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" s="56" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="22" s="52" spans="1:6" thickBot="1">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="25" t="n"/>
+      <c r="C22" s="26" t="n"/>
+      <c r="D22" s="26" t="n"/>
+      <c r="E22" s="26" t="n"/>
+      <c r="F22" s="27" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="23" s="52" spans="1:6" thickBot="1">
+      <c r="A23" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B23" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C23" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D23" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E23" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="F23" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="15.75" r="23" s="52" spans="1:6" thickBot="1">
-      <c r="A23" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" s="54" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" s="40" t="n">
-        <v>33001706</v>
-      </c>
-      <c r="D23" s="40" t="n">
-        <v>40531993</v>
-      </c>
-      <c r="E23" s="54" t="n"/>
-      <c r="F23" s="54" t="n"/>
-    </row>
     <row customHeight="1" ht="15.75" r="24" s="52" spans="1:6" thickBot="1">
-      <c r="A24" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" s="41" t="n">
-        <v>328139</v>
-      </c>
-      <c r="D24" s="41" t="n">
-        <v>40751057</v>
-      </c>
-      <c r="E24" s="55" t="n"/>
-      <c r="F24" s="55" t="n"/>
+      <c r="A24" s="69" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="69" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="69" t="n"/>
+      <c r="D24" s="69" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" s="69" t="n"/>
+      <c r="F24" s="69" t="n"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" s="55" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" s="41" t="n"/>
-      <c r="D25" s="41" t="n"/>
-      <c r="E25" s="41" t="n">
-        <v>1655137</v>
-      </c>
-      <c r="F25" s="55" t="n"/>
+        <v>47</v>
+      </c>
+      <c r="B25" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="40" t="n">
+        <v>33001706</v>
+      </c>
+      <c r="D25" s="40" t="n">
+        <v>40531993</v>
+      </c>
+      <c r="E25" s="54" t="n"/>
+      <c r="F25" s="54" t="n"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="55" t="s">
-        <v>45</v>
-      </c>
-      <c r="B26" s="55" t="n"/>
+        <v>47</v>
+      </c>
+      <c r="B26" s="55" t="s">
+        <v>49</v>
+      </c>
       <c r="C26" s="41" t="n">
-        <v>3267765</v>
+        <v>328139</v>
       </c>
       <c r="D26" s="41" t="n">
-        <v>20359005</v>
+        <v>40751057</v>
       </c>
       <c r="E26" s="55" t="n"/>
       <c r="F26" s="55" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="27" s="52" spans="1:6" thickBot="1">
-      <c r="A27" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B27" s="17" t="n"/>
-      <c r="C27" s="18" t="n"/>
-      <c r="D27" s="18" t="n"/>
-      <c r="E27" s="18" t="n"/>
-      <c r="F27" s="19" t="n"/>
+      <c r="A27" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="41" t="n"/>
+      <c r="D27" s="41" t="n"/>
+      <c r="E27" s="41" t="n">
+        <v>1655137</v>
+      </c>
+      <c r="F27" s="55" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="28" s="52" spans="1:6" thickBot="1">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="55" t="n"/>
+      <c r="C28" s="41" t="n">
+        <v>3267765</v>
+      </c>
+      <c r="D28" s="41" t="n">
+        <v>20359005</v>
+      </c>
+      <c r="E28" s="55" t="n"/>
+      <c r="F28" s="55" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="29" s="52" spans="1:6" thickBot="1">
+      <c r="A29" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" s="17" t="n"/>
+      <c r="C29" s="18" t="n"/>
+      <c r="D29" s="18" t="n"/>
+      <c r="E29" s="18" t="n"/>
+      <c r="F29" s="19" t="n"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B30" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C30" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D30" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E30" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="F30" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="15.75" r="29" s="52" spans="1:6" thickBot="1">
-      <c r="A29" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="B29" s="54" t="s">
-        <v>47</v>
-      </c>
-      <c r="C29" s="40" t="n"/>
-      <c r="D29" s="40" t="n"/>
-      <c r="E29" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="F29" s="54" t="n"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="B30" s="55" t="s">
-        <v>49</v>
-      </c>
-      <c r="C30" s="41" t="n"/>
-      <c r="D30" s="41" t="n"/>
-      <c r="E30" s="55" t="s">
-        <v>50</v>
-      </c>
-      <c r="F30" s="55" t="n"/>
-    </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="B31" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="C31" s="41" t="n"/>
-      <c r="D31" s="41" t="n"/>
-      <c r="E31" s="55" t="s">
-        <v>52</v>
-      </c>
-      <c r="F31" s="55" t="n"/>
+      <c r="A31" s="69" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" s="69" t="n"/>
+      <c r="C31" s="69" t="n"/>
+      <c r="D31" s="69" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" s="69" t="n"/>
+      <c r="F31" s="69" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="32" s="52" spans="1:6" thickBot="1">
-      <c r="A32" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B32" s="17" t="n"/>
-      <c r="C32" s="18" t="n"/>
-      <c r="D32" s="18" t="n"/>
-      <c r="E32" s="18" t="n"/>
-      <c r="F32" s="19" t="n"/>
+      <c r="A32" s="69" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32" s="69" t="n"/>
+      <c r="C32" s="69" t="n"/>
+      <c r="D32" s="69" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" s="69" t="n"/>
+      <c r="F32" s="69" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="33" s="52" spans="1:6" thickBot="1">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" s="40" t="n"/>
+      <c r="D33" s="40" t="n"/>
+      <c r="E33" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="F33" s="54" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="34" s="52" spans="1:6" thickBot="1">
+      <c r="A34" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" s="41" t="n"/>
+      <c r="D34" s="41" t="n"/>
+      <c r="E34" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="F34" s="55" t="n"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35" s="41" t="n"/>
+      <c r="D35" s="41" t="n"/>
+      <c r="E35" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="F35" s="55" t="n"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36" s="17" t="n"/>
+      <c r="C36" s="18" t="n"/>
+      <c r="D36" s="18" t="n"/>
+      <c r="E36" s="18" t="n"/>
+      <c r="F36" s="19" t="n"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B37" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C37" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D37" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E33" s="8" t="s">
+      <c r="E37" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F33" s="8" t="s">
+      <c r="F37" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="15.75" r="34" s="52" spans="1:6" thickBot="1">
-      <c r="A34" s="54" t="s">
-        <v>54</v>
-      </c>
-      <c r="B34" s="54" t="s">
-        <v>55</v>
-      </c>
-      <c r="C34" s="40" t="n">
+    <row customHeight="1" ht="15.75" r="38" s="52" spans="1:6" thickBot="1">
+      <c r="A38" s="69" t="s">
+        <v>62</v>
+      </c>
+      <c r="B38" s="69" t="s">
+        <v>63</v>
+      </c>
+      <c r="C38" s="69" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38" s="69" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" s="69" t="s">
+        <v>65</v>
+      </c>
+      <c r="F38" s="69" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.75" r="39" s="52" spans="1:6" thickBot="1">
+      <c r="A39" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="B39" s="54" t="s">
+        <v>68</v>
+      </c>
+      <c r="C39" s="40" t="n">
         <v>1040</v>
       </c>
-      <c r="D34" s="40" t="n"/>
-      <c r="E34" s="54" t="s">
-        <v>56</v>
-      </c>
-      <c r="F34" s="54" t="n"/>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="69" t="s">
-        <v>57</v>
-      </c>
-      <c r="B35" s="69" t="s">
-        <v>58</v>
-      </c>
-      <c r="C35" s="69" t="s">
-        <v>59</v>
-      </c>
-      <c r="D35" s="69" t="n">
+      <c r="D39" s="40" t="n"/>
+      <c r="E39" s="54" t="s">
+        <v>69</v>
+      </c>
+      <c r="F39" s="54" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="40" s="52" spans="1:6" thickBot="1">
+      <c r="A40" s="69" t="s">
+        <v>70</v>
+      </c>
+      <c r="B40" s="69" t="s">
+        <v>71</v>
+      </c>
+      <c r="C40" s="69" t="s">
+        <v>72</v>
+      </c>
+      <c r="D40" s="69" t="n">
         <v>1234</v>
       </c>
-      <c r="E35" s="69" t="s">
-        <v>60</v>
-      </c>
-      <c r="F35" s="69" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="69" t="s">
-        <v>57</v>
-      </c>
-      <c r="B36" s="69" t="s">
-        <v>58</v>
-      </c>
-      <c r="C36" s="69" t="s">
-        <v>59</v>
-      </c>
-      <c r="D36" s="69" t="n">
+      <c r="E40" s="69" t="s">
+        <v>73</v>
+      </c>
+      <c r="F40" s="69" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="69" t="s">
+        <v>70</v>
+      </c>
+      <c r="B41" s="69" t="s">
+        <v>71</v>
+      </c>
+      <c r="C41" s="69" t="s">
+        <v>72</v>
+      </c>
+      <c r="D41" s="69" t="n">
         <v>34245</v>
       </c>
-      <c r="E36" s="69" t="s">
-        <v>60</v>
-      </c>
-      <c r="F36" s="69" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="55" t="s">
-        <v>61</v>
-      </c>
-      <c r="B37" s="55" t="s">
-        <v>55</v>
-      </c>
-      <c r="C37" s="41" t="n"/>
-      <c r="D37" s="41" t="n"/>
-      <c r="E37" s="55" t="s">
-        <v>62</v>
-      </c>
-      <c r="F37" s="55" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="38" s="52" spans="1:6" thickBot="1">
-      <c r="A38" s="55" t="s">
-        <v>63</v>
-      </c>
-      <c r="B38" s="55" t="s">
-        <v>64</v>
-      </c>
-      <c r="C38" s="41" t="s">
-        <v>65</v>
-      </c>
-      <c r="D38" s="41" t="n">
-        <v>40530103</v>
-      </c>
-      <c r="E38" s="55" t="n"/>
-      <c r="F38" s="55" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="39" s="52" spans="1:6" thickBot="1">
-      <c r="A39" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B39" s="17" t="n"/>
-      <c r="C39" s="18" t="n"/>
-      <c r="D39" s="18" t="n"/>
-      <c r="E39" s="18" t="n"/>
-      <c r="F39" s="19" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="40" s="52" spans="1:6" thickBot="1">
-      <c r="A40" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F40" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="B41" s="54" t="s">
-        <v>68</v>
-      </c>
-      <c r="C41" s="40" t="n"/>
-      <c r="D41" s="40" t="n"/>
-      <c r="E41" s="54" t="n"/>
-      <c r="F41" s="54" t="n"/>
+      <c r="E41" s="69" t="s">
+        <v>73</v>
+      </c>
+      <c r="F41" s="69" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="55" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B42" s="55" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="C42" s="41" t="n"/>
-      <c r="D42" s="41" t="n">
-        <v>40725385</v>
-      </c>
+      <c r="D42" s="41" t="n"/>
       <c r="E42" s="55" t="s">
-        <v>70</v>
-      </c>
-      <c r="F42" s="55" t="s">
-        <v>71</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="F42" s="55" t="n"/>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="55" t="s">
-        <v>69</v>
+        <v>8</v>
       </c>
       <c r="B43" s="55" t="s">
-        <v>19</v>
-      </c>
-      <c r="C43" s="41" t="n"/>
+        <v>76</v>
+      </c>
+      <c r="C43" s="41" t="s">
+        <v>77</v>
+      </c>
       <c r="D43" s="41" t="n">
-        <v>40723864</v>
-      </c>
-      <c r="E43" s="55" t="s">
-        <v>72</v>
-      </c>
-      <c r="F43" s="55" t="s">
-        <v>73</v>
-      </c>
+        <v>40530103</v>
+      </c>
+      <c r="E43" s="55" t="n"/>
+      <c r="F43" s="55" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="44" s="52" spans="1:6" thickBot="1">
       <c r="A44" s="9" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B44" s="17" t="n"/>
       <c r="C44" s="18" t="n"/>
@@ -3374,411 +3461,501 @@
     </row>
     <row customHeight="1" ht="15.75" r="46" s="52" spans="1:6" thickBot="1">
       <c r="A46" s="54" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B46" s="54" t="s">
-        <v>76</v>
-      </c>
-      <c r="C46" s="40" t="s">
-        <v>77</v>
-      </c>
-      <c r="D46" s="54" t="n"/>
+        <v>80</v>
+      </c>
+      <c r="C46" s="40" t="n"/>
+      <c r="D46" s="40" t="n"/>
       <c r="E46" s="54" t="n"/>
       <c r="F46" s="54" t="n"/>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="55" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B47" s="55" t="s">
-        <v>76</v>
-      </c>
-      <c r="C47" s="41" t="s">
-        <v>79</v>
-      </c>
-      <c r="D47" s="55" t="n"/>
-      <c r="E47" s="55" t="n"/>
-      <c r="F47" s="55" t="n"/>
+        <v>23</v>
+      </c>
+      <c r="C47" s="41" t="n"/>
+      <c r="D47" s="41" t="n">
+        <v>40725385</v>
+      </c>
+      <c r="E47" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="F47" s="55" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="55" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B48" s="55" t="s">
-        <v>76</v>
-      </c>
-      <c r="C48" s="41" t="n">
-        <v>6132415944</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="C48" s="41" t="n"/>
       <c r="D48" s="41" t="n">
-        <v>20182108</v>
-      </c>
-      <c r="E48" s="55" t="n"/>
-      <c r="F48" s="55" t="n"/>
+        <v>40723864</v>
+      </c>
+      <c r="E48" s="55" t="s">
+        <v>84</v>
+      </c>
+      <c r="F48" s="55" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="55" t="s">
-        <v>81</v>
-      </c>
-      <c r="B49" s="55" t="s">
-        <v>76</v>
-      </c>
-      <c r="C49" s="41" t="s">
-        <v>82</v>
-      </c>
-      <c r="D49" s="55" t="n"/>
-      <c r="E49" s="55" t="n"/>
-      <c r="F49" s="55" t="n"/>
+      <c r="A49" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B49" s="17" t="n"/>
+      <c r="C49" s="18" t="n"/>
+      <c r="D49" s="18" t="n"/>
+      <c r="E49" s="18" t="n"/>
+      <c r="F49" s="19" t="n"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="B50" s="17" t="n"/>
-      <c r="C50" s="18" t="n"/>
-      <c r="D50" s="18" t="n"/>
-      <c r="E50" s="18" t="n"/>
-      <c r="F50" s="19" t="n"/>
+      <c r="A50" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E51" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F51" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="A51" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="B51" s="54" t="s">
+        <v>88</v>
+      </c>
+      <c r="C51" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="D51" s="54" t="n"/>
+      <c r="E51" s="54" t="n"/>
+      <c r="F51" s="54" t="n"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="B52" s="54" t="s">
-        <v>76</v>
-      </c>
-      <c r="C52" s="40" t="s">
-        <v>82</v>
-      </c>
-      <c r="D52" s="21" t="n"/>
-      <c r="E52" s="54" t="n"/>
-      <c r="F52" s="54" t="n"/>
+      <c r="A52" s="55" t="s">
+        <v>90</v>
+      </c>
+      <c r="B52" s="55" t="s">
+        <v>88</v>
+      </c>
+      <c r="C52" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="D52" s="55" t="n"/>
+      <c r="E52" s="55" t="n"/>
+      <c r="F52" s="55" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="53" s="52" spans="1:6" thickBot="1">
       <c r="A53" s="55" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="B53" s="55" t="s">
-        <v>76</v>
-      </c>
-      <c r="C53" s="41" t="s">
-        <v>85</v>
-      </c>
-      <c r="D53" s="22" t="n"/>
+        <v>88</v>
+      </c>
+      <c r="C53" s="41" t="n">
+        <v>6132415944</v>
+      </c>
+      <c r="D53" s="41" t="n">
+        <v>20182108</v>
+      </c>
       <c r="E53" s="55" t="n"/>
       <c r="F53" s="55" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="54" s="52" spans="1:6" thickBot="1">
       <c r="A54" s="55" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B54" s="55" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="C54" s="41" t="s">
-        <v>87</v>
-      </c>
-      <c r="D54" s="22" t="n"/>
+        <v>94</v>
+      </c>
+      <c r="D54" s="55" t="n"/>
       <c r="E54" s="55" t="n"/>
       <c r="F54" s="55" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="55" s="52" spans="1:6" thickBot="1">
-      <c r="A55" s="55" t="s">
-        <v>86</v>
-      </c>
-      <c r="B55" s="55" t="s">
-        <v>76</v>
-      </c>
-      <c r="C55" s="41" t="s">
-        <v>88</v>
-      </c>
-      <c r="D55" s="22" t="n"/>
-      <c r="E55" s="55" t="n"/>
-      <c r="F55" s="55" t="n"/>
+      <c r="A55" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B55" s="17" t="n"/>
+      <c r="C55" s="18" t="n"/>
+      <c r="D55" s="18" t="n"/>
+      <c r="E55" s="18" t="n"/>
+      <c r="F55" s="19" t="n"/>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="B56" s="17" t="n"/>
-      <c r="C56" s="18" t="n"/>
-      <c r="D56" s="18" t="n"/>
-      <c r="E56" s="18" t="n"/>
-      <c r="F56" s="19" t="n"/>
+      <c r="A56" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row customHeight="1" ht="15.75" r="57" s="52" spans="1:6" thickBot="1">
-      <c r="A57" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E57" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F57" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="A57" s="69" t="s">
+        <v>96</v>
+      </c>
+      <c r="B57" s="69" t="n"/>
+      <c r="C57" s="69" t="n"/>
+      <c r="D57" s="69" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" s="69" t="n"/>
+      <c r="F57" s="69" t="n"/>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="54" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="B58" s="54" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C58" s="40" t="s">
-        <v>91</v>
-      </c>
-      <c r="D58" s="54" t="n"/>
-      <c r="E58" s="54" t="s">
-        <v>92</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="D58" s="21" t="n"/>
+      <c r="E58" s="54" t="n"/>
       <c r="F58" s="54" t="n"/>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="55" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B59" s="55" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C59" s="41" t="s">
-        <v>94</v>
-      </c>
-      <c r="D59" s="55" t="n"/>
-      <c r="E59" s="55" t="s">
-        <v>95</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="D59" s="22" t="n"/>
+      <c r="E59" s="55" t="n"/>
       <c r="F59" s="55" t="n"/>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="55" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B60" s="55" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C60" s="41" t="s">
-        <v>96</v>
-      </c>
-      <c r="D60" s="55" t="n"/>
-      <c r="E60" s="55" t="s">
-        <v>97</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="D60" s="22" t="n"/>
+      <c r="E60" s="55" t="n"/>
       <c r="F60" s="55" t="n"/>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="55" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="B61" s="55" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C61" s="41" t="s">
-        <v>98</v>
-      </c>
-      <c r="D61" s="55" t="n"/>
-      <c r="E61" s="55" t="s">
-        <v>99</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="D61" s="22" t="n"/>
+      <c r="E61" s="55" t="n"/>
       <c r="F61" s="55" t="n"/>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="55" t="s">
-        <v>100</v>
-      </c>
-      <c r="B62" s="55" t="s">
-        <v>90</v>
-      </c>
-      <c r="C62" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="D62" s="55" t="n"/>
-      <c r="E62" s="55" t="s">
+      <c r="A62" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="F62" s="55" t="n"/>
+      <c r="B62" s="17" t="n"/>
+      <c r="C62" s="18" t="n"/>
+      <c r="D62" s="18" t="n"/>
+      <c r="E62" s="18" t="n"/>
+      <c r="F62" s="19" t="n"/>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="55" t="s">
-        <v>100</v>
-      </c>
-      <c r="B63" s="55" t="s">
-        <v>90</v>
-      </c>
-      <c r="C63" s="41" t="s">
+      <c r="A63" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F63" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="54" t="s">
+        <v>83</v>
+      </c>
+      <c r="B64" s="54" t="s">
         <v>103</v>
       </c>
-      <c r="D63" s="55" t="n"/>
-      <c r="E63" s="55" t="s">
+      <c r="C64" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="F63" s="55" t="n"/>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64" s="56" t="s">
+      <c r="D64" s="54" t="n"/>
+      <c r="E64" s="54" t="s">
         <v>105</v>
       </c>
-      <c r="B64" s="56" t="s">
-        <v>90</v>
-      </c>
-      <c r="C64" s="53" t="s">
+      <c r="F64" s="54" t="n"/>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="55" t="s">
         <v>106</v>
       </c>
-      <c r="D64" s="56" t="n"/>
-      <c r="E64" s="56" t="s">
+      <c r="B65" s="55" t="s">
+        <v>103</v>
+      </c>
+      <c r="C65" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="F64" s="56" t="n"/>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65" s="9" t="s">
+      <c r="D65" s="55" t="n"/>
+      <c r="E65" s="55" t="s">
         <v>108</v>
       </c>
-      <c r="B65" s="17" t="n"/>
-      <c r="C65" s="18" t="n"/>
-      <c r="D65" s="18" t="n"/>
-      <c r="E65" s="18" t="n"/>
-      <c r="F65" s="19" t="n"/>
+      <c r="F65" s="55" t="n"/>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="32" t="s">
+      <c r="A66" s="55" t="s">
+        <v>106</v>
+      </c>
+      <c r="B66" s="55" t="s">
+        <v>103</v>
+      </c>
+      <c r="C66" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="D66" s="55" t="n"/>
+      <c r="E66" s="55" t="s">
+        <v>110</v>
+      </c>
+      <c r="F66" s="55" t="n"/>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="55" t="s">
+        <v>87</v>
+      </c>
+      <c r="B67" s="55" t="s">
+        <v>103</v>
+      </c>
+      <c r="C67" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="D67" s="55" t="n"/>
+      <c r="E67" s="55" t="s">
+        <v>112</v>
+      </c>
+      <c r="F67" s="55" t="n"/>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="B68" s="55" t="s">
+        <v>103</v>
+      </c>
+      <c r="C68" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="D68" s="55" t="n"/>
+      <c r="E68" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="F68" s="55" t="n"/>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="B69" s="55" t="s">
+        <v>103</v>
+      </c>
+      <c r="C69" s="41" t="s">
+        <v>116</v>
+      </c>
+      <c r="D69" s="55" t="n"/>
+      <c r="E69" s="55" t="s">
+        <v>117</v>
+      </c>
+      <c r="F69" s="55" t="n"/>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="56" t="s">
+        <v>118</v>
+      </c>
+      <c r="B70" s="56" t="s">
+        <v>103</v>
+      </c>
+      <c r="C70" s="53" t="s">
+        <v>119</v>
+      </c>
+      <c r="D70" s="56" t="n"/>
+      <c r="E70" s="56" t="s">
+        <v>120</v>
+      </c>
+      <c r="F70" s="56" t="n"/>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B71" s="17" t="n"/>
+      <c r="C71" s="18" t="n"/>
+      <c r="D71" s="18" t="n"/>
+      <c r="E71" s="18" t="n"/>
+      <c r="F71" s="19" t="n"/>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B66" s="32" t="s">
+      <c r="B72" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="C66" s="32" t="s">
+      <c r="C72" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D66" s="32" t="s">
+      <c r="D72" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="E66" s="32" t="s">
+      <c r="E72" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="F66" s="32" t="s">
+      <c r="F72" s="32" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
-      <c r="A67" s="40" t="s">
-        <v>109</v>
-      </c>
-      <c r="B67" s="54" t="s">
-        <v>90</v>
-      </c>
-      <c r="C67" s="54" t="s">
-        <v>110</v>
-      </c>
-      <c r="D67" s="54" t="n"/>
-      <c r="E67" s="54" t="s">
-        <v>111</v>
-      </c>
-      <c r="F67" s="54" t="n"/>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68" s="53" t="s">
-        <v>100</v>
-      </c>
-      <c r="B68" s="53" t="s">
-        <v>90</v>
-      </c>
-      <c r="C68" s="53" t="s">
-        <v>112</v>
-      </c>
-      <c r="D68" s="53" t="n"/>
-      <c r="E68" s="53" t="s">
+    <row r="73" spans="1:6">
+      <c r="A73" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="B73" s="54" t="s">
+        <v>103</v>
+      </c>
+      <c r="C73" s="54" t="s">
+        <v>123</v>
+      </c>
+      <c r="D73" s="54" t="n"/>
+      <c r="E73" s="54" t="s">
+        <v>124</v>
+      </c>
+      <c r="F73" s="54" t="n"/>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="53" t="s">
         <v>113</v>
       </c>
-      <c r="F68" s="53" t="n"/>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="C69" s="29" t="n"/>
-      <c r="D69" s="29" t="n"/>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="C70" s="29" t="n"/>
-      <c r="D70" s="29" t="n"/>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="C71" s="29" t="n"/>
-      <c r="D71" s="29" t="n"/>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="C72" s="29" t="n"/>
-      <c r="D72" s="29" t="n"/>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="C73" s="29" t="n"/>
-      <c r="D73" s="29" t="n"/>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="C74" s="29" t="n"/>
-      <c r="D74" s="29" t="n"/>
+      <c r="B74" s="53" t="s">
+        <v>103</v>
+      </c>
+      <c r="C74" s="53" t="s">
+        <v>125</v>
+      </c>
+      <c r="D74" s="53" t="n"/>
+      <c r="E74" s="53" t="s">
+        <v>126</v>
+      </c>
+      <c r="F74" s="53" t="n"/>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="29" t="n"/>
       <c r="C75" s="29" t="n"/>
       <c r="D75" s="29" t="n"/>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" s="33" t="n"/>
+      <c r="C76" s="29" t="n"/>
+      <c r="D76" s="29" t="n"/>
     </row>
     <row r="77" spans="1:6">
-      <c r="A77" s="33" t="n"/>
-      <c r="B77" s="33" t="n"/>
-      <c r="C77" s="33" t="n"/>
-      <c r="D77" s="33" t="n"/>
-      <c r="E77" s="33" t="n"/>
-      <c r="F77" s="33" t="n"/>
+      <c r="C77" s="29" t="n"/>
+      <c r="D77" s="29" t="n"/>
     </row>
     <row r="78" spans="1:6">
       <c r="C78" s="29" t="n"/>
       <c r="D78" s="29" t="n"/>
-      <c r="E78" s="29" t="n"/>
     </row>
     <row r="79" spans="1:6">
       <c r="C79" s="29" t="n"/>
       <c r="D79" s="29" t="n"/>
-      <c r="E79" s="29" t="n"/>
     </row>
     <row r="80" spans="1:6">
       <c r="C80" s="29" t="n"/>
       <c r="D80" s="29" t="n"/>
-      <c r="E80" s="29" t="n"/>
     </row>
     <row r="81" spans="1:6">
+      <c r="A81" s="29" t="n"/>
       <c r="C81" s="29" t="n"/>
       <c r="D81" s="29" t="n"/>
-      <c r="E81" s="29" t="n"/>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="33" t="n"/>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="33" t="n"/>
+      <c r="B83" s="33" t="n"/>
+      <c r="C83" s="33" t="n"/>
+      <c r="D83" s="33" t="n"/>
+      <c r="E83" s="33" t="n"/>
+      <c r="F83" s="33" t="n"/>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="C84" s="29" t="n"/>
+      <c r="D84" s="29" t="n"/>
+      <c r="E84" s="29" t="n"/>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="C85" s="29" t="n"/>
+      <c r="D85" s="29" t="n"/>
+      <c r="E85" s="29" t="n"/>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="C86" s="29" t="n"/>
+      <c r="D86" s="29" t="n"/>
+      <c r="E86" s="29" t="n"/>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="C87" s="29" t="n"/>
+      <c r="D87" s="29" t="n"/>
+      <c r="E87" s="29" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3813,7 +3990,7 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="58" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="2" s="52" spans="1:14" thickBot="1"/>
@@ -3857,7 +4034,7 @@
     </row>
     <row customHeight="1" ht="15.75" r="6" s="52" spans="1:14" thickBot="1">
       <c r="A6" s="9" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B6" s="17" t="n"/>
       <c r="C6" s="18" t="n"/>
@@ -3895,7 +4072,7 @@
     </row>
     <row customHeight="1" ht="15.75" r="9" s="52" spans="1:14" thickBot="1">
       <c r="A9" s="9" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B9" s="17" t="n"/>
       <c r="C9" s="18" t="n"/>
@@ -3933,7 +4110,7 @@
     </row>
     <row customHeight="1" ht="15.75" r="12" s="52" spans="1:14" thickBot="1">
       <c r="A12" s="9" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B12" s="17" t="n"/>
       <c r="C12" s="18" t="n"/>
@@ -3964,13 +4141,13 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="40" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="D14" s="40" t="n"/>
       <c r="E14" s="54" t="n"/>
@@ -3978,13 +4155,13 @@
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="41" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="B15" s="41" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="D15" s="41" t="n">
         <v>20554531</v>
@@ -3994,29 +4171,29 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="41" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="B16" s="41" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="D16" s="55" t="n"/>
       <c r="E16" s="55" t="n"/>
       <c r="F16" s="55" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="41" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="B17" s="41" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="C17" s="41" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="D17" s="36" t="n"/>
       <c r="E17" s="36" t="n"/>
@@ -4024,11 +4201,11 @@
     </row>
     <row customHeight="1" ht="15.75" r="18" s="52" spans="1:14" thickBot="1">
       <c r="A18" s="53" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="B18" s="53" t="n"/>
       <c r="C18" s="53" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="D18" s="56" t="n"/>
       <c r="E18" s="56" t="n"/>
@@ -4036,7 +4213,7 @@
     </row>
     <row customHeight="1" ht="15.75" r="19" s="52" spans="1:14" thickBot="1">
       <c r="A19" s="9" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="B19" s="17" t="n"/>
       <c r="C19" s="18" t="n"/>
@@ -4067,29 +4244,29 @@
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="40" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="B21" s="40" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="C21" s="40" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="D21" s="40" t="n"/>
       <c r="E21" s="54" t="n"/>
       <c r="F21" s="54" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="41" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="B22" s="41" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="C22" s="41" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="D22" s="41" t="n">
         <v>20443838</v>
@@ -4099,45 +4276,45 @@
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="41" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="B23" s="41" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="C23" s="41" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="D23" s="41" t="n"/>
       <c r="E23" s="55" t="n"/>
       <c r="F23" s="55" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="41" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="B24" s="41" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="C24" s="41" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="D24" s="41" t="n"/>
       <c r="E24" s="55" t="n"/>
       <c r="F24" s="55" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="41" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="B25" s="41" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="C25" s="41" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="D25" s="41" t="n"/>
       <c r="E25" s="55" t="n"/>
@@ -4145,13 +4322,13 @@
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="41" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="B26" s="41" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="C26" s="41" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="D26" s="41" t="n"/>
       <c r="E26" s="55" t="n"/>
@@ -4159,23 +4336,23 @@
     </row>
     <row customHeight="1" ht="15.75" r="27" s="52" spans="1:14" thickBot="1">
       <c r="A27" s="53" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="B27" s="53" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="C27" s="53" t="n">
         <v>143168328</v>
       </c>
       <c r="D27" s="39" t="n"/>
       <c r="E27" s="53" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="F27" s="49" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="28" s="52" spans="1:14" thickBot="1">
       <c r="A28" s="24" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="B28" s="25" t="n"/>
       <c r="C28" s="26" t="n"/>
@@ -4205,13 +4382,13 @@
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="40" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="B30" s="54" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="C30" s="40" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="D30" s="40" t="n">
         <v>20443838</v>
@@ -4221,13 +4398,13 @@
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="41" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="B31" s="55" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="C31" s="41" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="D31" s="41" t="n"/>
       <c r="E31" s="55" t="n"/>
@@ -4235,29 +4412,29 @@
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="41" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="B32" s="55" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="C32" s="41" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="D32" s="41" t="n"/>
       <c r="E32" s="55" t="n"/>
       <c r="F32" s="55" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="41" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="B33" s="55" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="C33" s="41" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="D33" s="41" t="n">
         <v>40573024</v>
@@ -4267,13 +4444,13 @@
     </row>
     <row customHeight="1" ht="15.75" r="34" s="52" spans="1:14" thickBot="1">
       <c r="A34" s="41" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="B34" s="55" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="C34" s="41" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="D34" s="41" t="n"/>
       <c r="E34" s="55" t="n"/>
@@ -4281,7 +4458,7 @@
     </row>
     <row customHeight="1" ht="15.75" r="35" s="52" spans="1:14" thickBot="1">
       <c r="A35" s="9" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="B35" s="17" t="n"/>
       <c r="C35" s="18" t="n"/>
@@ -4311,23 +4488,23 @@
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="54" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="B37" s="54" t="n"/>
       <c r="C37" s="40" t="n"/>
       <c r="D37" s="40" t="n"/>
       <c r="E37" s="54" t="n"/>
       <c r="F37" s="54" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="55" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="B38" s="55" t="n"/>
       <c r="C38" s="41" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="D38" s="41" t="n"/>
       <c r="E38" s="55" t="n"/>
@@ -4335,11 +4512,11 @@
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="55" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="B39" s="55" t="n"/>
       <c r="C39" s="41" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="D39" s="41" t="n"/>
       <c r="E39" s="55" t="n"/>
@@ -4347,11 +4524,11 @@
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="41" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="B40" s="55" t="n"/>
       <c r="C40" s="55" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="D40" s="55" t="n"/>
       <c r="E40" s="55" t="n"/>
@@ -4359,11 +4536,11 @@
     </row>
     <row customHeight="1" ht="15.75" r="41" s="52" spans="1:14" thickBot="1">
       <c r="A41" s="53" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="B41" s="49" t="n"/>
       <c r="C41" s="53" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="D41" s="49" t="n"/>
       <c r="E41" s="49" t="n"/>
@@ -4371,7 +4548,7 @@
     </row>
     <row customHeight="1" ht="15.75" r="42" s="52" spans="1:14" thickBot="1">
       <c r="A42" s="24" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="B42" s="25" t="n"/>
       <c r="C42" s="26" t="n"/>
@@ -4401,10 +4578,10 @@
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="54" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="B44" s="54" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="C44" s="40" t="n"/>
       <c r="D44" s="40" t="n"/>
@@ -4413,25 +4590,25 @@
     </row>
     <row customHeight="1" ht="15.75" r="45" s="52" spans="1:14" thickBot="1">
       <c r="A45" s="55" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="B45" s="55" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="C45" s="41" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="D45" s="41" t="n">
         <v>20351207</v>
       </c>
       <c r="E45" s="41" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="F45" s="55" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="46" s="52" spans="1:14" thickBot="1">
       <c r="A46" s="9" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="B46" s="17" t="n"/>
       <c r="C46" s="18" t="n"/>
@@ -4461,34 +4638,34 @@
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="54" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="B48" s="54" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="C48" s="40" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="D48" s="40" t="n"/>
       <c r="E48" s="40" t="n"/>
       <c r="F48" s="54" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="49" s="52" spans="1:14" thickBot="1">
       <c r="A49" s="56" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="B49" s="56" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="C49" s="53" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="D49" s="53" t="n"/>
       <c r="E49" s="53" t="n"/>
       <c r="F49" s="56" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -4516,7 +4693,7 @@
       <c r="D54" s="29" t="n"/>
       <c r="E54" s="29" t="n"/>
       <c r="I54" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
     </row>
     <row r="55" spans="1:14">
@@ -4718,7 +4895,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="58" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="2" s="52" spans="1:12" thickBot="1"/>
@@ -4754,19 +4931,19 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="54" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="B5" s="54" t="n"/>
       <c r="C5" s="40" t="n"/>
       <c r="D5" s="40" t="n"/>
       <c r="E5" s="54" t="n"/>
       <c r="F5" s="54" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="55" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="B6" s="55" t="n"/>
       <c r="C6" s="41" t="n">
@@ -4778,10 +4955,10 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="55" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="B7" s="55" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="C7" s="41" t="n">
         <v>6205</v>
@@ -4792,13 +4969,13 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="55" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="B8" s="55" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="C8" s="41" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="D8" s="41" t="n">
         <v>40004045</v>
@@ -4808,13 +4985,13 @@
     </row>
     <row customHeight="1" ht="15.75" r="9" s="52" spans="1:12" thickBot="1">
       <c r="A9" s="55" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="B9" s="55" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="C9" s="41" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="D9" s="41" t="n">
         <v>40518388</v>
@@ -4824,7 +5001,7 @@
     </row>
     <row customHeight="1" ht="15.75" r="10" s="52" spans="1:12" thickBot="1">
       <c r="A10" s="9" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B10" s="17" t="n"/>
       <c r="C10" s="18" t="n"/>
@@ -4854,7 +5031,7 @@
     </row>
     <row customHeight="1" ht="15.75" r="12" s="52" spans="1:12" thickBot="1">
       <c r="A12" s="40" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="B12" s="40" t="n"/>
       <c r="C12" s="54" t="n"/>
@@ -4864,7 +5041,7 @@
     </row>
     <row customHeight="1" ht="15.75" r="13" s="52" spans="1:12" thickBot="1">
       <c r="A13" s="9" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B13" s="17" t="n"/>
       <c r="C13" s="18" t="n"/>
@@ -4902,7 +5079,7 @@
     </row>
     <row customHeight="1" ht="15.75" r="16" s="52" spans="1:12" thickBot="1">
       <c r="A16" s="24" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B16" s="17" t="n"/>
       <c r="C16" s="18" t="n"/>
@@ -4940,7 +5117,7 @@
     </row>
     <row customHeight="1" ht="15.75" r="19" s="52" spans="1:12" thickBot="1">
       <c r="A19" s="9" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="B19" s="17" t="n"/>
       <c r="C19" s="18" t="n"/>
@@ -4978,7 +5155,7 @@
     </row>
     <row customHeight="1" ht="15.75" r="22" s="52" spans="1:12" thickBot="1">
       <c r="A22" s="9" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="B22" s="17" t="n"/>
       <c r="C22" s="18" t="n"/>
@@ -5016,7 +5193,7 @@
     </row>
     <row customHeight="1" ht="15.75" r="25" s="52" spans="1:12" thickBot="1">
       <c r="A25" s="9" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="B25" s="17" t="n"/>
       <c r="C25" s="18" t="n"/>
@@ -5046,13 +5223,13 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="54" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="B27" s="54" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="C27" s="40" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="D27" s="40" t="n"/>
       <c r="E27" s="54" t="n"/>
@@ -5060,13 +5237,13 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="55" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="B28" s="55" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="C28" s="41" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="D28" s="41" t="n"/>
       <c r="E28" s="55" t="n"/>
@@ -5074,7 +5251,7 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="55" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="B29" s="55" t="n"/>
       <c r="C29" s="41" t="n"/>
@@ -5084,13 +5261,13 @@
     </row>
     <row customHeight="1" ht="15.75" r="30" s="52" spans="1:12" thickBot="1">
       <c r="A30" s="53" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="B30" s="56" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C30" s="56" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="D30" s="56" t="n"/>
       <c r="E30" s="56" t="n"/>
@@ -5098,7 +5275,7 @@
     </row>
     <row customHeight="1" ht="15.75" r="31" s="52" spans="1:12" thickBot="1">
       <c r="A31" s="24" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="B31" s="25" t="n"/>
       <c r="C31" s="26" t="n"/>
@@ -5128,10 +5305,10 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="54" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="B33" s="54" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C33" s="40" t="n">
         <v>13046432</v>
@@ -5140,16 +5317,16 @@
         <v>40531992</v>
       </c>
       <c r="E33" s="40" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="F33" s="54" t="n"/>
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="55" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="B34" s="55" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C34" s="41" t="n">
         <v>13046437</v>
@@ -5160,23 +5337,23 @@
     </row>
     <row customHeight="1" ht="15.75" r="35" s="52" spans="1:12" thickBot="1">
       <c r="A35" s="53" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="B35" s="56" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C35" s="53" t="n">
         <v>13046438</v>
       </c>
       <c r="D35" s="56" t="n"/>
       <c r="E35" s="56" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="F35" s="56" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="36" s="52" spans="1:12" thickBot="1">
       <c r="A36" s="9" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="B36" s="25" t="n"/>
       <c r="C36" s="26" t="n"/>
@@ -5206,13 +5383,13 @@
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="54" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="B38" s="54" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="C38" s="40" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="D38" s="40" t="n"/>
       <c r="E38" s="40" t="n"/>
@@ -5220,13 +5397,13 @@
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="55" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="B39" s="55" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="C39" s="41" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="D39" s="41" t="n"/>
       <c r="E39" s="41" t="n"/>
@@ -5234,13 +5411,13 @@
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="55" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="B40" s="55" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="C40" s="41" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="D40" s="41" t="n"/>
       <c r="E40" s="41" t="n"/>
@@ -5248,10 +5425,10 @@
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="55" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="B41" s="55" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="C41" s="41" t="n"/>
       <c r="D41" s="41" t="n"/>
@@ -5260,10 +5437,10 @@
     </row>
     <row customHeight="1" ht="15.75" r="42" s="52" spans="1:12" thickBot="1">
       <c r="A42" s="56" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="B42" s="56" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="C42" s="53" t="n"/>
       <c r="D42" s="53" t="n"/>
@@ -5330,7 +5507,7 @@
       <c r="D54" s="29" t="n"/>
       <c r="E54" s="29" t="n"/>
       <c r="I54" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -5529,7 +5706,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="58" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="2" s="52" spans="1:12" thickBot="1"/>
@@ -5565,11 +5742,11 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="54" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="B5" s="54" t="n"/>
       <c r="C5" s="40" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="D5" s="40" t="n"/>
       <c r="E5" s="54" t="n"/>
@@ -5577,11 +5754,11 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="55" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="B6" s="55" t="n"/>
       <c r="C6" s="41" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="D6" s="41" t="n"/>
       <c r="E6" s="55" t="n"/>
@@ -5589,7 +5766,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="55" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="B7" s="55" t="n"/>
       <c r="C7" s="41" t="n">
@@ -5601,13 +5778,13 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="55" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="B8" s="55" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="C8" s="41" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="D8" s="41" t="n"/>
       <c r="E8" s="55" t="n"/>
@@ -5615,11 +5792,11 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="55" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="B9" s="55" t="n"/>
       <c r="C9" s="41" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="D9" s="41" t="n"/>
       <c r="E9" s="55" t="n"/>
@@ -5627,11 +5804,11 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="55" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="B10" s="55" t="n"/>
       <c r="C10" s="41" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="D10" s="41" t="n"/>
       <c r="E10" s="55" t="n"/>
@@ -5639,11 +5816,11 @@
     </row>
     <row customHeight="1" ht="15.75" r="11" s="52" spans="1:12" thickBot="1">
       <c r="A11" s="53" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="B11" s="56" t="n"/>
       <c r="C11" s="53" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="D11" s="56" t="n"/>
       <c r="E11" s="56" t="n"/>
@@ -5651,7 +5828,7 @@
     </row>
     <row customHeight="1" ht="15.75" r="12" s="52" spans="1:12" thickBot="1">
       <c r="A12" s="24" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B12" s="25" t="n"/>
       <c r="C12" s="26" t="n"/>
@@ -5681,261 +5858,261 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="40" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="C14" s="54" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="D14" s="40" t="n"/>
       <c r="E14" s="40" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="F14" s="40" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="41" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="B15" s="41" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="C15" s="55" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="D15" s="41" t="n"/>
       <c r="E15" s="41" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="F15" s="41" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="41" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="B16" s="41" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="C16" s="55" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="D16" s="41" t="n"/>
       <c r="E16" s="41" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="F16" s="41" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="41" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="B17" s="41" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="C17" s="55" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="D17" s="41" t="n"/>
       <c r="E17" s="41" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="F17" s="41" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="41" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="B18" s="41" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="C18" s="55" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="D18" s="41" t="n"/>
       <c r="E18" s="41" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="F18" s="41" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="41" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="B19" s="41" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="C19" s="55" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="D19" s="55" t="n"/>
       <c r="E19" s="41" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="F19" s="41" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="41" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="B20" s="41" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="C20" s="55" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="D20" s="36" t="n"/>
       <c r="E20" s="41" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="F20" s="41" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="41" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="B21" s="41" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="C21" s="55" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="D21" s="41" t="n">
         <v>40529080</v>
       </c>
       <c r="E21" s="41" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="F21" s="41" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="41" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="B22" s="41" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="C22" s="55" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="D22" s="41" t="n"/>
       <c r="E22" s="41" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="F22" s="41" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="41" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="B23" s="41" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="C23" s="55" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="D23" s="41" t="n"/>
       <c r="E23" s="41" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="F23" s="41" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="41" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="B24" s="41" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="C24" s="55" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="D24" s="41" t="n"/>
       <c r="E24" s="41" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="F24" s="41" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="41" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="B25" s="41" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="C25" s="55" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="D25" s="41" t="n"/>
       <c r="E25" s="41" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="F25" s="41" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="41" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="B26" s="41" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="C26" s="55" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="D26" s="41" t="n"/>
       <c r="E26" s="41" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="F26" s="41" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="27" s="52" spans="1:12" thickBot="1">
       <c r="A27" s="41" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="B27" s="41" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="C27" s="55" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="D27" s="55" t="n"/>
       <c r="E27" s="41" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="F27" s="41" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="28" s="52" spans="1:12" thickBot="1">
       <c r="A28" s="9" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B28" s="17" t="n"/>
       <c r="C28" s="18" t="n"/>
@@ -5965,99 +6142,99 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="41" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="B30" s="55" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="C30" s="41" t="n"/>
       <c r="D30" s="41" t="n"/>
       <c r="E30" s="55" t="n"/>
       <c r="F30" s="55" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="41" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="B31" s="55" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="C31" s="41" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="D31" s="41" t="n"/>
       <c r="E31" s="55" t="n"/>
       <c r="F31" s="55" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="41" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="B32" s="55" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="C32" s="41" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="D32" s="41" t="n"/>
       <c r="E32" s="55" t="n"/>
       <c r="F32" s="55" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="41" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="B33" s="55" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="C33" s="41" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="D33" s="41" t="n"/>
       <c r="E33" s="55" t="n"/>
       <c r="F33" s="55" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="41" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="B34" s="55" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="C34" s="41" t="n"/>
       <c r="D34" s="41" t="n"/>
       <c r="E34" s="55" t="n"/>
       <c r="F34" s="55" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="35" s="52" spans="1:12" thickBot="1">
       <c r="A35" s="53" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="B35" s="56" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="C35" s="53" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="D35" s="56" t="n"/>
       <c r="E35" s="56" t="n"/>
       <c r="F35" s="56" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="36" s="52" spans="1:12" thickBot="1">
       <c r="A36" s="24" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B36" s="25" t="n"/>
       <c r="C36" s="26" t="n"/>
@@ -6087,41 +6264,41 @@
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="54" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="B38" s="54" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="C38" s="54" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="D38" s="40" t="n">
         <v>40753928</v>
       </c>
       <c r="E38" s="54" t="n"/>
       <c r="F38" s="54" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="39" s="52" spans="1:12" thickBot="1">
       <c r="A39" s="56" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="B39" s="56" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="C39" s="56" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="D39" s="53" t="n"/>
       <c r="E39" s="56" t="n"/>
       <c r="F39" s="56" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="40" s="52" spans="1:12" thickBot="1">
       <c r="A40" s="24" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="B40" s="25" t="n"/>
       <c r="C40" s="26" t="n"/>
@@ -6151,95 +6328,95 @@
     </row>
     <row r="42" spans="1:12">
       <c r="A42" s="54" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="B42" s="54" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="C42" s="40" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="D42" s="54" t="n"/>
       <c r="E42" s="54" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="F42" s="54" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="55" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="B43" s="55" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="C43" s="41" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="D43" s="55" t="n"/>
       <c r="E43" s="55" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="F43" s="55" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
     </row>
     <row r="44" spans="1:12">
       <c r="A44" s="55" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="B44" s="55" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="C44" s="41" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="D44" s="55" t="n"/>
       <c r="E44" s="55" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="F44" s="55" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="55" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="B45" s="55" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="C45" s="41" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="D45" s="55" t="n"/>
       <c r="E45" s="55" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="F45" s="55" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="46" s="52" spans="1:12" thickBot="1">
       <c r="A46" s="56" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="B46" s="56" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="C46" s="53" t="n"/>
       <c r="D46" s="56" t="n"/>
       <c r="E46" s="56" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="F46" s="56" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="47" s="52" spans="1:12" thickBot="1">
       <c r="A47" s="9" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="B47" s="17" t="n"/>
       <c r="C47" s="18" t="n"/>
@@ -6269,10 +6446,10 @@
     </row>
     <row r="49" spans="1:12">
       <c r="A49" s="40" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="B49" s="54" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="C49" s="40" t="n"/>
       <c r="D49" s="40" t="n"/>
@@ -6281,13 +6458,13 @@
     </row>
     <row r="50" spans="1:12">
       <c r="A50" s="41" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="B50" s="55" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="C50" s="41" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="D50" s="41" t="n"/>
       <c r="E50" s="55" t="n"/>
@@ -6295,10 +6472,10 @@
     </row>
     <row r="51" spans="1:12">
       <c r="A51" s="41" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="B51" s="55" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="C51" s="41" t="n">
         <v>58016483333</v>
@@ -6309,13 +6486,13 @@
     </row>
     <row r="52" spans="1:12">
       <c r="A52" s="41" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="B52" s="55" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="C52" s="41" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="D52" s="41" t="n"/>
       <c r="E52" s="55" t="n"/>
@@ -6323,13 +6500,13 @@
     </row>
     <row r="53" spans="1:12">
       <c r="A53" s="41" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="B53" s="55" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="C53" s="41" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="D53" s="41" t="n"/>
       <c r="E53" s="55" t="n"/>
@@ -6337,10 +6514,10 @@
     </row>
     <row r="54" spans="1:12">
       <c r="A54" s="41" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="B54" s="55" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="C54" s="41" t="n"/>
       <c r="D54" s="41" t="n">
@@ -6349,18 +6526,18 @@
       <c r="E54" s="55" t="n"/>
       <c r="F54" s="55" t="n"/>
       <c r="I54" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
     </row>
     <row r="55" spans="1:12">
       <c r="A55" s="41" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="B55" s="55" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="C55" s="41" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="D55" s="41" t="n"/>
       <c r="E55" s="55" t="n"/>
@@ -6368,10 +6545,10 @@
     </row>
     <row customHeight="1" ht="15.75" r="56" s="52" spans="1:12" thickBot="1">
       <c r="A56" s="53" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="B56" s="56" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="C56" s="56" t="n"/>
       <c r="D56" s="53" t="n"/>
@@ -6380,7 +6557,7 @@
     </row>
     <row customHeight="1" ht="15.75" r="57" s="52" spans="1:12" thickBot="1">
       <c r="A57" s="24" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="B57" s="25" t="n"/>
       <c r="C57" s="26" t="n"/>
@@ -6410,26 +6587,26 @@
     </row>
     <row r="59" spans="1:12">
       <c r="A59" s="54" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="B59" s="54" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="C59" s="40" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="D59" s="21" t="n"/>
       <c r="E59" s="54" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="F59" s="54" t="n"/>
     </row>
     <row r="60" spans="1:12">
       <c r="A60" s="55" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="B60" s="55" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="C60" s="41" t="n">
         <v>64684477</v>
@@ -6440,23 +6617,23 @@
     </row>
     <row customHeight="1" ht="15.75" r="61" s="52" spans="1:12" thickBot="1">
       <c r="A61" s="55" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="B61" s="55" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="C61" s="41" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="D61" s="22" t="n"/>
       <c r="E61" s="55" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="F61" s="55" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="62" s="52" spans="1:12" thickBot="1">
       <c r="A62" s="9" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="B62" s="17" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -6486,13 +6663,13 @@
     </row>
     <row r="64" spans="1:12">
       <c r="A64" s="54" t="s">
-        <v>291</v>
+        <v>304</v>
       </c>
       <c r="B64" s="54" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="C64" s="40" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="D64" s="40" t="n">
         <v>20268121</v>
@@ -6502,13 +6679,13 @@
     </row>
     <row customHeight="1" ht="15.75" r="65" s="52" spans="1:12" thickBot="1">
       <c r="A65" s="55" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="B65" s="55" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="C65" s="41" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="D65" s="41" t="n"/>
       <c r="E65" s="41" t="n"/>
@@ -6516,7 +6693,7 @@
     </row>
     <row customHeight="1" ht="15.75" r="66" s="52" spans="1:12" thickBot="1">
       <c r="A66" s="9" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="B66" s="17" t="n"/>
       <c r="C66" s="18" t="n"/>
@@ -6546,13 +6723,13 @@
     </row>
     <row customHeight="1" ht="15.75" r="68" s="52" spans="1:12" thickBot="1">
       <c r="A68" s="54" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
       <c r="B68" s="54" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="C68" s="40" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="D68" s="40" t="n"/>
       <c r="E68" s="40" t="n"/>
@@ -6560,13 +6737,13 @@
     </row>
     <row customHeight="1" ht="15.75" r="69" s="52" spans="1:12" thickBot="1">
       <c r="A69" s="55" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="B69" s="55" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="C69" s="41" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="D69" s="41" t="n"/>
       <c r="E69" s="41" t="n"/>
@@ -6575,13 +6752,13 @@
     </row>
     <row r="70" spans="1:12">
       <c r="A70" s="55" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="B70" s="55" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="C70" s="41" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="D70" s="41" t="n"/>
       <c r="E70" s="41" t="n"/>
@@ -6589,13 +6766,13 @@
     </row>
     <row customHeight="1" ht="15.75" r="71" s="52" spans="1:12" thickBot="1">
       <c r="A71" s="56" t="s">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="B71" s="56" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="C71" s="53" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
       <c r="D71" s="53" t="n"/>
       <c r="E71" s="53" t="n"/>
@@ -6694,7 +6871,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F82"/>
+  <dimension ref="A1:F86"/>
   <sheetViews>
     <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="I66" sqref="I66"/>
@@ -6712,7 +6889,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="58" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="2" s="52" spans="1:6" thickBot="1"/>
@@ -6748,46 +6925,46 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="69" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="B5" s="69" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="C5" s="69" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="D5" s="69" t="n">
         <v>0</v>
       </c>
       <c r="E5" s="69" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
       <c r="F5" s="69" t="s">
-        <v>311</v>
+        <v>324</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="54" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B6" s="54" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="C6" s="40" t="n">
         <v>116698</v>
       </c>
       <c r="D6" s="40" t="n"/>
       <c r="E6" s="54" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="F6" s="54" t="n"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="55" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B7" s="55" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="C7" s="41" t="n">
         <v>233001</v>
@@ -6796,36 +6973,36 @@
         <v>40529817</v>
       </c>
       <c r="E7" s="55" t="s">
-        <v>313</v>
+        <v>326</v>
       </c>
       <c r="F7" s="55" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="55" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B8" s="55" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="C8" s="41" t="n">
         <v>7840004</v>
       </c>
       <c r="D8" s="41" t="n"/>
       <c r="E8" s="55" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="F8" s="55" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="55" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B9" s="55" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="C9" s="41" t="n">
         <v>203044</v>
@@ -6834,47 +7011,47 @@
         <v>40767475</v>
       </c>
       <c r="E9" s="55" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="F9" s="55" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="10" s="52" spans="1:6" thickBot="1">
       <c r="A10" s="55" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B10" s="55" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="C10" s="41" t="n">
         <v>194771</v>
       </c>
       <c r="D10" s="41" t="n"/>
       <c r="E10" s="55" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="F10" s="55" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="11" s="52" spans="1:6" thickBot="1">
       <c r="A11" s="56" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="B11" s="56" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="C11" s="53" t="n"/>
       <c r="D11" s="53" t="n"/>
       <c r="E11" s="56" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="F11" s="56" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="12" s="52" spans="1:6" thickBot="1">
       <c r="A12" s="9" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B12" s="17" t="n"/>
       <c r="C12" s="18" t="n"/>
@@ -6903,1088 +7080,1146 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="55" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="54" t="s">
-        <v>129</v>
-      </c>
-      <c r="C14" s="40" t="n">
-        <v>88200</v>
-      </c>
-      <c r="D14" s="40" t="n"/>
-      <c r="E14" s="54" t="s">
-        <v>321</v>
-      </c>
-      <c r="F14" s="54" t="n"/>
+      <c r="A14" s="69" t="s">
+        <v>334</v>
+      </c>
+      <c r="B14" s="69" t="s">
+        <v>335</v>
+      </c>
+      <c r="C14" s="69" t="s">
+        <v>336</v>
+      </c>
+      <c r="D14" s="69" t="n">
+        <v>3223423</v>
+      </c>
+      <c r="E14" s="69" t="s">
+        <v>337</v>
+      </c>
+      <c r="F14" s="69" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="55" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" s="55" t="s">
-        <v>129</v>
-      </c>
-      <c r="C15" s="41" t="n">
-        <v>89258</v>
-      </c>
-      <c r="D15" s="41" t="n">
-        <v>40529814</v>
-      </c>
-      <c r="E15" s="55" t="s">
-        <v>322</v>
-      </c>
-      <c r="F15" s="55" t="n"/>
+        <v>51</v>
+      </c>
+      <c r="B15" s="54" t="s">
+        <v>142</v>
+      </c>
+      <c r="C15" s="40" t="n">
+        <v>88200</v>
+      </c>
+      <c r="D15" s="40" t="n"/>
+      <c r="E15" s="54" t="s">
+        <v>339</v>
+      </c>
+      <c r="F15" s="54" t="n"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="55" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B16" s="55" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="C16" s="41" t="n">
-        <v>106466</v>
+        <v>89258</v>
       </c>
       <c r="D16" s="41" t="n">
-        <v>40529954</v>
+        <v>40529814</v>
       </c>
       <c r="E16" s="55" t="s">
-        <v>323</v>
+        <v>340</v>
       </c>
       <c r="F16" s="55" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="17" s="52" spans="1:6" thickBot="1">
       <c r="A17" s="55" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B17" s="55" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="C17" s="41" t="n">
-        <v>7840016</v>
-      </c>
-      <c r="D17" s="41" t="n"/>
+        <v>106466</v>
+      </c>
+      <c r="D17" s="41" t="n">
+        <v>40529954</v>
+      </c>
       <c r="E17" s="55" t="s">
-        <v>324</v>
+        <v>341</v>
       </c>
       <c r="F17" s="55" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="18" s="52" spans="1:6" thickBot="1">
       <c r="A18" s="55" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" s="56" t="s">
-        <v>129</v>
-      </c>
-      <c r="C18" s="53" t="n">
+        <v>51</v>
+      </c>
+      <c r="B18" s="55" t="s">
+        <v>142</v>
+      </c>
+      <c r="C18" s="41" t="n">
+        <v>7840016</v>
+      </c>
+      <c r="D18" s="41" t="n"/>
+      <c r="E18" s="55" t="s">
+        <v>342</v>
+      </c>
+      <c r="F18" s="55" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="19" s="52" spans="1:6" thickBot="1">
+      <c r="A19" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="56" t="s">
+        <v>142</v>
+      </c>
+      <c r="C19" s="53" t="n">
         <v>126072</v>
       </c>
-      <c r="D18" s="53" t="n"/>
-      <c r="E18" s="56" t="s">
-        <v>325</v>
-      </c>
-      <c r="F18" s="56" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="19" s="52" spans="1:6" thickBot="1">
-      <c r="A19" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" s="17" t="n"/>
-      <c r="C19" s="18" t="n"/>
-      <c r="D19" s="18" t="n"/>
-      <c r="E19" s="18" t="n"/>
-      <c r="F19" s="19" t="n"/>
+      <c r="D19" s="53" t="n"/>
+      <c r="E19" s="56" t="s">
+        <v>343</v>
+      </c>
+      <c r="F19" s="56" t="n"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="17" t="n"/>
+      <c r="C20" s="18" t="n"/>
+      <c r="D20" s="18" t="n"/>
+      <c r="E20" s="18" t="n"/>
+      <c r="F20" s="19" t="n"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B21" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C21" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D21" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E21" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="F21" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="54" t="s">
-        <v>45</v>
-      </c>
-      <c r="B21" s="54" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" s="40" t="s">
-        <v>326</v>
-      </c>
-      <c r="D21" s="40" t="n">
+    <row r="22" spans="1:6">
+      <c r="A22" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="54" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="40" t="s">
+        <v>344</v>
+      </c>
+      <c r="D22" s="40" t="n">
         <v>40053659</v>
       </c>
-      <c r="E21" s="54" t="s">
-        <v>327</v>
-      </c>
-      <c r="F21" s="54" t="n"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="55" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" s="55" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" s="41" t="s">
-        <v>328</v>
-      </c>
-      <c r="D22" s="41" t="n"/>
-      <c r="E22" s="55" t="s">
-        <v>329</v>
-      </c>
-      <c r="F22" s="55" t="n"/>
+      <c r="E22" s="54" t="s">
+        <v>345</v>
+      </c>
+      <c r="F22" s="54" t="n"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="55" t="s">
-        <v>330</v>
+        <v>51</v>
       </c>
       <c r="B23" s="55" t="s">
-        <v>129</v>
+        <v>68</v>
       </c>
       <c r="C23" s="41" t="s">
-        <v>331</v>
+        <v>346</v>
       </c>
       <c r="D23" s="41" t="n"/>
       <c r="E23" s="55" t="s">
-        <v>332</v>
+        <v>347</v>
       </c>
       <c r="F23" s="55" t="n"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="55" t="s">
-        <v>330</v>
+        <v>348</v>
       </c>
       <c r="B24" s="55" t="s">
-        <v>129</v>
-      </c>
-      <c r="C24" s="41" t="n">
-        <v>231195</v>
+        <v>142</v>
+      </c>
+      <c r="C24" s="41" t="s">
+        <v>349</v>
       </c>
       <c r="D24" s="41" t="n"/>
       <c r="E24" s="55" t="s">
-        <v>333</v>
+        <v>350</v>
       </c>
       <c r="F24" s="55" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="25" s="52" spans="1:6" thickBot="1">
       <c r="A25" s="55" t="s">
-        <v>330</v>
+        <v>348</v>
       </c>
       <c r="B25" s="55" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="C25" s="41" t="n">
-        <v>209869</v>
+        <v>231195</v>
       </c>
       <c r="D25" s="41" t="n"/>
       <c r="E25" s="55" t="s">
-        <v>334</v>
+        <v>351</v>
       </c>
       <c r="F25" s="55" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="26" s="52" spans="1:6" thickBot="1">
-      <c r="A26" s="56" t="s">
-        <v>330</v>
-      </c>
-      <c r="B26" s="56" t="s">
-        <v>129</v>
-      </c>
-      <c r="C26" s="53" t="n">
+      <c r="A26" s="55" t="s">
+        <v>348</v>
+      </c>
+      <c r="B26" s="55" t="s">
+        <v>142</v>
+      </c>
+      <c r="C26" s="41" t="n">
+        <v>209869</v>
+      </c>
+      <c r="D26" s="41" t="n"/>
+      <c r="E26" s="55" t="s">
+        <v>352</v>
+      </c>
+      <c r="F26" s="55" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="27" s="52" spans="1:6" thickBot="1">
+      <c r="A27" s="56" t="s">
+        <v>348</v>
+      </c>
+      <c r="B27" s="56" t="s">
+        <v>142</v>
+      </c>
+      <c r="C27" s="53" t="n">
         <v>190149</v>
       </c>
-      <c r="D26" s="53" t="n"/>
-      <c r="E26" s="56" t="s">
-        <v>334</v>
-      </c>
-      <c r="F26" s="56" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="27" s="52" spans="1:6" thickBot="1">
-      <c r="A27" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27" s="17" t="n"/>
-      <c r="C27" s="18" t="n"/>
-      <c r="D27" s="18" t="n"/>
-      <c r="E27" s="18" t="n"/>
-      <c r="F27" s="19" t="n"/>
+      <c r="D27" s="53" t="n"/>
+      <c r="E27" s="56" t="s">
+        <v>352</v>
+      </c>
+      <c r="F27" s="56" t="n"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="17" t="n"/>
+      <c r="C28" s="18" t="n"/>
+      <c r="D28" s="18" t="n"/>
+      <c r="E28" s="18" t="n"/>
+      <c r="F28" s="19" t="n"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B29" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C29" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D29" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E29" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="F29" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="54" t="s">
-        <v>335</v>
-      </c>
-      <c r="B29" s="54" t="s">
-        <v>55</v>
-      </c>
-      <c r="C29" s="54" t="n"/>
-      <c r="D29" s="40" t="n">
+    <row r="30" spans="1:6">
+      <c r="A30" s="69" t="s">
+        <v>353</v>
+      </c>
+      <c r="B30" s="69" t="n"/>
+      <c r="C30" s="69" t="n"/>
+      <c r="D30" s="69" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" s="69" t="n"/>
+      <c r="F30" s="69" t="n"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="69" t="s">
+        <v>354</v>
+      </c>
+      <c r="B31" s="69" t="n"/>
+      <c r="C31" s="69" t="n"/>
+      <c r="D31" s="69" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" s="69" t="n"/>
+      <c r="F31" s="69" t="n"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="69" t="s">
+        <v>355</v>
+      </c>
+      <c r="B32" s="69" t="s">
+        <v>356</v>
+      </c>
+      <c r="C32" s="69" t="n"/>
+      <c r="D32" s="69" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" s="69" t="n"/>
+      <c r="F32" s="69" t="n"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="54" t="s">
+        <v>357</v>
+      </c>
+      <c r="B33" s="54" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" s="54" t="n"/>
+      <c r="D33" s="40" t="n">
         <v>20481417</v>
       </c>
-      <c r="E29" s="54" t="s">
-        <v>336</v>
-      </c>
-      <c r="F29" s="54" t="n"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="55" t="s">
-        <v>335</v>
-      </c>
-      <c r="B30" s="55" t="s">
-        <v>55</v>
-      </c>
-      <c r="C30" s="55" t="n"/>
-      <c r="D30" s="41" t="n">
-        <v>20497539</v>
-      </c>
-      <c r="E30" s="55" t="s">
-        <v>337</v>
-      </c>
-      <c r="F30" s="55" t="n"/>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="55" t="s">
-        <v>335</v>
-      </c>
-      <c r="B31" s="55" t="s">
-        <v>55</v>
-      </c>
-      <c r="C31" s="55" t="n"/>
-      <c r="D31" s="41" t="n"/>
-      <c r="E31" s="55" t="s">
-        <v>338</v>
-      </c>
-      <c r="F31" s="55" t="n"/>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="55" t="s">
-        <v>339</v>
-      </c>
-      <c r="B32" s="55" t="s">
-        <v>55</v>
-      </c>
-      <c r="C32" s="55" t="n"/>
-      <c r="D32" s="41" t="n"/>
-      <c r="E32" s="55" t="s">
-        <v>340</v>
-      </c>
-      <c r="F32" s="55" t="n"/>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="55" t="s">
-        <v>341</v>
-      </c>
-      <c r="B33" s="55" t="s">
-        <v>55</v>
-      </c>
-      <c r="C33" s="55" t="n"/>
-      <c r="D33" s="41" t="n"/>
-      <c r="E33" s="55" t="s">
-        <v>342</v>
-      </c>
-      <c r="F33" s="55" t="n"/>
+      <c r="E33" s="54" t="s">
+        <v>358</v>
+      </c>
+      <c r="F33" s="54" t="n"/>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="55" t="s">
-        <v>341</v>
+        <v>357</v>
       </c>
       <c r="B34" s="55" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C34" s="55" t="n"/>
-      <c r="D34" s="41" t="n"/>
+      <c r="D34" s="41" t="n">
+        <v>20497539</v>
+      </c>
       <c r="E34" s="55" t="s">
-        <v>343</v>
+        <v>359</v>
       </c>
       <c r="F34" s="55" t="n"/>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="55" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="B35" s="55" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C35" s="55" t="n"/>
       <c r="D35" s="41" t="n"/>
       <c r="E35" s="55" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="F35" s="55" t="n"/>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="55" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="B36" s="55" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C36" s="55" t="n"/>
       <c r="D36" s="41" t="n"/>
       <c r="E36" s="55" t="s">
-        <v>347</v>
+        <v>362</v>
       </c>
       <c r="F36" s="55" t="n"/>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="55" t="s">
-        <v>346</v>
+        <v>363</v>
       </c>
       <c r="B37" s="55" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C37" s="55" t="n"/>
-      <c r="D37" s="41" t="n">
-        <v>20408068</v>
-      </c>
+      <c r="D37" s="41" t="n"/>
       <c r="E37" s="55" t="s">
-        <v>348</v>
+        <v>364</v>
       </c>
       <c r="F37" s="55" t="n"/>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="55" t="s">
-        <v>349</v>
+        <v>363</v>
       </c>
       <c r="B38" s="55" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C38" s="55" t="n"/>
       <c r="D38" s="41" t="n"/>
       <c r="E38" s="55" t="s">
-        <v>350</v>
+        <v>365</v>
       </c>
       <c r="F38" s="55" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="39" s="52" spans="1:6" thickBot="1">
       <c r="A39" s="55" t="s">
-        <v>349</v>
+        <v>366</v>
       </c>
       <c r="B39" s="55" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C39" s="55" t="n"/>
       <c r="D39" s="41" t="n"/>
       <c r="E39" s="55" t="s">
-        <v>351</v>
+        <v>367</v>
       </c>
       <c r="F39" s="55" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="40" s="52" spans="1:6" thickBot="1">
-      <c r="A40" s="53" t="s">
-        <v>346</v>
-      </c>
-      <c r="B40" s="56" t="s">
-        <v>55</v>
-      </c>
-      <c r="C40" s="56" t="n"/>
-      <c r="D40" s="56" t="n"/>
-      <c r="E40" s="56" t="s">
-        <v>352</v>
-      </c>
-      <c r="F40" s="56" t="n"/>
+      <c r="A40" s="55" t="s">
+        <v>368</v>
+      </c>
+      <c r="B40" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="C40" s="55" t="n"/>
+      <c r="D40" s="41" t="n"/>
+      <c r="E40" s="55" t="s">
+        <v>369</v>
+      </c>
+      <c r="F40" s="55" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="41" s="52" spans="1:6" thickBot="1">
-      <c r="A41" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="B41" s="25" t="n"/>
-      <c r="C41" s="26" t="n"/>
-      <c r="D41" s="26" t="n"/>
-      <c r="E41" s="26" t="n"/>
-      <c r="F41" s="27" t="n"/>
+      <c r="A41" s="55" t="s">
+        <v>368</v>
+      </c>
+      <c r="B41" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="C41" s="55" t="n"/>
+      <c r="D41" s="41" t="n">
+        <v>20408068</v>
+      </c>
+      <c r="E41" s="55" t="s">
+        <v>370</v>
+      </c>
+      <c r="F41" s="55" t="n"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="8" t="s">
+      <c r="A42" s="55" t="s">
+        <v>371</v>
+      </c>
+      <c r="B42" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="C42" s="55" t="n"/>
+      <c r="D42" s="41" t="n"/>
+      <c r="E42" s="55" t="s">
+        <v>372</v>
+      </c>
+      <c r="F42" s="55" t="n"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="55" t="s">
+        <v>371</v>
+      </c>
+      <c r="B43" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43" s="55" t="n"/>
+      <c r="D43" s="41" t="n"/>
+      <c r="E43" s="55" t="s">
+        <v>373</v>
+      </c>
+      <c r="F43" s="55" t="n"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="53" t="s">
+        <v>368</v>
+      </c>
+      <c r="B44" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="C44" s="56" t="n"/>
+      <c r="D44" s="56" t="n"/>
+      <c r="E44" s="56" t="s">
+        <v>374</v>
+      </c>
+      <c r="F44" s="56" t="n"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="B45" s="25" t="n"/>
+      <c r="C45" s="26" t="n"/>
+      <c r="D45" s="26" t="n"/>
+      <c r="E45" s="26" t="n"/>
+      <c r="F45" s="27" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="46" s="52" spans="1:6" thickBot="1">
+      <c r="A46" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B46" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C46" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D42" s="8" t="s">
+      <c r="D46" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E42" s="8" t="s">
+      <c r="E46" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F42" s="8" t="s">
+      <c r="F46" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="54" t="s">
-        <v>353</v>
-      </c>
-      <c r="B43" s="54" t="s">
-        <v>354</v>
-      </c>
-      <c r="C43" s="40" t="s">
-        <v>355</v>
-      </c>
-      <c r="D43" s="54" t="n"/>
-      <c r="E43" s="54" t="n"/>
-      <c r="F43" s="54" t="n"/>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="55" t="s">
-        <v>356</v>
-      </c>
-      <c r="B44" s="55" t="s">
-        <v>354</v>
-      </c>
-      <c r="C44" s="41" t="s">
-        <v>357</v>
-      </c>
-      <c r="D44" s="55" t="n"/>
-      <c r="E44" s="55" t="n"/>
-      <c r="F44" s="55" t="n"/>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="55" t="s">
-        <v>353</v>
-      </c>
-      <c r="B45" s="55" t="s">
-        <v>354</v>
-      </c>
-      <c r="C45" s="41" t="s">
-        <v>358</v>
-      </c>
-      <c r="D45" s="55" t="n"/>
-      <c r="E45" s="55" t="n"/>
-      <c r="F45" s="55" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="46" s="52" spans="1:6" thickBot="1">
-      <c r="A46" s="55" t="s">
-        <v>349</v>
-      </c>
-      <c r="B46" s="55" t="s">
-        <v>55</v>
-      </c>
-      <c r="C46" s="41" t="n"/>
-      <c r="D46" s="55" t="n"/>
-      <c r="E46" s="55" t="s">
-        <v>351</v>
-      </c>
-      <c r="F46" s="55" t="n"/>
-    </row>
     <row customHeight="1" ht="15.75" r="47" s="52" spans="1:6" thickBot="1">
-      <c r="A47" s="56" t="s">
-        <v>359</v>
-      </c>
-      <c r="B47" s="56" t="s">
-        <v>360</v>
-      </c>
-      <c r="C47" s="53" t="n">
+      <c r="A47" s="54" t="s">
+        <v>375</v>
+      </c>
+      <c r="B47" s="54" t="s">
+        <v>376</v>
+      </c>
+      <c r="C47" s="40" t="s">
+        <v>377</v>
+      </c>
+      <c r="D47" s="54" t="n"/>
+      <c r="E47" s="54" t="n"/>
+      <c r="F47" s="54" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="48" s="52" spans="1:6" thickBot="1">
+      <c r="A48" s="55" t="s">
+        <v>378</v>
+      </c>
+      <c r="B48" s="55" t="s">
+        <v>376</v>
+      </c>
+      <c r="C48" s="41" t="s">
+        <v>379</v>
+      </c>
+      <c r="D48" s="55" t="n"/>
+      <c r="E48" s="55" t="n"/>
+      <c r="F48" s="55" t="n"/>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="55" t="s">
+        <v>375</v>
+      </c>
+      <c r="B49" s="55" t="s">
+        <v>376</v>
+      </c>
+      <c r="C49" s="41" t="s">
+        <v>380</v>
+      </c>
+      <c r="D49" s="55" t="n"/>
+      <c r="E49" s="55" t="n"/>
+      <c r="F49" s="55" t="n"/>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="55" t="s">
+        <v>371</v>
+      </c>
+      <c r="B50" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="C50" s="41" t="n"/>
+      <c r="D50" s="55" t="n"/>
+      <c r="E50" s="55" t="s">
+        <v>373</v>
+      </c>
+      <c r="F50" s="55" t="n"/>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="56" t="s">
+        <v>381</v>
+      </c>
+      <c r="B51" s="56" t="s">
+        <v>382</v>
+      </c>
+      <c r="C51" s="53" t="n">
         <v>120602</v>
       </c>
-      <c r="D47" s="56" t="n"/>
-      <c r="E47" s="56" t="s">
-        <v>361</v>
-      </c>
-      <c r="F47" s="56" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="48" s="52" spans="1:6" thickBot="1">
-      <c r="A48" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="B48" s="17" t="n"/>
-      <c r="C48" s="18" t="n"/>
-      <c r="D48" s="18" t="n"/>
-      <c r="E48" s="18" t="n"/>
-      <c r="F48" s="19" t="n"/>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="8" t="s">
+      <c r="D51" s="56" t="n"/>
+      <c r="E51" s="56" t="s">
+        <v>383</v>
+      </c>
+      <c r="F51" s="56" t="n"/>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B52" s="17" t="n"/>
+      <c r="C52" s="18" t="n"/>
+      <c r="D52" s="18" t="n"/>
+      <c r="E52" s="18" t="n"/>
+      <c r="F52" s="19" t="n"/>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B53" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="C53" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D49" s="8" t="s">
+      <c r="D53" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E49" s="8" t="s">
+      <c r="E53" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F49" s="8" t="s">
+      <c r="F53" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="54" t="s">
-        <v>362</v>
-      </c>
-      <c r="B50" s="54" t="s">
-        <v>363</v>
-      </c>
-      <c r="C50" s="40" t="n">
+    <row r="54" spans="1:6">
+      <c r="A54" s="54" t="s">
+        <v>384</v>
+      </c>
+      <c r="B54" s="54" t="s">
+        <v>385</v>
+      </c>
+      <c r="C54" s="40" t="n">
         <v>21553</v>
       </c>
-      <c r="D50" s="54" t="n"/>
-      <c r="E50" s="54" t="n"/>
-      <c r="F50" s="54" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="55" t="s">
-        <v>365</v>
-      </c>
-      <c r="B51" s="55" t="s">
-        <v>366</v>
-      </c>
-      <c r="C51" s="41" t="s">
-        <v>367</v>
-      </c>
-      <c r="D51" s="55" t="n"/>
-      <c r="E51" s="55" t="n"/>
-      <c r="F51" s="55" t="n"/>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="55" t="s">
-        <v>362</v>
-      </c>
-      <c r="B52" s="55" t="n"/>
-      <c r="C52" s="41" t="s">
-        <v>368</v>
-      </c>
-      <c r="D52" s="55" t="n"/>
-      <c r="E52" s="55" t="n"/>
-      <c r="F52" s="55" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="55" t="s">
-        <v>369</v>
-      </c>
-      <c r="B53" s="55" t="s">
-        <v>370</v>
-      </c>
-      <c r="C53" s="41" t="s">
-        <v>371</v>
-      </c>
-      <c r="D53" s="55" t="n"/>
-      <c r="E53" s="55" t="n"/>
-      <c r="F53" s="55" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="55" t="s">
-        <v>362</v>
-      </c>
-      <c r="B54" s="55" t="s">
-        <v>373</v>
-      </c>
-      <c r="C54" s="41" t="s">
-        <v>374</v>
-      </c>
-      <c r="D54" s="55" t="n"/>
-      <c r="E54" s="55" t="n"/>
-      <c r="F54" s="55" t="s">
-        <v>364</v>
+      <c r="D54" s="54" t="n"/>
+      <c r="E54" s="54" t="n"/>
+      <c r="F54" s="54" t="s">
+        <v>386</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="55" s="52" spans="1:6" thickBot="1">
       <c r="A55" s="55" t="s">
-        <v>369</v>
+        <v>387</v>
       </c>
       <c r="B55" s="55" t="s">
-        <v>375</v>
-      </c>
-      <c r="C55" s="41" t="n">
-        <v>1024</v>
+        <v>388</v>
+      </c>
+      <c r="C55" s="41" t="s">
+        <v>389</v>
       </c>
       <c r="D55" s="55" t="n"/>
       <c r="E55" s="55" t="n"/>
-      <c r="F55" s="55" t="s">
-        <v>376</v>
-      </c>
+      <c r="F55" s="55" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="56" s="52" spans="1:6" thickBot="1">
-      <c r="A56" s="56" t="s">
-        <v>369</v>
-      </c>
-      <c r="B56" s="56" t="s">
-        <v>377</v>
-      </c>
-      <c r="C56" s="53" t="s">
-        <v>378</v>
-      </c>
-      <c r="D56" s="56" t="n"/>
-      <c r="E56" s="56" t="n"/>
-      <c r="F56" s="56" t="s">
-        <v>379</v>
+      <c r="A56" s="55" t="s">
+        <v>384</v>
+      </c>
+      <c r="B56" s="55" t="n"/>
+      <c r="C56" s="41" t="s">
+        <v>390</v>
+      </c>
+      <c r="D56" s="55" t="n"/>
+      <c r="E56" s="55" t="n"/>
+      <c r="F56" s="55" t="s">
+        <v>386</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="57" s="52" spans="1:6" thickBot="1">
-      <c r="A57" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="B57" s="17" t="n"/>
-      <c r="C57" s="18" t="n"/>
-      <c r="D57" s="18" t="n"/>
-      <c r="E57" s="18" t="n"/>
-      <c r="F57" s="19" t="n"/>
+      <c r="A57" s="55" t="s">
+        <v>391</v>
+      </c>
+      <c r="B57" s="55" t="s">
+        <v>392</v>
+      </c>
+      <c r="C57" s="41" t="s">
+        <v>393</v>
+      </c>
+      <c r="D57" s="55" t="n"/>
+      <c r="E57" s="55" t="n"/>
+      <c r="F57" s="55" t="s">
+        <v>394</v>
+      </c>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="8" t="s">
+      <c r="A58" s="55" t="s">
+        <v>384</v>
+      </c>
+      <c r="B58" s="55" t="s">
+        <v>395</v>
+      </c>
+      <c r="C58" s="41" t="s">
+        <v>396</v>
+      </c>
+      <c r="D58" s="55" t="n"/>
+      <c r="E58" s="55" t="n"/>
+      <c r="F58" s="55" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="55" t="s">
+        <v>391</v>
+      </c>
+      <c r="B59" s="55" t="s">
+        <v>397</v>
+      </c>
+      <c r="C59" s="41" t="n">
+        <v>1024</v>
+      </c>
+      <c r="D59" s="55" t="n"/>
+      <c r="E59" s="55" t="n"/>
+      <c r="F59" s="55" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="56" t="s">
+        <v>391</v>
+      </c>
+      <c r="B60" s="56" t="s">
+        <v>399</v>
+      </c>
+      <c r="C60" s="53" t="s">
+        <v>400</v>
+      </c>
+      <c r="D60" s="56" t="n"/>
+      <c r="E60" s="56" t="n"/>
+      <c r="F60" s="56" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B61" s="17" t="n"/>
+      <c r="C61" s="18" t="n"/>
+      <c r="D61" s="18" t="n"/>
+      <c r="E61" s="18" t="n"/>
+      <c r="F61" s="19" t="n"/>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B58" s="8" t="s">
+      <c r="B62" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C58" s="8" t="s">
+      <c r="C62" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D58" s="8" t="s">
+      <c r="D62" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E58" s="8" t="s">
+      <c r="E62" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F58" s="8" t="s">
+      <c r="F62" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="54" t="s">
-        <v>380</v>
-      </c>
-      <c r="B59" s="54" t="s">
-        <v>381</v>
-      </c>
-      <c r="C59" s="40" t="s">
-        <v>382</v>
-      </c>
-      <c r="D59" s="21" t="n"/>
-      <c r="E59" s="54" t="n"/>
-      <c r="F59" s="54" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60" s="69" t="s">
-        <v>384</v>
-      </c>
-      <c r="B60" s="69" t="s">
-        <v>385</v>
-      </c>
-      <c r="C60" s="69" t="s">
-        <v>386</v>
-      </c>
-      <c r="D60" s="69" t="s">
-        <v>387</v>
-      </c>
-      <c r="E60" s="69" t="s">
-        <v>388</v>
-      </c>
-      <c r="F60" s="69" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61" s="55" t="s">
-        <v>389</v>
-      </c>
-      <c r="B61" s="55" t="s">
-        <v>55</v>
-      </c>
-      <c r="C61" s="41" t="s">
-        <v>390</v>
-      </c>
-      <c r="D61" s="22" t="n"/>
-      <c r="E61" s="55" t="s">
-        <v>391</v>
-      </c>
-      <c r="F61" s="55" t="n"/>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62" s="55" t="s">
-        <v>389</v>
-      </c>
-      <c r="B62" s="55" t="s">
-        <v>55</v>
-      </c>
-      <c r="C62" s="41" t="s">
-        <v>392</v>
-      </c>
-      <c r="D62" s="22" t="n"/>
-      <c r="E62" s="55" t="s">
-        <v>393</v>
-      </c>
-      <c r="F62" s="55" t="n"/>
-    </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="55" t="s">
-        <v>389</v>
-      </c>
-      <c r="B63" s="55" t="s">
-        <v>55</v>
-      </c>
-      <c r="C63" s="41" t="s">
-        <v>394</v>
-      </c>
-      <c r="D63" s="22" t="n"/>
-      <c r="E63" s="55" t="s">
-        <v>395</v>
-      </c>
-      <c r="F63" s="55" t="n"/>
+      <c r="A63" s="54" t="s">
+        <v>402</v>
+      </c>
+      <c r="B63" s="54" t="s">
+        <v>403</v>
+      </c>
+      <c r="C63" s="40" t="s">
+        <v>404</v>
+      </c>
+      <c r="D63" s="21" t="n"/>
+      <c r="E63" s="54" t="n"/>
+      <c r="F63" s="54" t="s">
+        <v>405</v>
+      </c>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="55" t="s">
-        <v>389</v>
-      </c>
-      <c r="B64" s="55" t="s">
-        <v>55</v>
-      </c>
-      <c r="C64" s="41" t="s">
-        <v>396</v>
-      </c>
-      <c r="D64" s="22" t="n"/>
-      <c r="E64" s="55" t="s">
-        <v>397</v>
-      </c>
-      <c r="F64" s="55" t="n"/>
+      <c r="A64" s="69" t="s">
+        <v>406</v>
+      </c>
+      <c r="B64" s="69" t="s">
+        <v>407</v>
+      </c>
+      <c r="C64" s="69" t="s">
+        <v>408</v>
+      </c>
+      <c r="D64" s="69" t="s">
+        <v>409</v>
+      </c>
+      <c r="E64" s="69" t="s">
+        <v>410</v>
+      </c>
+      <c r="F64" s="69" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="55" t="s">
-        <v>369</v>
+        <v>411</v>
       </c>
       <c r="B65" s="55" t="s">
-        <v>381</v>
-      </c>
-      <c r="C65" s="41" t="n">
-        <v>44223657</v>
+        <v>68</v>
+      </c>
+      <c r="C65" s="41" t="s">
+        <v>412</v>
       </c>
       <c r="D65" s="22" t="n"/>
       <c r="E65" s="55" t="s">
-        <v>398</v>
+        <v>413</v>
       </c>
       <c r="F65" s="55" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="66" s="52" spans="1:6" thickBot="1">
       <c r="A66" s="55" t="s">
-        <v>389</v>
+        <v>411</v>
       </c>
       <c r="B66" s="55" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C66" s="41" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
       <c r="D66" s="22" t="n"/>
       <c r="E66" s="55" t="s">
-        <v>400</v>
+        <v>415</v>
       </c>
       <c r="F66" s="55" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="67" s="52" spans="1:6" thickBot="1">
       <c r="A67" s="55" t="s">
-        <v>389</v>
+        <v>411</v>
       </c>
       <c r="B67" s="55" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C67" s="41" t="s">
-        <v>401</v>
+        <v>416</v>
       </c>
       <c r="D67" s="22" t="n"/>
       <c r="E67" s="55" t="s">
+        <v>417</v>
+      </c>
+      <c r="F67" s="55" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="68" s="52" spans="1:6" thickBot="1">
+      <c r="A68" s="55" t="s">
+        <v>411</v>
+      </c>
+      <c r="B68" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="C68" s="41" t="s">
+        <v>418</v>
+      </c>
+      <c r="D68" s="22" t="n"/>
+      <c r="E68" s="55" t="s">
+        <v>419</v>
+      </c>
+      <c r="F68" s="55" t="n"/>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="55" t="s">
+        <v>391</v>
+      </c>
+      <c r="B69" s="55" t="s">
+        <v>403</v>
+      </c>
+      <c r="C69" s="41" t="n">
+        <v>44223657</v>
+      </c>
+      <c r="D69" s="22" t="n"/>
+      <c r="E69" s="55" t="s">
+        <v>420</v>
+      </c>
+      <c r="F69" s="55" t="n"/>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="55" t="s">
+        <v>411</v>
+      </c>
+      <c r="B70" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="C70" s="41" t="s">
+        <v>421</v>
+      </c>
+      <c r="D70" s="22" t="n"/>
+      <c r="E70" s="55" t="s">
+        <v>422</v>
+      </c>
+      <c r="F70" s="55" t="n"/>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="55" t="s">
+        <v>411</v>
+      </c>
+      <c r="B71" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="C71" s="41" t="s">
+        <v>423</v>
+      </c>
+      <c r="D71" s="22" t="n"/>
+      <c r="E71" s="55" t="s">
+        <v>424</v>
+      </c>
+      <c r="F71" s="55" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="72" s="52" spans="1:6" thickBot="1">
+      <c r="A72" s="53" t="s">
+        <v>425</v>
+      </c>
+      <c r="B72" s="55" t="s">
+        <v>426</v>
+      </c>
+      <c r="C72" s="53" t="n">
+        <v>906393</v>
+      </c>
+      <c r="D72" s="29" t="n">
+        <v>20225727</v>
+      </c>
+      <c r="E72" s="55" t="s">
+        <v>427</v>
+      </c>
+      <c r="F72" s="56" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="73" s="52" spans="1:6" thickBot="1">
+      <c r="A73" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B73" s="17" t="n"/>
+      <c r="C73" s="18" t="n"/>
+      <c r="D73" s="18" t="n"/>
+      <c r="E73" s="18" t="n"/>
+      <c r="F73" s="19" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="74" s="52" spans="1:6" thickBot="1">
+      <c r="A74" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E74" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F74" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="54" t="s">
+        <v>411</v>
+      </c>
+      <c r="B75" s="54" t="s">
+        <v>68</v>
+      </c>
+      <c r="C75" s="40" t="n">
+        <v>45128</v>
+      </c>
+      <c r="D75" s="40" t="n"/>
+      <c r="E75" s="40" t="s">
+        <v>428</v>
+      </c>
+      <c r="F75" s="54" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="69" t="s">
+        <v>430</v>
+      </c>
+      <c r="B76" s="69" t="s">
+        <v>66</v>
+      </c>
+      <c r="C76" s="69" t="s">
+        <v>64</v>
+      </c>
+      <c r="D76" s="69" t="s">
+        <v>431</v>
+      </c>
+      <c r="E76" s="69" t="s">
+        <v>432</v>
+      </c>
+      <c r="F76" s="69" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="55" t="s">
+        <v>411</v>
+      </c>
+      <c r="B77" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="C77" s="41" t="s">
+        <v>433</v>
+      </c>
+      <c r="D77" s="41" t="n"/>
+      <c r="E77" s="41" t="s">
+        <v>434</v>
+      </c>
+      <c r="F77" s="55" t="n"/>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="55" t="s">
+        <v>435</v>
+      </c>
+      <c r="B78" s="55" t="s">
+        <v>436</v>
+      </c>
+      <c r="C78" s="41" t="n">
+        <v>95903</v>
+      </c>
+      <c r="D78" s="41" t="n">
+        <v>40624392</v>
+      </c>
+      <c r="E78" s="41" t="n">
+        <v>95903</v>
+      </c>
+      <c r="F78" s="55" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.75" r="79" s="52" spans="1:6" thickBot="1">
+      <c r="A79" s="56" t="s">
+        <v>438</v>
+      </c>
+      <c r="B79" s="56" t="s">
+        <v>439</v>
+      </c>
+      <c r="C79" s="53" t="n"/>
+      <c r="D79" s="53" t="n">
+        <v>40539297</v>
+      </c>
+      <c r="E79" s="53" t="n"/>
+      <c r="F79" s="56" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B80" s="17" t="n"/>
+      <c r="C80" s="18" t="n"/>
+      <c r="D80" s="18" t="n"/>
+      <c r="E80" s="18" t="n"/>
+      <c r="F80" s="19" t="n"/>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="B81" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C81" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D81" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="E81" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="F81" s="32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="54" t="s">
         <v>402</v>
       </c>
-      <c r="F67" s="55" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="68" s="52" spans="1:6" thickBot="1">
-      <c r="A68" s="53" t="s">
-        <v>403</v>
-      </c>
-      <c r="B68" s="55" t="s">
-        <v>404</v>
-      </c>
-      <c r="C68" s="53" t="n">
-        <v>906393</v>
-      </c>
-      <c r="D68" s="29" t="n">
-        <v>20225727</v>
-      </c>
-      <c r="E68" s="55" t="s">
-        <v>405</v>
-      </c>
-      <c r="F68" s="56" t="n"/>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="B69" s="17" t="n"/>
-      <c r="C69" s="18" t="n"/>
-      <c r="D69" s="18" t="n"/>
-      <c r="E69" s="18" t="n"/>
-      <c r="F69" s="19" t="n"/>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B70" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D70" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E70" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F70" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71" s="54" t="s">
-        <v>389</v>
-      </c>
-      <c r="B71" s="54" t="s">
-        <v>55</v>
-      </c>
-      <c r="C71" s="40" t="n">
-        <v>45128</v>
-      </c>
-      <c r="D71" s="40" t="n"/>
-      <c r="E71" s="40" t="s">
-        <v>406</v>
-      </c>
-      <c r="F71" s="54" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.75" r="72" s="52" spans="1:6" thickBot="1">
-      <c r="A72" s="69" t="s">
-        <v>408</v>
-      </c>
-      <c r="B72" s="69" t="s">
-        <v>409</v>
-      </c>
-      <c r="C72" s="69" t="s">
-        <v>410</v>
-      </c>
-      <c r="D72" s="69" t="s">
-        <v>411</v>
-      </c>
-      <c r="E72" s="69" t="s">
-        <v>412</v>
-      </c>
-      <c r="F72" s="69" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.75" r="73" s="52" spans="1:6" thickBot="1">
-      <c r="A73" s="55" t="s">
-        <v>389</v>
-      </c>
-      <c r="B73" s="55" t="s">
-        <v>55</v>
-      </c>
-      <c r="C73" s="41" t="s">
-        <v>413</v>
-      </c>
-      <c r="D73" s="41" t="n"/>
-      <c r="E73" s="41" t="s">
-        <v>414</v>
-      </c>
-      <c r="F73" s="55" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="74" s="52" spans="1:6" thickBot="1">
-      <c r="A74" s="55" t="s">
-        <v>415</v>
-      </c>
-      <c r="B74" s="55" t="s">
-        <v>416</v>
-      </c>
-      <c r="C74" s="41" t="n">
-        <v>95903</v>
-      </c>
-      <c r="D74" s="41" t="n">
-        <v>40624392</v>
-      </c>
-      <c r="E74" s="41" t="n">
-        <v>95903</v>
-      </c>
-      <c r="F74" s="55" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75" s="56" t="s">
-        <v>418</v>
-      </c>
-      <c r="B75" s="56" t="s">
-        <v>419</v>
-      </c>
-      <c r="C75" s="53" t="n"/>
-      <c r="D75" s="53" t="n">
-        <v>40539297</v>
-      </c>
-      <c r="E75" s="53" t="n"/>
-      <c r="F75" s="56" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="B76" s="17" t="n"/>
-      <c r="C76" s="18" t="n"/>
-      <c r="D76" s="18" t="n"/>
-      <c r="E76" s="18" t="n"/>
-      <c r="F76" s="19" t="n"/>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="B77" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="C77" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="D77" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="E77" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="F77" s="32" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78" s="54" t="s">
-        <v>380</v>
-      </c>
-      <c r="B78" s="54" t="s">
-        <v>28</v>
-      </c>
-      <c r="C78" s="40" t="n"/>
-      <c r="D78" s="40" t="n">
+      <c r="B82" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="C82" s="40" t="n"/>
+      <c r="D82" s="40" t="n">
         <v>40115241</v>
       </c>
-      <c r="E78" s="54" t="s">
-        <v>421</v>
-      </c>
-      <c r="F78" s="54" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.75" r="79" s="52" spans="1:6" thickBot="1">
-      <c r="A79" s="55" t="s">
-        <v>380</v>
-      </c>
-      <c r="B79" s="55" t="s">
-        <v>28</v>
-      </c>
-      <c r="C79" s="41" t="n"/>
-      <c r="D79" s="41" t="n">
+      <c r="E82" s="54" t="s">
+        <v>441</v>
+      </c>
+      <c r="F82" s="54" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="55" t="s">
+        <v>402</v>
+      </c>
+      <c r="B83" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="C83" s="41" t="n"/>
+      <c r="D83" s="41" t="n">
         <v>40529710</v>
       </c>
-      <c r="E79" s="55" t="s">
-        <v>423</v>
-      </c>
-      <c r="F79" s="55" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80" s="55" t="s">
-        <v>380</v>
-      </c>
-      <c r="B80" s="55" t="s">
-        <v>28</v>
-      </c>
-      <c r="C80" s="41" t="n"/>
-      <c r="D80" s="41" t="n"/>
-      <c r="E80" s="55" t="s">
-        <v>425</v>
-      </c>
-      <c r="F80" s="55" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81" s="55" t="s">
-        <v>380</v>
-      </c>
-      <c r="B81" s="55" t="s">
-        <v>28</v>
-      </c>
-      <c r="C81" s="41" t="n"/>
-      <c r="D81" s="41" t="n"/>
-      <c r="E81" s="55" t="s">
-        <v>427</v>
-      </c>
-      <c r="F81" s="55" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82" s="56" t="s">
-        <v>380</v>
-      </c>
-      <c r="B82" s="56" t="s">
-        <v>429</v>
-      </c>
-      <c r="C82" s="53" t="n"/>
-      <c r="D82" s="53" t="n"/>
-      <c r="E82" s="56" t="s">
-        <v>430</v>
-      </c>
-      <c r="F82" s="56" t="n"/>
+      <c r="E83" s="55" t="s">
+        <v>443</v>
+      </c>
+      <c r="F83" s="55" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="55" t="s">
+        <v>402</v>
+      </c>
+      <c r="B84" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="C84" s="41" t="n"/>
+      <c r="D84" s="41" t="n"/>
+      <c r="E84" s="55" t="s">
+        <v>445</v>
+      </c>
+      <c r="F84" s="55" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="55" t="s">
+        <v>402</v>
+      </c>
+      <c r="B85" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="C85" s="41" t="n"/>
+      <c r="D85" s="41" t="n"/>
+      <c r="E85" s="55" t="s">
+        <v>447</v>
+      </c>
+      <c r="F85" s="55" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="56" t="s">
+        <v>402</v>
+      </c>
+      <c r="B86" s="56" t="s">
+        <v>449</v>
+      </c>
+      <c r="C86" s="53" t="n"/>
+      <c r="D86" s="53" t="n"/>
+      <c r="E86" s="56" t="s">
+        <v>450</v>
+      </c>
+      <c r="F86" s="56" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8001,7 +8236,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F88"/>
+  <dimension ref="A1:F92"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="F39" sqref="F39"/>
@@ -8019,7 +8254,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="58" t="s">
-        <v>431</v>
+        <v>451</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="2" s="52" spans="1:6" thickBot="1"/>
@@ -8055,29 +8290,29 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="54" t="s">
-        <v>432</v>
+        <v>452</v>
       </c>
       <c r="B5" s="54" t="s">
-        <v>433</v>
+        <v>453</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>434</v>
+        <v>454</v>
       </c>
       <c r="D5" s="40" t="n"/>
       <c r="E5" s="54" t="n"/>
       <c r="F5" s="54" t="s">
-        <v>435</v>
+        <v>455</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="55" t="s">
-        <v>436</v>
+        <v>456</v>
       </c>
       <c r="B6" s="55" t="s">
-        <v>433</v>
+        <v>453</v>
       </c>
       <c r="C6" s="41" t="s">
-        <v>437</v>
+        <v>457</v>
       </c>
       <c r="D6" s="41" t="n"/>
       <c r="E6" s="55" t="n"/>
@@ -8085,103 +8320,103 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="55" t="s">
-        <v>432</v>
+        <v>452</v>
       </c>
       <c r="B7" s="55" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="C7" s="41" t="s">
-        <v>438</v>
+        <v>458</v>
       </c>
       <c r="D7" s="41" t="n"/>
       <c r="E7" s="55" t="n"/>
       <c r="F7" s="55" t="s">
-        <v>439</v>
+        <v>459</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="55" t="s">
-        <v>432</v>
+        <v>452</v>
       </c>
       <c r="B8" s="55" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C8" s="41" t="n"/>
       <c r="D8" s="41" t="n"/>
       <c r="E8" s="55" t="s">
-        <v>440</v>
+        <v>460</v>
       </c>
       <c r="F8" s="55" t="s">
-        <v>441</v>
+        <v>461</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="55" t="s">
-        <v>432</v>
+        <v>452</v>
       </c>
       <c r="B9" s="55" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="C9" s="41" t="s">
-        <v>442</v>
+        <v>462</v>
       </c>
       <c r="D9" s="41" t="n"/>
       <c r="E9" s="55" t="n"/>
       <c r="F9" s="55" t="s">
-        <v>441</v>
+        <v>461</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="55" t="s">
-        <v>432</v>
+        <v>452</v>
       </c>
       <c r="B10" s="55" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="C10" s="41" t="s">
-        <v>443</v>
+        <v>463</v>
       </c>
       <c r="D10" s="41" t="n"/>
       <c r="E10" s="55" t="n"/>
       <c r="F10" s="55" t="s">
-        <v>444</v>
+        <v>464</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="41" t="s">
-        <v>432</v>
+        <v>452</v>
       </c>
       <c r="B11" s="55" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="C11" s="55" t="s">
-        <v>445</v>
+        <v>465</v>
       </c>
       <c r="D11" s="55" t="n"/>
       <c r="E11" s="55" t="n"/>
       <c r="F11" s="55" t="s">
-        <v>446</v>
+        <v>466</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="12" s="52" spans="1:6" thickBot="1">
       <c r="A12" s="53" t="s">
-        <v>432</v>
+        <v>452</v>
       </c>
       <c r="B12" s="53" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="C12" s="53" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="D12" s="34" t="n"/>
       <c r="E12" s="34" t="n"/>
       <c r="F12" s="53" t="s">
-        <v>448</v>
+        <v>468</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="13" s="52" spans="1:6" thickBot="1">
       <c r="A13" s="24" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B13" s="25" t="n"/>
       <c r="C13" s="26" t="n"/>
@@ -8210,434 +8445,422 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="54" t="s">
-        <v>449</v>
-      </c>
-      <c r="B15" s="54" t="s">
-        <v>193</v>
-      </c>
-      <c r="C15" s="40" t="n"/>
-      <c r="D15" s="40" t="n"/>
-      <c r="E15" s="54" t="n"/>
-      <c r="F15" s="54" t="s">
-        <v>450</v>
-      </c>
+      <c r="A15" s="69" t="s">
+        <v>469</v>
+      </c>
+      <c r="B15" s="69" t="n"/>
+      <c r="C15" s="69" t="n"/>
+      <c r="D15" s="69" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="69" t="n"/>
+      <c r="F15" s="69" t="n"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="55" t="s">
-        <v>449</v>
-      </c>
-      <c r="B16" s="55" t="s">
-        <v>193</v>
-      </c>
-      <c r="C16" s="41" t="s">
-        <v>451</v>
-      </c>
-      <c r="D16" s="41" t="n"/>
-      <c r="E16" s="55" t="n"/>
-      <c r="F16" s="55" t="s">
-        <v>452</v>
-      </c>
+      <c r="A16" s="69" t="s">
+        <v>470</v>
+      </c>
+      <c r="B16" s="69" t="n"/>
+      <c r="C16" s="69" t="n"/>
+      <c r="D16" s="69" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="69" t="n"/>
+      <c r="F16" s="69" t="n"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="55" t="s">
-        <v>453</v>
-      </c>
-      <c r="B17" s="55" t="s">
-        <v>193</v>
-      </c>
-      <c r="C17" s="41" t="s">
-        <v>454</v>
-      </c>
-      <c r="D17" s="41" t="n"/>
-      <c r="E17" s="55" t="n"/>
-      <c r="F17" s="55" t="n"/>
+      <c r="A17" s="69" t="s">
+        <v>471</v>
+      </c>
+      <c r="B17" s="69" t="n"/>
+      <c r="C17" s="69" t="n"/>
+      <c r="D17" s="69" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="69" t="n"/>
+      <c r="F17" s="69" t="n"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="55" t="s">
-        <v>436</v>
-      </c>
-      <c r="B18" s="55" t="s">
-        <v>193</v>
-      </c>
-      <c r="C18" s="41" t="s">
-        <v>455</v>
-      </c>
-      <c r="D18" s="41" t="n"/>
-      <c r="E18" s="55" t="n"/>
-      <c r="F18" s="55" t="s">
-        <v>456</v>
-      </c>
+      <c r="A18" s="69" t="s">
+        <v>472</v>
+      </c>
+      <c r="B18" s="69" t="n"/>
+      <c r="C18" s="69" t="n"/>
+      <c r="D18" s="69" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="69" t="n"/>
+      <c r="F18" s="69" t="n"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="55" t="s">
-        <v>436</v>
-      </c>
-      <c r="B19" s="55" t="s">
-        <v>193</v>
-      </c>
-      <c r="C19" s="41" t="s">
-        <v>457</v>
-      </c>
-      <c r="D19" s="41" t="n"/>
-      <c r="E19" s="55" t="n"/>
-      <c r="F19" s="55" t="s">
-        <v>450</v>
+      <c r="A19" s="54" t="s">
+        <v>473</v>
+      </c>
+      <c r="B19" s="54" t="s">
+        <v>206</v>
+      </c>
+      <c r="C19" s="40" t="n"/>
+      <c r="D19" s="40" t="n"/>
+      <c r="E19" s="54" t="n"/>
+      <c r="F19" s="54" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="41" t="s">
-        <v>458</v>
+      <c r="A20" s="55" t="s">
+        <v>473</v>
       </c>
       <c r="B20" s="55" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="C20" s="41" t="s">
-        <v>459</v>
-      </c>
-      <c r="D20" s="55" t="n"/>
+        <v>475</v>
+      </c>
+      <c r="D20" s="41" t="n"/>
       <c r="E20" s="55" t="n"/>
       <c r="F20" s="55" t="s">
-        <v>460</v>
+        <v>476</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="41" t="s">
-        <v>458</v>
-      </c>
-      <c r="B21" s="41" t="s">
-        <v>193</v>
+      <c r="A21" s="55" t="s">
+        <v>477</v>
+      </c>
+      <c r="B21" s="55" t="s">
+        <v>206</v>
       </c>
       <c r="C21" s="41" t="s">
-        <v>461</v>
-      </c>
-      <c r="D21" s="36" t="n"/>
-      <c r="E21" s="36" t="n"/>
-      <c r="F21" s="41" t="s">
-        <v>462</v>
-      </c>
+        <v>478</v>
+      </c>
+      <c r="D21" s="41" t="n"/>
+      <c r="E21" s="55" t="n"/>
+      <c r="F21" s="55" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="22" s="52" spans="1:6" thickBot="1">
-      <c r="A22" s="56" t="s">
-        <v>458</v>
-      </c>
-      <c r="B22" s="56" t="s">
-        <v>193</v>
-      </c>
-      <c r="C22" s="53" t="s">
-        <v>463</v>
-      </c>
-      <c r="D22" s="53" t="n"/>
-      <c r="E22" s="56" t="n"/>
-      <c r="F22" s="56" t="s">
-        <v>464</v>
+      <c r="A22" s="55" t="s">
+        <v>456</v>
+      </c>
+      <c r="B22" s="55" t="s">
+        <v>206</v>
+      </c>
+      <c r="C22" s="41" t="s">
+        <v>479</v>
+      </c>
+      <c r="D22" s="41" t="n"/>
+      <c r="E22" s="55" t="n"/>
+      <c r="F22" s="55" t="s">
+        <v>480</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="23" s="52" spans="1:6" thickBot="1">
-      <c r="A23" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" s="25" t="n"/>
-      <c r="C23" s="26" t="n"/>
-      <c r="D23" s="26" t="n"/>
-      <c r="E23" s="26" t="n"/>
-      <c r="F23" s="27" t="n"/>
+      <c r="A23" s="55" t="s">
+        <v>456</v>
+      </c>
+      <c r="B23" s="55" t="s">
+        <v>206</v>
+      </c>
+      <c r="C23" s="41" t="s">
+        <v>481</v>
+      </c>
+      <c r="D23" s="41" t="n"/>
+      <c r="E23" s="55" t="n"/>
+      <c r="F23" s="55" t="s">
+        <v>474</v>
+      </c>
     </row>
     <row customHeight="1" ht="15.75" r="24" s="52" spans="1:6" thickBot="1">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="41" t="s">
+        <v>482</v>
+      </c>
+      <c r="B24" s="55" t="s">
+        <v>206</v>
+      </c>
+      <c r="C24" s="41" t="s">
+        <v>483</v>
+      </c>
+      <c r="D24" s="55" t="n"/>
+      <c r="E24" s="55" t="n"/>
+      <c r="F24" s="55" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="41" t="s">
+        <v>482</v>
+      </c>
+      <c r="B25" s="41" t="s">
+        <v>206</v>
+      </c>
+      <c r="C25" s="41" t="s">
+        <v>485</v>
+      </c>
+      <c r="D25" s="36" t="n"/>
+      <c r="E25" s="36" t="n"/>
+      <c r="F25" s="41" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="56" t="s">
+        <v>482</v>
+      </c>
+      <c r="B26" s="56" t="s">
+        <v>206</v>
+      </c>
+      <c r="C26" s="53" t="s">
+        <v>487</v>
+      </c>
+      <c r="D26" s="53" t="n"/>
+      <c r="E26" s="56" t="n"/>
+      <c r="F26" s="56" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="25" t="n"/>
+      <c r="C27" s="26" t="n"/>
+      <c r="D27" s="26" t="n"/>
+      <c r="E27" s="26" t="n"/>
+      <c r="F27" s="27" t="n"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B28" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C28" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D28" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="E28" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F24" s="8" t="s">
+      <c r="F28" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="69" t="s">
-        <v>465</v>
-      </c>
-      <c r="B25" s="69" t="s">
-        <v>466</v>
-      </c>
-      <c r="C25" s="69" t="s">
-        <v>467</v>
-      </c>
-      <c r="D25" s="69" t="n">
+    <row r="29" spans="1:6">
+      <c r="A29" s="69" t="s">
+        <v>489</v>
+      </c>
+      <c r="B29" s="69" t="s">
+        <v>490</v>
+      </c>
+      <c r="C29" s="69" t="s">
+        <v>491</v>
+      </c>
+      <c r="D29" s="69" t="n">
         <v>46456</v>
       </c>
-      <c r="E25" s="69" t="s">
-        <v>467</v>
-      </c>
-      <c r="F25" s="69" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="54" t="s">
-        <v>469</v>
-      </c>
-      <c r="B26" s="54" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26" s="40" t="s">
-        <v>470</v>
-      </c>
-      <c r="D26" s="40" t="n"/>
-      <c r="E26" s="54" t="n"/>
-      <c r="F26" s="54" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="55" t="s">
-        <v>469</v>
-      </c>
-      <c r="B27" s="55" t="s">
-        <v>49</v>
-      </c>
-      <c r="C27" s="41" t="s">
-        <v>471</v>
-      </c>
-      <c r="D27" s="41" t="n"/>
-      <c r="E27" s="55" t="n"/>
-      <c r="F27" s="55" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="55" t="s">
-        <v>472</v>
-      </c>
-      <c r="B28" s="55" t="s">
-        <v>193</v>
-      </c>
-      <c r="C28" s="41" t="s">
-        <v>473</v>
-      </c>
-      <c r="D28" s="41" t="n">
-        <v>20263950</v>
-      </c>
-      <c r="E28" s="55" t="n"/>
-      <c r="F28" s="55" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="55" t="s">
-        <v>472</v>
-      </c>
-      <c r="B29" s="55" t="s">
-        <v>193</v>
-      </c>
-      <c r="C29" s="41" t="s">
-        <v>474</v>
-      </c>
-      <c r="D29" s="41" t="n"/>
-      <c r="E29" s="55" t="n"/>
-      <c r="F29" s="55" t="s">
-        <v>450</v>
+      <c r="E29" s="69" t="s">
+        <v>491</v>
+      </c>
+      <c r="F29" s="69" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="55" t="s">
-        <v>475</v>
-      </c>
-      <c r="B30" s="55" t="s">
-        <v>193</v>
-      </c>
-      <c r="C30" s="41" t="s">
+      <c r="A30" s="54" t="s">
+        <v>493</v>
+      </c>
+      <c r="B30" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="40" t="s">
+        <v>494</v>
+      </c>
+      <c r="D30" s="40" t="n"/>
+      <c r="E30" s="54" t="n"/>
+      <c r="F30" s="54" t="s">
         <v>476</v>
       </c>
-      <c r="D30" s="41" t="n"/>
-      <c r="E30" s="55" t="n"/>
-      <c r="F30" s="55" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="31" s="52" spans="1:6" thickBot="1">
       <c r="A31" s="55" t="s">
-        <v>475</v>
+        <v>493</v>
       </c>
       <c r="B31" s="55" t="s">
-        <v>193</v>
+        <v>57</v>
       </c>
       <c r="C31" s="41" t="s">
-        <v>477</v>
+        <v>495</v>
       </c>
       <c r="D31" s="41" t="n"/>
       <c r="E31" s="55" t="n"/>
-      <c r="F31" s="55" t="n"/>
+      <c r="F31" s="55" t="s">
+        <v>474</v>
+      </c>
     </row>
     <row customHeight="1" ht="15.75" r="32" s="52" spans="1:6" thickBot="1">
-      <c r="A32" s="53" t="s">
-        <v>458</v>
-      </c>
-      <c r="B32" s="56" t="s">
-        <v>49</v>
-      </c>
-      <c r="C32" s="53" t="s">
-        <v>478</v>
-      </c>
-      <c r="D32" s="56" t="n"/>
-      <c r="E32" s="56" t="n"/>
-      <c r="F32" s="56" t="n"/>
+      <c r="A32" s="55" t="s">
+        <v>496</v>
+      </c>
+      <c r="B32" s="55" t="s">
+        <v>206</v>
+      </c>
+      <c r="C32" s="41" t="s">
+        <v>497</v>
+      </c>
+      <c r="D32" s="41" t="n">
+        <v>20263950</v>
+      </c>
+      <c r="E32" s="55" t="n"/>
+      <c r="F32" s="55" t="s">
+        <v>474</v>
+      </c>
     </row>
     <row customHeight="1" ht="15.75" r="33" s="52" spans="1:6" thickBot="1">
-      <c r="A33" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="B33" s="25" t="n"/>
-      <c r="C33" s="26" t="n"/>
-      <c r="D33" s="26" t="n"/>
-      <c r="E33" s="26" t="n"/>
-      <c r="F33" s="27" t="n"/>
+      <c r="A33" s="55" t="s">
+        <v>496</v>
+      </c>
+      <c r="B33" s="55" t="s">
+        <v>206</v>
+      </c>
+      <c r="C33" s="41" t="s">
+        <v>498</v>
+      </c>
+      <c r="D33" s="41" t="n"/>
+      <c r="E33" s="55" t="n"/>
+      <c r="F33" s="55" t="s">
+        <v>474</v>
+      </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="55" t="s">
+        <v>499</v>
+      </c>
+      <c r="B34" s="55" t="s">
+        <v>206</v>
+      </c>
+      <c r="C34" s="41" t="s">
+        <v>500</v>
+      </c>
+      <c r="D34" s="41" t="n"/>
+      <c r="E34" s="55" t="n"/>
+      <c r="F34" s="55" t="n"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="55" t="s">
+        <v>499</v>
+      </c>
+      <c r="B35" s="55" t="s">
+        <v>206</v>
+      </c>
+      <c r="C35" s="41" t="s">
+        <v>501</v>
+      </c>
+      <c r="D35" s="41" t="n"/>
+      <c r="E35" s="55" t="n"/>
+      <c r="F35" s="55" t="n"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="53" t="s">
+        <v>482</v>
+      </c>
+      <c r="B36" s="56" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" s="53" t="s">
+        <v>502</v>
+      </c>
+      <c r="D36" s="56" t="n"/>
+      <c r="E36" s="56" t="n"/>
+      <c r="F36" s="56" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="37" s="52" spans="1:6" thickBot="1">
+      <c r="A37" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37" s="25" t="n"/>
+      <c r="C37" s="26" t="n"/>
+      <c r="D37" s="26" t="n"/>
+      <c r="E37" s="26" t="n"/>
+      <c r="F37" s="27" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="38" s="52" spans="1:6" thickBot="1">
+      <c r="A38" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B38" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C38" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D38" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E34" s="8" t="s">
+      <c r="E38" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F34" s="8" t="s">
+      <c r="F38" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="54" t="s">
-        <v>479</v>
-      </c>
-      <c r="B35" s="54" t="s">
-        <v>28</v>
-      </c>
-      <c r="C35" s="54" t="s">
-        <v>480</v>
-      </c>
-      <c r="D35" s="40" t="n">
+    <row customHeight="1" ht="15.75" r="39" s="52" spans="1:6" thickBot="1">
+      <c r="A39" s="54" t="s">
+        <v>503</v>
+      </c>
+      <c r="B39" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="C39" s="54" t="s">
+        <v>504</v>
+      </c>
+      <c r="D39" s="40" t="n">
         <v>40529448</v>
       </c>
-      <c r="E35" s="54" t="n"/>
-      <c r="F35" s="54" t="n"/>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="55" t="s">
-        <v>479</v>
-      </c>
-      <c r="B36" s="55" t="s">
-        <v>193</v>
-      </c>
-      <c r="C36" s="55" t="s">
-        <v>481</v>
-      </c>
-      <c r="D36" s="41" t="n">
+      <c r="E39" s="54" t="n"/>
+      <c r="F39" s="54" t="n"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="55" t="s">
+        <v>503</v>
+      </c>
+      <c r="B40" s="55" t="s">
+        <v>206</v>
+      </c>
+      <c r="C40" s="55" t="s">
+        <v>505</v>
+      </c>
+      <c r="D40" s="41" t="n">
         <v>40789692</v>
       </c>
-      <c r="E36" s="55" t="n"/>
-      <c r="F36" s="55" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.75" r="37" s="52" spans="1:6" thickBot="1">
-      <c r="A37" s="55" t="s">
-        <v>479</v>
-      </c>
-      <c r="B37" s="55" t="s">
-        <v>483</v>
-      </c>
-      <c r="C37" s="55" t="s">
-        <v>484</v>
-      </c>
-      <c r="D37" s="41" t="n"/>
-      <c r="E37" s="55" t="n"/>
-      <c r="F37" s="55" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="38" s="52" spans="1:6" thickBot="1">
-      <c r="A38" s="55" t="s">
-        <v>479</v>
-      </c>
-      <c r="B38" s="55" t="s">
-        <v>263</v>
-      </c>
-      <c r="C38" s="55" t="s">
-        <v>485</v>
-      </c>
-      <c r="D38" s="41" t="n"/>
-      <c r="E38" s="55" t="n"/>
-      <c r="F38" s="55" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="39" s="52" spans="1:6" thickBot="1">
-      <c r="A39" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B39" s="17" t="n"/>
-      <c r="C39" s="18" t="n"/>
-      <c r="D39" s="18" t="n"/>
-      <c r="E39" s="18" t="n"/>
-      <c r="F39" s="19" t="n"/>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F40" s="8" t="s">
-        <v>7</v>
+      <c r="E40" s="55" t="n"/>
+      <c r="F40" s="55" t="s">
+        <v>506</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="41" s="52" spans="1:6" thickBot="1">
       <c r="A41" s="55" t="s">
-        <v>486</v>
+        <v>503</v>
       </c>
       <c r="B41" s="55" t="s">
-        <v>487</v>
+        <v>507</v>
       </c>
       <c r="C41" s="55" t="s">
-        <v>488</v>
-      </c>
-      <c r="D41" s="41" t="n">
-        <v>2033604</v>
-      </c>
+        <v>508</v>
+      </c>
+      <c r="D41" s="41" t="n"/>
       <c r="E41" s="55" t="n"/>
       <c r="F41" s="55" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="42" s="52" spans="1:6" thickBot="1">
       <c r="A42" s="55" t="s">
-        <v>31</v>
+        <v>503</v>
       </c>
       <c r="B42" s="55" t="s">
-        <v>487</v>
+        <v>276</v>
       </c>
       <c r="C42" s="55" t="s">
-        <v>489</v>
+        <v>509</v>
       </c>
       <c r="D42" s="41" t="n"/>
       <c r="E42" s="55" t="n"/>
@@ -8645,7 +8868,7 @@
     </row>
     <row customHeight="1" ht="15.75" r="43" s="52" spans="1:6" thickBot="1">
       <c r="A43" s="9" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B43" s="17" t="n"/>
       <c r="C43" s="18" t="n"/>
@@ -8654,226 +8877,286 @@
       <c r="F43" s="19" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="44" s="52" spans="1:6" thickBot="1">
-      <c r="A44" s="32" t="s">
+      <c r="A44" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B44" s="32" t="s">
+      <c r="B44" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C44" s="32" t="s">
+      <c r="C44" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D44" s="32" t="s">
+      <c r="D44" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E44" s="32" t="s">
+      <c r="E44" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F44" s="32" t="s">
+      <c r="F44" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="45" s="52" spans="1:6" thickBot="1">
-      <c r="A45" s="23" t="n"/>
-      <c r="B45" s="51" t="n"/>
-      <c r="C45" s="51" t="n"/>
-      <c r="D45" s="51" t="n"/>
-      <c r="E45" s="51" t="n"/>
-      <c r="F45" s="51" t="n"/>
+      <c r="A45" s="55" t="s">
+        <v>510</v>
+      </c>
+      <c r="B45" s="55" t="s">
+        <v>511</v>
+      </c>
+      <c r="C45" s="55" t="s">
+        <v>512</v>
+      </c>
+      <c r="D45" s="41" t="n">
+        <v>2033604</v>
+      </c>
+      <c r="E45" s="55" t="n"/>
+      <c r="F45" s="55" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="46" s="52" spans="1:6" thickBot="1">
-      <c r="A46" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="B46" s="25" t="n"/>
-      <c r="C46" s="26" t="n"/>
-      <c r="D46" s="26" t="n"/>
-      <c r="E46" s="26" t="n"/>
-      <c r="F46" s="27" t="n"/>
+      <c r="A46" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="B46" s="55" t="s">
+        <v>511</v>
+      </c>
+      <c r="C46" s="55" t="s">
+        <v>513</v>
+      </c>
+      <c r="D46" s="41" t="n"/>
+      <c r="E46" s="55" t="n"/>
+      <c r="F46" s="55" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="47" s="52" spans="1:6" thickBot="1">
-      <c r="A47" s="32" t="s">
+      <c r="A47" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B47" s="17" t="n"/>
+      <c r="C47" s="18" t="n"/>
+      <c r="D47" s="18" t="n"/>
+      <c r="E47" s="18" t="n"/>
+      <c r="F47" s="19" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="48" s="52" spans="1:6" thickBot="1">
+      <c r="A48" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B47" s="32" t="s">
+      <c r="B48" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="C47" s="32" t="s">
+      <c r="C48" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D47" s="32" t="s">
+      <c r="D48" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="E47" s="32" t="s">
+      <c r="E48" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="F47" s="32" t="s">
+      <c r="F48" s="32" t="s">
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="15.75" r="48" s="52" spans="1:6" thickBot="1">
-      <c r="A48" s="23" t="n"/>
-      <c r="B48" s="51" t="n"/>
-      <c r="C48" s="51" t="n"/>
-      <c r="D48" s="51" t="n"/>
-      <c r="E48" s="51" t="n"/>
-      <c r="F48" s="51" t="n"/>
-    </row>
     <row customHeight="1" ht="15.75" r="49" s="52" spans="1:6" thickBot="1">
-      <c r="A49" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="B49" s="25" t="n"/>
-      <c r="C49" s="26" t="n"/>
-      <c r="D49" s="26" t="n"/>
-      <c r="E49" s="26" t="n"/>
-      <c r="F49" s="27" t="n"/>
+      <c r="A49" s="73" t="s">
+        <v>514</v>
+      </c>
+      <c r="B49" s="69" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" s="69" t="s">
+        <v>515</v>
+      </c>
+      <c r="D49" s="69" t="n">
+        <v>36</v>
+      </c>
+      <c r="E49" s="69" t="s">
+        <v>516</v>
+      </c>
+      <c r="F49" s="69" t="s">
+        <v>517</v>
+      </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="8" t="s">
+      <c r="A50" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="B50" s="25" t="n"/>
+      <c r="C50" s="26" t="n"/>
+      <c r="D50" s="26" t="n"/>
+      <c r="E50" s="26" t="n"/>
+      <c r="F50" s="27" t="n"/>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="B51" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="C51" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D50" s="8" t="s">
+      <c r="D51" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="E50" s="8" t="s">
+      <c r="E51" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="F50" s="8" t="s">
+      <c r="F51" s="32" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="54" t="s">
-        <v>490</v>
-      </c>
-      <c r="B51" s="54" t="n"/>
-      <c r="C51" s="40" t="s">
-        <v>491</v>
-      </c>
-      <c r="D51" s="40" t="n">
+    <row r="52" spans="1:6">
+      <c r="A52" s="23" t="n"/>
+      <c r="B52" s="51" t="n"/>
+      <c r="C52" s="51" t="n"/>
+      <c r="D52" s="51" t="n"/>
+      <c r="E52" s="51" t="n"/>
+      <c r="F52" s="51" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="53" s="52" spans="1:6" thickBot="1">
+      <c r="A53" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="B53" s="25" t="n"/>
+      <c r="C53" s="26" t="n"/>
+      <c r="D53" s="26" t="n"/>
+      <c r="E53" s="26" t="n"/>
+      <c r="F53" s="27" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="54" s="52" spans="1:6" thickBot="1">
+      <c r="A54" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.75" r="55" s="52" spans="1:6" thickBot="1">
+      <c r="A55" s="54" t="s">
+        <v>518</v>
+      </c>
+      <c r="B55" s="54" t="n"/>
+      <c r="C55" s="40" t="s">
+        <v>519</v>
+      </c>
+      <c r="D55" s="40" t="n">
         <v>40591666</v>
       </c>
-      <c r="E51" s="40" t="n"/>
-      <c r="F51" s="54" t="n"/>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="55" t="s">
-        <v>490</v>
-      </c>
-      <c r="B52" s="55" t="n"/>
-      <c r="C52" s="41" t="s">
-        <v>492</v>
-      </c>
-      <c r="D52" s="41" t="n">
+      <c r="E55" s="40" t="n"/>
+      <c r="F55" s="54" t="n"/>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="55" t="s">
+        <v>518</v>
+      </c>
+      <c r="B56" s="55" t="n"/>
+      <c r="C56" s="41" t="s">
+        <v>520</v>
+      </c>
+      <c r="D56" s="41" t="n">
         <v>40533656</v>
       </c>
-      <c r="E52" s="41" t="n"/>
-      <c r="F52" s="55" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="53" s="52" spans="1:6" thickBot="1">
-      <c r="A53" s="55" t="s">
-        <v>493</v>
-      </c>
-      <c r="B53" s="55" t="n"/>
-      <c r="C53" s="41" t="n"/>
-      <c r="D53" s="41" t="n"/>
-      <c r="E53" s="41" t="n"/>
-      <c r="F53" s="55" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.75" r="54" s="52" spans="1:6" thickBot="1">
-      <c r="A54" s="56" t="s">
-        <v>495</v>
-      </c>
-      <c r="B54" s="56" t="n"/>
-      <c r="C54" s="53" t="n"/>
-      <c r="D54" s="53" t="n">
-        <v>40516692</v>
-      </c>
-      <c r="E54" s="53" t="n"/>
-      <c r="F54" s="56" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.75" r="55" s="52" spans="1:6" thickBot="1">
-      <c r="A55" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="B55" s="17" t="n"/>
-      <c r="C55" s="18" t="n"/>
-      <c r="D55" s="18" t="n"/>
-      <c r="E55" s="18" t="n"/>
-      <c r="F55" s="19" t="n"/>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="B56" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="C56" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="D56" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="E56" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="F56" s="32" t="s">
-        <v>7</v>
-      </c>
+      <c r="E56" s="41" t="n"/>
+      <c r="F56" s="55" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="57" s="52" spans="1:6" thickBot="1">
-      <c r="A57" s="54" t="s">
-        <v>497</v>
-      </c>
-      <c r="B57" s="54" t="s">
-        <v>487</v>
-      </c>
-      <c r="C57" s="40" t="s">
-        <v>498</v>
-      </c>
-      <c r="D57" s="40" t="n">
-        <v>40529639</v>
-      </c>
-      <c r="E57" s="54" t="n"/>
-      <c r="F57" s="54" t="n"/>
+      <c r="A57" s="55" t="s">
+        <v>521</v>
+      </c>
+      <c r="B57" s="55" t="n"/>
+      <c r="C57" s="41" t="n"/>
+      <c r="D57" s="41" t="n"/>
+      <c r="E57" s="41" t="n"/>
+      <c r="F57" s="55" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="56" t="s">
-        <v>497</v>
-      </c>
-      <c r="B58" s="56" t="s">
-        <v>433</v>
-      </c>
-      <c r="C58" s="53" t="s">
-        <v>499</v>
-      </c>
-      <c r="D58" s="53" t="n"/>
-      <c r="E58" s="56" t="n"/>
-      <c r="F58" s="56" t="n"/>
+        <v>523</v>
+      </c>
+      <c r="B58" s="56" t="n"/>
+      <c r="C58" s="53" t="n"/>
+      <c r="D58" s="53" t="n">
+        <v>40516692</v>
+      </c>
+      <c r="E58" s="53" t="n"/>
+      <c r="F58" s="56" t="s">
+        <v>524</v>
+      </c>
     </row>
     <row r="59" spans="1:6">
-      <c r="C59" s="29" t="n"/>
+      <c r="A59" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B59" s="17" t="n"/>
+      <c r="C59" s="18" t="n"/>
+      <c r="D59" s="18" t="n"/>
+      <c r="E59" s="18" t="n"/>
+      <c r="F59" s="19" t="n"/>
     </row>
     <row r="60" spans="1:6">
-      <c r="C60" s="29" t="n"/>
+      <c r="A60" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="B60" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C60" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D60" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="E60" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="F60" s="32" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="61" spans="1:6">
-      <c r="C61" s="29" t="n"/>
+      <c r="A61" s="54" t="s">
+        <v>525</v>
+      </c>
+      <c r="B61" s="54" t="s">
+        <v>511</v>
+      </c>
+      <c r="C61" s="40" t="s">
+        <v>526</v>
+      </c>
+      <c r="D61" s="40" t="n">
+        <v>40529639</v>
+      </c>
+      <c r="E61" s="54" t="n"/>
+      <c r="F61" s="54" t="n"/>
     </row>
     <row r="62" spans="1:6">
-      <c r="C62" s="29" t="n"/>
+      <c r="A62" s="56" t="s">
+        <v>525</v>
+      </c>
+      <c r="B62" s="56" t="s">
+        <v>453</v>
+      </c>
+      <c r="C62" s="53" t="s">
+        <v>527</v>
+      </c>
+      <c r="D62" s="53" t="n"/>
+      <c r="E62" s="56" t="n"/>
+      <c r="F62" s="56" t="n"/>
     </row>
     <row r="63" spans="1:6">
       <c r="C63" s="29" t="n"/>
@@ -8882,31 +9165,27 @@
       <c r="C64" s="29" t="n"/>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="33" t="n"/>
+      <c r="C65" s="29" t="n"/>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="33" t="n"/>
-      <c r="B66" s="33" t="n"/>
-      <c r="C66" s="33" t="n"/>
-      <c r="D66" s="33" t="n"/>
-      <c r="E66" s="33" t="n"/>
-      <c r="F66" s="33" t="n"/>
+      <c r="C66" s="29" t="n"/>
     </row>
     <row r="67" spans="1:6">
       <c r="C67" s="29" t="n"/>
-      <c r="D67" s="29" t="n"/>
     </row>
     <row r="68" spans="1:6">
       <c r="C68" s="29" t="n"/>
-      <c r="D68" s="29" t="n"/>
     </row>
     <row r="69" spans="1:6">
-      <c r="C69" s="29" t="n"/>
-      <c r="D69" s="29" t="n"/>
+      <c r="A69" s="33" t="n"/>
     </row>
     <row r="70" spans="1:6">
-      <c r="C70" s="29" t="n"/>
-      <c r="D70" s="29" t="n"/>
+      <c r="A70" s="33" t="n"/>
+      <c r="B70" s="33" t="n"/>
+      <c r="C70" s="33" t="n"/>
+      <c r="D70" s="33" t="n"/>
+      <c r="E70" s="33" t="n"/>
+      <c r="F70" s="33" t="n"/>
     </row>
     <row r="71" spans="1:6">
       <c r="C71" s="29" t="n"/>
@@ -8925,71 +9204,87 @@
       <c r="D74" s="29" t="n"/>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="29" t="n"/>
       <c r="C75" s="29" t="n"/>
       <c r="D75" s="29" t="n"/>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" s="33" t="n"/>
+      <c r="C76" s="29" t="n"/>
+      <c r="D76" s="29" t="n"/>
     </row>
     <row r="77" spans="1:6">
-      <c r="A77" s="33" t="n"/>
-      <c r="B77" s="33" t="n"/>
-      <c r="C77" s="33" t="n"/>
-      <c r="D77" s="33" t="n"/>
-      <c r="E77" s="33" t="n"/>
-      <c r="F77" s="33" t="n"/>
+      <c r="C77" s="29" t="n"/>
+      <c r="D77" s="29" t="n"/>
     </row>
     <row r="78" spans="1:6">
       <c r="C78" s="29" t="n"/>
       <c r="D78" s="29" t="n"/>
-      <c r="E78" s="29" t="n"/>
     </row>
     <row r="79" spans="1:6">
+      <c r="A79" s="29" t="n"/>
       <c r="C79" s="29" t="n"/>
       <c r="D79" s="29" t="n"/>
-      <c r="E79" s="29" t="n"/>
     </row>
     <row r="80" spans="1:6">
-      <c r="C80" s="29" t="n"/>
-      <c r="D80" s="29" t="n"/>
-      <c r="E80" s="29" t="n"/>
+      <c r="A80" s="33" t="n"/>
     </row>
     <row r="81" spans="1:6">
-      <c r="C81" s="29" t="n"/>
-      <c r="D81" s="29" t="n"/>
-      <c r="E81" s="29" t="n"/>
+      <c r="A81" s="33" t="n"/>
+      <c r="B81" s="33" t="n"/>
+      <c r="C81" s="33" t="n"/>
+      <c r="D81" s="33" t="n"/>
+      <c r="E81" s="33" t="n"/>
+      <c r="F81" s="33" t="n"/>
     </row>
     <row r="82" spans="1:6">
-      <c r="A82" s="33" t="n"/>
+      <c r="C82" s="29" t="n"/>
+      <c r="D82" s="29" t="n"/>
+      <c r="E82" s="29" t="n"/>
     </row>
     <row r="83" spans="1:6">
-      <c r="A83" s="33" t="n"/>
-      <c r="B83" s="33" t="n"/>
-      <c r="C83" s="33" t="n"/>
-      <c r="D83" s="33" t="n"/>
-      <c r="E83" s="33" t="n"/>
-      <c r="F83" s="33" t="n"/>
+      <c r="C83" s="29" t="n"/>
+      <c r="D83" s="29" t="n"/>
+      <c r="E83" s="29" t="n"/>
     </row>
     <row r="84" spans="1:6">
       <c r="C84" s="29" t="n"/>
       <c r="D84" s="29" t="n"/>
+      <c r="E84" s="29" t="n"/>
     </row>
     <row r="85" spans="1:6">
       <c r="C85" s="29" t="n"/>
       <c r="D85" s="29" t="n"/>
+      <c r="E85" s="29" t="n"/>
     </row>
     <row r="86" spans="1:6">
-      <c r="C86" s="29" t="n"/>
-      <c r="D86" s="29" t="n"/>
+      <c r="A86" s="33" t="n"/>
     </row>
     <row r="87" spans="1:6">
-      <c r="C87" s="29" t="n"/>
-      <c r="D87" s="29" t="n"/>
+      <c r="A87" s="33" t="n"/>
+      <c r="B87" s="33" t="n"/>
+      <c r="C87" s="33" t="n"/>
+      <c r="D87" s="33" t="n"/>
+      <c r="E87" s="33" t="n"/>
+      <c r="F87" s="33" t="n"/>
     </row>
     <row r="88" spans="1:6">
       <c r="C88" s="29" t="n"/>
       <c r="D88" s="29" t="n"/>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="C89" s="29" t="n"/>
+      <c r="D89" s="29" t="n"/>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="C90" s="29" t="n"/>
+      <c r="D90" s="29" t="n"/>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="C91" s="29" t="n"/>
+      <c r="D91" s="29" t="n"/>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="C92" s="29" t="n"/>
+      <c r="D92" s="29" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9024,7 +9319,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="58" t="s">
-        <v>500</v>
+        <v>528</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="2" s="52" spans="1:6" thickBot="1"/>
@@ -9060,13 +9355,13 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="54" t="s">
-        <v>501</v>
+        <v>529</v>
       </c>
       <c r="B5" s="54" t="s">
-        <v>502</v>
+        <v>530</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>503</v>
+        <v>531</v>
       </c>
       <c r="D5" s="40" t="n"/>
       <c r="E5" s="54" t="n"/>
@@ -9074,13 +9369,13 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="55" t="s">
-        <v>501</v>
+        <v>529</v>
       </c>
       <c r="B6" s="55" t="s">
-        <v>502</v>
+        <v>530</v>
       </c>
       <c r="C6" s="41" t="s">
-        <v>504</v>
+        <v>532</v>
       </c>
       <c r="D6" s="41" t="n"/>
       <c r="E6" s="55" t="n"/>
@@ -9088,19 +9383,19 @@
     </row>
     <row customHeight="1" ht="15.75" r="7" s="52" spans="1:6" thickBot="1">
       <c r="A7" s="55" t="s">
-        <v>501</v>
+        <v>529</v>
       </c>
       <c r="B7" s="55" t="n"/>
       <c r="C7" s="41" t="n"/>
       <c r="D7" s="41" t="n"/>
       <c r="E7" s="55" t="n"/>
       <c r="F7" s="55" t="s">
-        <v>505</v>
+        <v>533</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="8" s="52" spans="1:6" thickBot="1">
       <c r="A8" s="9" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B8" s="17" t="n"/>
       <c r="C8" s="18" t="n"/>
@@ -9130,108 +9425,108 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="40" t="s">
-        <v>506</v>
+        <v>534</v>
       </c>
       <c r="B10" s="40" t="n"/>
       <c r="C10" s="40" t="n"/>
       <c r="D10" s="40" t="n"/>
       <c r="E10" s="54" t="n"/>
       <c r="F10" s="40" t="s">
-        <v>507</v>
+        <v>535</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="41" t="s">
-        <v>506</v>
+        <v>534</v>
       </c>
       <c r="B11" s="41" t="n"/>
       <c r="C11" s="41" t="s">
-        <v>508</v>
+        <v>536</v>
       </c>
       <c r="D11" s="41" t="n"/>
       <c r="E11" s="55" t="n"/>
       <c r="F11" s="41" t="s">
-        <v>509</v>
+        <v>537</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="41" t="s">
-        <v>506</v>
+        <v>534</v>
       </c>
       <c r="B12" s="41" t="s">
-        <v>510</v>
+        <v>538</v>
       </c>
       <c r="C12" s="41" t="s">
-        <v>511</v>
+        <v>539</v>
       </c>
       <c r="D12" s="41" t="n"/>
       <c r="E12" s="55" t="n"/>
       <c r="F12" s="41" t="s">
-        <v>507</v>
+        <v>535</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="41" t="s">
-        <v>512</v>
+        <v>540</v>
       </c>
       <c r="B13" s="41" t="s">
-        <v>513</v>
+        <v>541</v>
       </c>
       <c r="C13" s="41" t="s">
-        <v>514</v>
+        <v>542</v>
       </c>
       <c r="D13" s="41" t="n"/>
       <c r="E13" s="55" t="n"/>
       <c r="F13" s="41" t="s">
-        <v>515</v>
+        <v>543</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="41" t="s">
-        <v>512</v>
+        <v>540</v>
       </c>
       <c r="B14" s="41" t="s">
-        <v>516</v>
+        <v>544</v>
       </c>
       <c r="C14" s="41" t="n"/>
       <c r="D14" s="41" t="n"/>
       <c r="E14" s="55" t="n"/>
       <c r="F14" s="41" t="s">
-        <v>517</v>
+        <v>545</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="41" t="s">
-        <v>506</v>
+        <v>534</v>
       </c>
       <c r="B15" s="41" t="n"/>
       <c r="C15" s="55" t="n"/>
       <c r="D15" s="55" t="n"/>
       <c r="E15" s="55" t="n"/>
       <c r="F15" s="41" t="s">
-        <v>509</v>
+        <v>537</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="41" t="s">
-        <v>512</v>
+        <v>540</v>
       </c>
       <c r="B16" s="41" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="C16" s="36" t="n"/>
       <c r="D16" s="36" t="n"/>
       <c r="E16" s="36" t="n"/>
       <c r="F16" s="41" t="s">
-        <v>518</v>
+        <v>546</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="41" t="s">
-        <v>512</v>
+        <v>540</v>
       </c>
       <c r="B17" s="41" t="s">
-        <v>519</v>
+        <v>547</v>
       </c>
       <c r="C17" s="41" t="n">
         <v>6356048</v>
@@ -9239,28 +9534,28 @@
       <c r="D17" s="41" t="n"/>
       <c r="E17" s="55" t="n"/>
       <c r="F17" s="41" t="s">
-        <v>520</v>
+        <v>548</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="18" s="52" spans="1:6" thickBot="1">
       <c r="A18" s="53" t="s">
-        <v>521</v>
+        <v>549</v>
       </c>
       <c r="B18" s="53" t="s">
-        <v>522</v>
+        <v>550</v>
       </c>
       <c r="C18" s="53" t="s">
-        <v>523</v>
+        <v>551</v>
       </c>
       <c r="D18" s="53" t="n"/>
       <c r="E18" s="56" t="n"/>
       <c r="F18" s="53" t="s">
-        <v>524</v>
+        <v>552</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="19" s="52" spans="1:6" thickBot="1">
       <c r="A19" s="24" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B19" s="25" t="n"/>
       <c r="C19" s="26" t="n"/>
@@ -9290,13 +9585,13 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="54" t="s">
-        <v>521</v>
+        <v>549</v>
       </c>
       <c r="B21" s="54" t="s">
-        <v>502</v>
+        <v>530</v>
       </c>
       <c r="C21" s="40" t="s">
-        <v>525</v>
+        <v>553</v>
       </c>
       <c r="D21" s="40" t="n">
         <v>20508044</v>
@@ -9306,13 +9601,13 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="55" t="s">
-        <v>521</v>
+        <v>549</v>
       </c>
       <c r="B22" s="55" t="s">
-        <v>502</v>
+        <v>530</v>
       </c>
       <c r="C22" s="41" t="s">
-        <v>526</v>
+        <v>554</v>
       </c>
       <c r="D22" s="41" t="n"/>
       <c r="E22" s="55" t="n"/>
@@ -9320,13 +9615,13 @@
     </row>
     <row customHeight="1" ht="15.75" r="23" s="52" spans="1:6" thickBot="1">
       <c r="A23" s="55" t="s">
-        <v>521</v>
+        <v>549</v>
       </c>
       <c r="B23" s="55" t="s">
-        <v>502</v>
+        <v>530</v>
       </c>
       <c r="C23" s="41" t="s">
-        <v>527</v>
+        <v>555</v>
       </c>
       <c r="D23" s="41" t="n"/>
       <c r="E23" s="55" t="n"/>
@@ -9334,7 +9629,7 @@
     </row>
     <row customHeight="1" ht="15.75" r="24" s="52" spans="1:6" thickBot="1">
       <c r="A24" s="9" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B24" s="17" t="n"/>
       <c r="C24" s="18" t="n"/>
@@ -9364,13 +9659,13 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="54" t="s">
-        <v>528</v>
+        <v>556</v>
       </c>
       <c r="B26" s="40" t="s">
-        <v>502</v>
+        <v>530</v>
       </c>
       <c r="C26" s="54" t="s">
-        <v>529</v>
+        <v>557</v>
       </c>
       <c r="D26" s="40" t="n">
         <v>40726083</v>
@@ -9380,13 +9675,13 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="41" t="s">
-        <v>530</v>
+        <v>558</v>
       </c>
       <c r="B27" s="41" t="s">
-        <v>531</v>
+        <v>559</v>
       </c>
       <c r="C27" s="55" t="s">
-        <v>532</v>
+        <v>560</v>
       </c>
       <c r="D27" s="41" t="n"/>
       <c r="E27" s="55" t="n"/>
@@ -9394,13 +9689,13 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="41" t="s">
-        <v>533</v>
+        <v>561</v>
       </c>
       <c r="B28" s="41" t="s">
-        <v>502</v>
+        <v>530</v>
       </c>
       <c r="C28" s="55" t="s">
-        <v>534</v>
+        <v>562</v>
       </c>
       <c r="D28" s="41" t="n"/>
       <c r="E28" s="36" t="n"/>
@@ -9408,31 +9703,31 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="41" t="s">
+        <v>558</v>
+      </c>
+      <c r="B29" s="41" t="s">
         <v>530</v>
       </c>
-      <c r="B29" s="41" t="s">
-        <v>502</v>
-      </c>
       <c r="C29" s="55" t="s">
-        <v>535</v>
+        <v>563</v>
       </c>
       <c r="D29" s="41" t="n">
         <v>41127143</v>
       </c>
       <c r="E29" s="36" t="n"/>
       <c r="F29" s="41" t="s">
-        <v>536</v>
+        <v>564</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="41" t="s">
+        <v>558</v>
+      </c>
+      <c r="B30" s="41" t="s">
         <v>530</v>
       </c>
-      <c r="B30" s="41" t="s">
-        <v>502</v>
-      </c>
       <c r="C30" s="55" t="s">
-        <v>537</v>
+        <v>565</v>
       </c>
       <c r="D30" s="41" t="n"/>
       <c r="E30" s="55" t="n"/>
@@ -9440,13 +9735,13 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="41" t="s">
-        <v>533</v>
+        <v>561</v>
       </c>
       <c r="B31" s="41" t="s">
-        <v>502</v>
+        <v>530</v>
       </c>
       <c r="C31" s="55" t="s">
-        <v>538</v>
+        <v>566</v>
       </c>
       <c r="D31" s="41" t="n"/>
       <c r="E31" s="55" t="n"/>
@@ -9454,13 +9749,13 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="41" t="s">
-        <v>533</v>
+        <v>561</v>
       </c>
       <c r="B32" s="41" t="s">
-        <v>502</v>
+        <v>530</v>
       </c>
       <c r="C32" s="55" t="s">
-        <v>539</v>
+        <v>567</v>
       </c>
       <c r="D32" s="41" t="n"/>
       <c r="E32" s="55" t="n"/>
@@ -9468,13 +9763,13 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="41" t="s">
+        <v>558</v>
+      </c>
+      <c r="B33" s="41" t="s">
         <v>530</v>
       </c>
-      <c r="B33" s="41" t="s">
-        <v>502</v>
-      </c>
       <c r="C33" s="55" t="s">
-        <v>540</v>
+        <v>568</v>
       </c>
       <c r="D33" s="41" t="n"/>
       <c r="E33" s="55" t="n"/>
@@ -9482,13 +9777,13 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="41" t="s">
+        <v>558</v>
+      </c>
+      <c r="B34" s="41" t="s">
         <v>530</v>
       </c>
-      <c r="B34" s="41" t="s">
-        <v>502</v>
-      </c>
       <c r="C34" s="55" t="s">
-        <v>541</v>
+        <v>569</v>
       </c>
       <c r="D34" s="41" t="n"/>
       <c r="E34" s="55" t="n"/>
@@ -9496,13 +9791,13 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="41" t="s">
-        <v>530</v>
+        <v>558</v>
       </c>
       <c r="B35" s="41" t="s">
-        <v>381</v>
+        <v>403</v>
       </c>
       <c r="C35" s="55" t="s">
-        <v>542</v>
+        <v>570</v>
       </c>
       <c r="D35" s="41" t="n"/>
       <c r="E35" s="55" t="n"/>
@@ -9510,13 +9805,13 @@
     </row>
     <row customHeight="1" ht="15.75" r="36" s="52" spans="1:6" thickBot="1">
       <c r="A36" s="53" t="s">
-        <v>533</v>
+        <v>561</v>
       </c>
       <c r="B36" s="53" t="s">
-        <v>381</v>
+        <v>403</v>
       </c>
       <c r="C36" s="56" t="s">
-        <v>543</v>
+        <v>571</v>
       </c>
       <c r="D36" s="53" t="n"/>
       <c r="E36" s="56" t="n"/>
@@ -9524,7 +9819,7 @@
     </row>
     <row customHeight="1" ht="15.75" r="37" s="52" spans="1:6" thickBot="1">
       <c r="A37" s="24" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="B37" s="25" t="n"/>
       <c r="C37" s="26" t="n"/>
@@ -9554,13 +9849,13 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="54" t="s">
-        <v>521</v>
+        <v>549</v>
       </c>
       <c r="B39" s="40" t="s">
-        <v>502</v>
+        <v>530</v>
       </c>
       <c r="C39" s="40" t="s">
-        <v>544</v>
+        <v>572</v>
       </c>
       <c r="D39" s="54" t="n"/>
       <c r="E39" s="54" t="n"/>
@@ -9568,13 +9863,13 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="55" t="s">
-        <v>521</v>
+        <v>549</v>
       </c>
       <c r="B40" s="41" t="s">
-        <v>502</v>
+        <v>530</v>
       </c>
       <c r="C40" s="41" t="s">
-        <v>545</v>
+        <v>573</v>
       </c>
       <c r="D40" s="55" t="n"/>
       <c r="E40" s="55" t="n"/>
@@ -9582,13 +9877,13 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="55" t="s">
-        <v>546</v>
+        <v>574</v>
       </c>
       <c r="B41" s="41" t="s">
-        <v>502</v>
+        <v>530</v>
       </c>
       <c r="C41" s="41" t="s">
-        <v>547</v>
+        <v>575</v>
       </c>
       <c r="D41" s="36" t="n"/>
       <c r="E41" s="36" t="n"/>
@@ -9596,13 +9891,13 @@
     </row>
     <row customHeight="1" ht="15.75" r="42" s="52" spans="1:6" thickBot="1">
       <c r="A42" s="56" t="s">
-        <v>521</v>
+        <v>549</v>
       </c>
       <c r="B42" s="53" t="s">
-        <v>502</v>
+        <v>530</v>
       </c>
       <c r="C42" s="53" t="s">
-        <v>548</v>
+        <v>576</v>
       </c>
       <c r="D42" s="56" t="n"/>
       <c r="E42" s="56" t="n"/>
@@ -9610,7 +9905,7 @@
     </row>
     <row customHeight="1" ht="15.75" r="43" s="52" spans="1:6" thickBot="1">
       <c r="A43" s="24" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="B43" s="25" t="n"/>
       <c r="C43" s="26" t="n"/>
@@ -9640,13 +9935,13 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="40" t="s">
-        <v>521</v>
+        <v>549</v>
       </c>
       <c r="B45" s="40" t="s">
-        <v>549</v>
+        <v>577</v>
       </c>
       <c r="C45" s="40" t="s">
-        <v>550</v>
+        <v>578</v>
       </c>
       <c r="D45" s="40" t="n">
         <v>2206375</v>
@@ -9656,13 +9951,13 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="41" t="s">
-        <v>521</v>
+        <v>549</v>
       </c>
       <c r="B46" s="41" t="s">
-        <v>551</v>
+        <v>579</v>
       </c>
       <c r="C46" s="41" t="s">
-        <v>552</v>
+        <v>580</v>
       </c>
       <c r="D46" s="41" t="n">
         <v>20530237</v>
@@ -9672,13 +9967,13 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="41" t="s">
-        <v>521</v>
+        <v>549</v>
       </c>
       <c r="B47" s="41" t="s">
-        <v>551</v>
+        <v>579</v>
       </c>
       <c r="C47" s="41" t="s">
-        <v>553</v>
+        <v>581</v>
       </c>
       <c r="D47" s="41" t="n"/>
       <c r="E47" s="55" t="n"/>
@@ -9686,13 +9981,13 @@
     </row>
     <row customHeight="1" ht="15.75" r="48" s="52" spans="1:6" thickBot="1">
       <c r="A48" s="53" t="s">
-        <v>521</v>
+        <v>549</v>
       </c>
       <c r="B48" s="53" t="s">
-        <v>551</v>
+        <v>579</v>
       </c>
       <c r="C48" s="53" t="s">
-        <v>553</v>
+        <v>581</v>
       </c>
       <c r="D48" s="53" t="n">
         <v>20492096</v>
@@ -9702,7 +9997,7 @@
     </row>
     <row customHeight="1" ht="15.75" r="49" s="52" spans="1:6" thickBot="1">
       <c r="A49" s="24" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="B49" s="25" t="n"/>
       <c r="C49" s="26" t="n"/>
@@ -9732,13 +10027,13 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="54" t="s">
-        <v>554</v>
+        <v>582</v>
       </c>
       <c r="B51" s="54" t="s">
-        <v>555</v>
+        <v>583</v>
       </c>
       <c r="C51" s="40" t="s">
-        <v>556</v>
+        <v>584</v>
       </c>
       <c r="D51" s="21" t="n"/>
       <c r="E51" s="54" t="n"/>
@@ -9746,13 +10041,13 @@
     </row>
     <row customHeight="1" ht="15.75" r="52" s="52" spans="1:6" thickBot="1">
       <c r="A52" s="55" t="s">
-        <v>557</v>
+        <v>585</v>
       </c>
       <c r="B52" s="55" t="s">
-        <v>551</v>
+        <v>579</v>
       </c>
       <c r="C52" s="41" t="s">
-        <v>558</v>
+        <v>586</v>
       </c>
       <c r="D52" s="22" t="n"/>
       <c r="E52" s="55" t="n"/>
@@ -9760,7 +10055,7 @@
     </row>
     <row customHeight="1" ht="15.75" r="53" s="52" spans="1:6" thickBot="1">
       <c r="A53" s="9" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="B53" s="17" t="n"/>
       <c r="C53" s="18" t="n"/>
@@ -9790,29 +10085,29 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="40" t="s">
-        <v>559</v>
+        <v>587</v>
       </c>
       <c r="B55" s="54" t="s">
-        <v>551</v>
+        <v>579</v>
       </c>
       <c r="C55" s="40" t="s">
-        <v>560</v>
+        <v>588</v>
       </c>
       <c r="D55" s="40" t="n"/>
       <c r="E55" s="40" t="n"/>
       <c r="F55" s="54" t="s">
-        <v>561</v>
+        <v>589</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="41" t="s">
-        <v>559</v>
+        <v>587</v>
       </c>
       <c r="B56" s="55" t="s">
-        <v>551</v>
+        <v>579</v>
       </c>
       <c r="C56" s="41" t="s">
-        <v>562</v>
+        <v>590</v>
       </c>
       <c r="D56" s="41" t="n"/>
       <c r="E56" s="41" t="n"/>
@@ -9820,29 +10115,29 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="41" t="s">
-        <v>559</v>
+        <v>587</v>
       </c>
       <c r="B57" s="55" t="s">
-        <v>563</v>
+        <v>591</v>
       </c>
       <c r="C57" s="41" t="s">
-        <v>564</v>
+        <v>592</v>
       </c>
       <c r="D57" s="41" t="n"/>
       <c r="E57" s="41" t="n"/>
       <c r="F57" s="55" t="s">
-        <v>565</v>
+        <v>593</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="41" t="s">
-        <v>559</v>
+        <v>587</v>
       </c>
       <c r="B58" s="55" t="s">
-        <v>551</v>
+        <v>579</v>
       </c>
       <c r="C58" s="41" t="s">
-        <v>566</v>
+        <v>594</v>
       </c>
       <c r="D58" s="41" t="n"/>
       <c r="E58" s="41" t="n"/>
@@ -9850,13 +10145,13 @@
     </row>
     <row customHeight="1" ht="15.75" r="59" s="52" spans="1:6" thickBot="1">
       <c r="A59" s="53" t="s">
-        <v>559</v>
+        <v>587</v>
       </c>
       <c r="B59" s="56" t="s">
-        <v>567</v>
+        <v>595</v>
       </c>
       <c r="C59" s="53" t="s">
-        <v>568</v>
+        <v>596</v>
       </c>
       <c r="D59" s="56" t="n"/>
       <c r="E59" s="56" t="n"/>
@@ -9864,7 +10159,7 @@
     </row>
     <row customHeight="1" ht="15.75" r="60" s="52" spans="1:6" thickBot="1">
       <c r="A60" s="24" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="B60" s="25" t="n"/>
       <c r="C60" s="26" t="n"/>
@@ -9894,13 +10189,13 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="54" t="s">
-        <v>559</v>
+        <v>587</v>
       </c>
       <c r="B62" s="54" t="s">
-        <v>551</v>
+        <v>579</v>
       </c>
       <c r="C62" s="40" t="s">
-        <v>569</v>
+        <v>597</v>
       </c>
       <c r="D62" s="40" t="n"/>
       <c r="E62" s="54" t="n"/>
@@ -9908,13 +10203,13 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="55" t="s">
-        <v>559</v>
+        <v>587</v>
       </c>
       <c r="B63" s="55" t="s">
-        <v>551</v>
+        <v>579</v>
       </c>
       <c r="C63" s="41" t="s">
-        <v>570</v>
+        <v>598</v>
       </c>
       <c r="D63" s="41" t="n"/>
       <c r="E63" s="55" t="n"/>
@@ -9922,13 +10217,13 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="55" t="s">
-        <v>559</v>
+        <v>587</v>
       </c>
       <c r="B64" s="55" t="s">
-        <v>551</v>
+        <v>579</v>
       </c>
       <c r="C64" s="41" t="s">
-        <v>571</v>
+        <v>599</v>
       </c>
       <c r="D64" s="41" t="n"/>
       <c r="E64" s="55" t="n"/>
@@ -9936,13 +10231,13 @@
     </row>
     <row customHeight="1" ht="15.75" r="65" s="52" spans="1:6" thickBot="1">
       <c r="A65" s="56" t="s">
-        <v>559</v>
+        <v>587</v>
       </c>
       <c r="B65" s="56" t="s">
-        <v>551</v>
+        <v>579</v>
       </c>
       <c r="C65" s="53" t="s">
-        <v>572</v>
+        <v>600</v>
       </c>
       <c r="D65" s="53" t="n">
         <v>20493517</v>
@@ -10062,7 +10357,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="58" t="s">
-        <v>573</v>
+        <v>601</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="2" s="52" spans="1:6" thickBot="1"/>
@@ -10098,24 +10393,24 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="54" t="s">
-        <v>574</v>
+        <v>602</v>
       </c>
       <c r="B5" s="54" t="s">
-        <v>575</v>
+        <v>603</v>
       </c>
       <c r="C5" s="40" t="n"/>
       <c r="D5" s="40" t="n"/>
       <c r="E5" s="54" t="n"/>
       <c r="F5" s="54" t="s">
-        <v>576</v>
+        <v>604</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="55" t="s">
-        <v>577</v>
+        <v>605</v>
       </c>
       <c r="B6" s="55" t="s">
-        <v>578</v>
+        <v>606</v>
       </c>
       <c r="C6" s="41" t="n">
         <v>228011</v>
@@ -10126,13 +10421,13 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="55" t="s">
-        <v>577</v>
+        <v>605</v>
       </c>
       <c r="B7" s="55" t="s">
-        <v>579</v>
+        <v>607</v>
       </c>
       <c r="C7" s="41" t="s">
-        <v>580</v>
+        <v>608</v>
       </c>
       <c r="D7" s="41" t="n"/>
       <c r="E7" s="55" t="n"/>
@@ -10140,13 +10435,13 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="55" t="s">
-        <v>577</v>
+        <v>605</v>
       </c>
       <c r="B8" s="55" t="s">
-        <v>581</v>
+        <v>609</v>
       </c>
       <c r="C8" s="41" t="s">
-        <v>582</v>
+        <v>610</v>
       </c>
       <c r="D8" s="41" t="n"/>
       <c r="E8" s="55" t="n"/>
@@ -10154,10 +10449,10 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="55" t="s">
-        <v>577</v>
+        <v>605</v>
       </c>
       <c r="B9" s="55" t="s">
-        <v>578</v>
+        <v>606</v>
       </c>
       <c r="C9" s="41" t="n">
         <v>228111</v>
@@ -10168,27 +10463,27 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="55" t="s">
-        <v>583</v>
+        <v>611</v>
       </c>
       <c r="B10" s="55" t="n"/>
       <c r="C10" s="41" t="s">
-        <v>584</v>
+        <v>612</v>
       </c>
       <c r="D10" s="41" t="n"/>
       <c r="E10" s="55" t="n"/>
       <c r="F10" s="55" t="s">
-        <v>585</v>
+        <v>613</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="11" s="52" spans="1:6" thickBot="1">
       <c r="A11" s="53" t="s">
-        <v>577</v>
+        <v>605</v>
       </c>
       <c r="B11" s="56" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C11" s="56" t="s">
-        <v>586</v>
+        <v>614</v>
       </c>
       <c r="D11" s="56" t="n"/>
       <c r="E11" s="56" t="n"/>
@@ -10196,7 +10491,7 @@
     </row>
     <row customHeight="1" ht="15.75" r="12" s="52" spans="1:6" thickBot="1">
       <c r="A12" s="24" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B12" s="25" t="n"/>
       <c r="C12" s="26" t="n"/>
@@ -10226,13 +10521,13 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="40" t="s">
-        <v>587</v>
+        <v>615</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>588</v>
+        <v>616</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>589</v>
+        <v>617</v>
       </c>
       <c r="D14" s="48" t="n"/>
       <c r="E14" s="48" t="n"/>
@@ -10240,45 +10535,45 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="41" t="s">
-        <v>590</v>
+        <v>618</v>
       </c>
       <c r="B15" s="41" t="s">
-        <v>591</v>
+        <v>619</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>592</v>
+        <v>620</v>
       </c>
       <c r="D15" s="41" t="n"/>
       <c r="E15" s="55" t="n"/>
       <c r="F15" s="41" t="s">
-        <v>593</v>
+        <v>621</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="41" t="s">
-        <v>590</v>
+        <v>618</v>
       </c>
       <c r="B16" s="41" t="s">
-        <v>591</v>
+        <v>619</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>594</v>
+        <v>622</v>
       </c>
       <c r="D16" s="41" t="n"/>
       <c r="E16" s="55" t="n"/>
       <c r="F16" s="41" t="s">
-        <v>595</v>
+        <v>623</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="41" t="s">
-        <v>587</v>
+        <v>615</v>
       </c>
       <c r="B17" s="41" t="s">
-        <v>588</v>
+        <v>616</v>
       </c>
       <c r="C17" s="41" t="s">
-        <v>596</v>
+        <v>624</v>
       </c>
       <c r="D17" s="41" t="n"/>
       <c r="E17" s="55" t="n"/>
@@ -10286,77 +10581,77 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="41" t="s">
-        <v>597</v>
+        <v>625</v>
       </c>
       <c r="B18" s="41" t="s">
-        <v>588</v>
+        <v>616</v>
       </c>
       <c r="C18" s="41" t="s">
-        <v>598</v>
+        <v>626</v>
       </c>
       <c r="D18" s="41" t="n"/>
       <c r="E18" s="55" t="n"/>
       <c r="F18" s="41" t="s">
-        <v>599</v>
+        <v>627</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="41" t="s">
-        <v>597</v>
+        <v>625</v>
       </c>
       <c r="B19" s="41" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C19" s="41" t="s">
-        <v>600</v>
+        <v>628</v>
       </c>
       <c r="D19" s="41" t="n"/>
       <c r="E19" s="55" t="n"/>
       <c r="F19" s="41" t="s">
-        <v>599</v>
+        <v>627</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="41" t="s">
-        <v>597</v>
+        <v>625</v>
       </c>
       <c r="B20" s="41" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C20" s="41" t="s">
-        <v>601</v>
+        <v>629</v>
       </c>
       <c r="D20" s="55" t="n"/>
       <c r="E20" s="55" t="n"/>
       <c r="F20" s="41" t="s">
-        <v>602</v>
+        <v>630</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="41" t="s">
-        <v>597</v>
+        <v>625</v>
       </c>
       <c r="B21" s="41" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C21" s="41" t="s">
-        <v>603</v>
+        <v>631</v>
       </c>
       <c r="D21" s="36" t="n"/>
       <c r="E21" s="36" t="n"/>
       <c r="F21" s="41" t="s">
-        <v>604</v>
+        <v>632</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="41" t="s">
-        <v>605</v>
+        <v>633</v>
       </c>
       <c r="B22" s="41" t="s">
-        <v>606</v>
+        <v>634</v>
       </c>
       <c r="C22" s="41" t="s">
-        <v>607</v>
+        <v>635</v>
       </c>
       <c r="D22" s="41" t="n"/>
       <c r="E22" s="55" t="n"/>
@@ -10364,13 +10659,13 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="41" t="s">
-        <v>597</v>
+        <v>625</v>
       </c>
       <c r="B23" s="41" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C23" s="41" t="s">
-        <v>608</v>
+        <v>636</v>
       </c>
       <c r="D23" s="55" t="n"/>
       <c r="E23" s="55" t="n"/>
@@ -10378,10 +10673,10 @@
     </row>
     <row customHeight="1" ht="15.75" r="24" s="52" spans="1:6" thickBot="1">
       <c r="A24" s="53" t="s">
-        <v>609</v>
+        <v>637</v>
       </c>
       <c r="B24" s="53" t="s">
-        <v>610</v>
+        <v>638</v>
       </c>
       <c r="C24" s="53" t="n">
         <v>110051</v>
@@ -10392,7 +10687,7 @@
     </row>
     <row customHeight="1" ht="15.75" r="25" s="52" spans="1:6" thickBot="1">
       <c r="A25" s="24" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B25" s="25" t="n"/>
       <c r="C25" s="26" t="n"/>
@@ -10422,7 +10717,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="40" t="s">
-        <v>521</v>
+        <v>549</v>
       </c>
       <c r="B27" s="40" t="n"/>
       <c r="C27" s="40" t="n">
@@ -10431,12 +10726,12 @@
       <c r="D27" s="40" t="n"/>
       <c r="E27" s="54" t="n"/>
       <c r="F27" s="54" t="s">
-        <v>611</v>
+        <v>639</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="41" t="s">
-        <v>521</v>
+        <v>549</v>
       </c>
       <c r="B28" s="41" t="n"/>
       <c r="C28" s="41" t="n">
@@ -10445,18 +10740,18 @@
       <c r="D28" s="41" t="n"/>
       <c r="E28" s="55" t="n"/>
       <c r="F28" s="55" t="s">
-        <v>611</v>
+        <v>639</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="41" t="s">
-        <v>380</v>
+        <v>402</v>
       </c>
       <c r="B29" s="41" t="s">
-        <v>404</v>
+        <v>426</v>
       </c>
       <c r="C29" s="41" t="s">
-        <v>612</v>
+        <v>640</v>
       </c>
       <c r="D29" s="41" t="n"/>
       <c r="E29" s="55" t="n"/>
@@ -10464,29 +10759,29 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="41" t="s">
-        <v>521</v>
+        <v>549</v>
       </c>
       <c r="B30" s="41" t="s">
-        <v>613</v>
+        <v>641</v>
       </c>
       <c r="C30" s="41" t="s">
-        <v>614</v>
+        <v>642</v>
       </c>
       <c r="D30" s="41" t="n"/>
       <c r="E30" s="55" t="n"/>
       <c r="F30" s="55" t="s">
-        <v>611</v>
+        <v>639</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="41" t="s">
-        <v>521</v>
+        <v>549</v>
       </c>
       <c r="B31" s="41" t="s">
-        <v>615</v>
+        <v>643</v>
       </c>
       <c r="C31" s="41" t="s">
-        <v>616</v>
+        <v>644</v>
       </c>
       <c r="D31" s="41" t="n">
         <v>40525991</v>
@@ -10496,29 +10791,29 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="41" t="s">
-        <v>380</v>
+        <v>402</v>
       </c>
       <c r="B32" s="41" t="s">
-        <v>617</v>
+        <v>645</v>
       </c>
       <c r="C32" s="41" t="s">
-        <v>618</v>
+        <v>646</v>
       </c>
       <c r="D32" s="41" t="n"/>
       <c r="E32" s="55" t="n"/>
       <c r="F32" s="55" t="s">
-        <v>611</v>
+        <v>639</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="41" t="s">
-        <v>380</v>
+        <v>402</v>
       </c>
       <c r="B33" s="41" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="C33" s="41" t="s">
-        <v>619</v>
+        <v>647</v>
       </c>
       <c r="D33" s="38" t="n"/>
       <c r="E33" s="36" t="n"/>
@@ -10526,13 +10821,13 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="41" t="s">
-        <v>380</v>
+        <v>402</v>
       </c>
       <c r="B34" s="41" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="C34" s="41" t="s">
-        <v>620</v>
+        <v>648</v>
       </c>
       <c r="D34" s="41" t="n"/>
       <c r="E34" s="55" t="n"/>
@@ -10540,13 +10835,13 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="41" t="s">
-        <v>380</v>
+        <v>402</v>
       </c>
       <c r="B35" s="41" t="s">
-        <v>381</v>
+        <v>403</v>
       </c>
       <c r="C35" s="41" t="s">
-        <v>621</v>
+        <v>649</v>
       </c>
       <c r="D35" s="41" t="n"/>
       <c r="E35" s="55" t="n"/>
@@ -10554,13 +10849,13 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="41" t="s">
-        <v>622</v>
+        <v>650</v>
       </c>
       <c r="B36" s="41" t="s">
-        <v>623</v>
+        <v>651</v>
       </c>
       <c r="C36" s="41" t="s">
-        <v>624</v>
+        <v>652</v>
       </c>
       <c r="D36" s="41" t="n"/>
       <c r="E36" s="55" t="n"/>
@@ -10568,13 +10863,13 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="41" t="s">
-        <v>380</v>
+        <v>402</v>
       </c>
       <c r="B37" s="41" t="s">
-        <v>404</v>
+        <v>426</v>
       </c>
       <c r="C37" s="41" t="s">
-        <v>612</v>
+        <v>640</v>
       </c>
       <c r="D37" s="41" t="n"/>
       <c r="E37" s="55" t="n"/>
@@ -10582,13 +10877,13 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="41" t="s">
-        <v>380</v>
+        <v>402</v>
       </c>
       <c r="B38" s="41" t="s">
-        <v>625</v>
+        <v>653</v>
       </c>
       <c r="C38" s="41" t="s">
-        <v>626</v>
+        <v>654</v>
       </c>
       <c r="D38" s="41" t="n">
         <v>20404654</v>
@@ -10598,13 +10893,13 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="41" t="s">
-        <v>380</v>
+        <v>402</v>
       </c>
       <c r="B39" s="41" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="C39" s="41" t="s">
-        <v>627</v>
+        <v>655</v>
       </c>
       <c r="D39" s="38" t="n"/>
       <c r="E39" s="36" t="n"/>
@@ -10612,13 +10907,13 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="41" t="s">
-        <v>521</v>
+        <v>549</v>
       </c>
       <c r="B40" s="41" t="s">
-        <v>628</v>
+        <v>656</v>
       </c>
       <c r="C40" s="41" t="s">
-        <v>629</v>
+        <v>657</v>
       </c>
       <c r="D40" s="41" t="n"/>
       <c r="E40" s="55" t="n"/>
@@ -10626,13 +10921,13 @@
     </row>
     <row customHeight="1" ht="15.75" r="41" s="52" spans="1:6" thickBot="1">
       <c r="A41" s="41" t="s">
-        <v>630</v>
+        <v>658</v>
       </c>
       <c r="B41" s="41" t="s">
-        <v>623</v>
+        <v>651</v>
       </c>
       <c r="C41" s="41" t="s">
-        <v>631</v>
+        <v>659</v>
       </c>
       <c r="D41" s="41" t="n"/>
       <c r="E41" s="55" t="n"/>
@@ -10640,7 +10935,7 @@
     </row>
     <row customHeight="1" ht="15.75" r="42" s="52" spans="1:6" thickBot="1">
       <c r="A42" s="9" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B42" s="17" t="n"/>
       <c r="C42" s="18" t="n"/>
@@ -10670,13 +10965,13 @@
     </row>
     <row customHeight="1" ht="15.75" r="44" s="52" spans="1:6" thickBot="1">
       <c r="A44" s="51" t="s">
-        <v>632</v>
+        <v>660</v>
       </c>
       <c r="B44" s="51" t="s">
-        <v>633</v>
+        <v>661</v>
       </c>
       <c r="C44" s="57" t="s">
-        <v>634</v>
+        <v>662</v>
       </c>
       <c r="D44" s="57" t="n">
         <v>40753876</v>
@@ -10686,7 +10981,7 @@
     </row>
     <row customHeight="1" ht="15.75" r="45" s="52" spans="1:6" thickBot="1">
       <c r="A45" s="24" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="B45" s="25" t="n"/>
       <c r="C45" s="26" t="n"/>
@@ -10716,13 +11011,13 @@
     </row>
     <row customHeight="1" ht="15.75" r="47" s="52" spans="1:6" thickBot="1">
       <c r="A47" s="55" t="s">
-        <v>635</v>
+        <v>663</v>
       </c>
       <c r="B47" s="55" t="s">
-        <v>636</v>
+        <v>664</v>
       </c>
       <c r="C47" s="55" t="s">
-        <v>637</v>
+        <v>665</v>
       </c>
       <c r="D47" s="41" t="n"/>
       <c r="E47" s="55" t="n"/>
@@ -10730,7 +11025,7 @@
     </row>
     <row customHeight="1" ht="15.75" r="48" s="52" spans="1:6" thickBot="1">
       <c r="A48" s="9" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="B48" s="17" t="n"/>
       <c r="C48" s="18" t="n"/>
@@ -10768,7 +11063,7 @@
     </row>
     <row customHeight="1" ht="15.75" r="51" s="52" spans="1:6" thickBot="1">
       <c r="A51" s="24" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="B51" s="25" t="n"/>
       <c r="C51" s="26" t="n"/>
@@ -10806,7 +11101,7 @@
     </row>
     <row customHeight="1" ht="15.75" r="54" s="52" spans="1:6" thickBot="1">
       <c r="A54" s="24" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="B54" s="25" t="n"/>
       <c r="C54" s="26" t="n"/>
@@ -10844,7 +11139,7 @@
     </row>
     <row customHeight="1" ht="15.75" r="57" s="52" spans="1:6" thickBot="1">
       <c r="A57" s="9" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="B57" s="17" t="n"/>
       <c r="C57" s="18" t="n"/>
@@ -10874,47 +11169,47 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="40" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="B59" s="40" t="s">
-        <v>638</v>
+        <v>666</v>
       </c>
       <c r="C59" s="54" t="s">
-        <v>639</v>
+        <v>667</v>
       </c>
       <c r="D59" s="40" t="n">
         <v>40528338</v>
       </c>
       <c r="E59" s="54" t="n"/>
       <c r="F59" s="40" t="s">
-        <v>518</v>
+        <v>546</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="41" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="B60" s="41" t="s">
-        <v>640</v>
+        <v>668</v>
       </c>
       <c r="C60" s="55" t="s">
-        <v>641</v>
+        <v>669</v>
       </c>
       <c r="D60" s="41" t="n"/>
       <c r="E60" s="55" t="n"/>
       <c r="F60" s="41" t="s">
-        <v>642</v>
+        <v>670</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="41" t="s">
-        <v>643</v>
+        <v>671</v>
       </c>
       <c r="B61" s="41" t="s">
-        <v>638</v>
+        <v>666</v>
       </c>
       <c r="C61" s="55" t="s">
-        <v>644</v>
+        <v>672</v>
       </c>
       <c r="D61" s="41" t="n"/>
       <c r="E61" s="55" t="n"/>
@@ -10922,13 +11217,13 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="41" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="B62" s="41" t="s">
-        <v>638</v>
+        <v>666</v>
       </c>
       <c r="C62" s="55" t="s">
-        <v>645</v>
+        <v>673</v>
       </c>
       <c r="D62" s="41" t="n">
         <v>41181778</v>
@@ -10938,31 +11233,31 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="41" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="B63" s="41" t="s">
-        <v>638</v>
+        <v>666</v>
       </c>
       <c r="C63" s="55" t="s">
-        <v>646</v>
+        <v>674</v>
       </c>
       <c r="D63" s="41" t="n">
         <v>40528355</v>
       </c>
       <c r="E63" s="55" t="n"/>
       <c r="F63" s="41" t="s">
-        <v>647</v>
+        <v>675</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="64" s="52" spans="1:6" thickBot="1">
       <c r="A64" s="53" t="s">
-        <v>648</v>
+        <v>676</v>
       </c>
       <c r="B64" s="53" t="s">
-        <v>640</v>
+        <v>668</v>
       </c>
       <c r="C64" s="56" t="s">
-        <v>649</v>
+        <v>677</v>
       </c>
       <c r="D64" s="53" t="n"/>
       <c r="E64" s="56" t="n"/>

--- a/Parts_list.xlsx
+++ b/Parts_list.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="626">
   <si>
     <t>LOCKER A</t>
   </si>
@@ -47,6 +47,24 @@
     <t>Description</t>
   </si>
   <si>
+    <t>Itm</t>
+  </si>
+  <si>
+    <t>PART</t>
+  </si>
+  <si>
+    <t>TYPE</t>
+  </si>
+  <si>
+    <t>Disc</t>
+  </si>
+  <si>
+    <t>It</t>
+  </si>
+  <si>
+    <t>Bnd</t>
+  </si>
+  <si>
     <t>Test 7</t>
   </si>
   <si>
@@ -972,9 +990,6 @@
   </si>
   <si>
     <t>KLJNAFLJS</t>
-  </si>
-  <si>
-    <t>Disc</t>
   </si>
   <si>
     <t>Flow Sensor</t>
@@ -2514,7 +2529,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F75"/>
+  <dimension ref="A1:F77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M15" sqref="M15"/>
@@ -2570,29 +2585,45 @@
       <c r="A5" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="37" t="n"/>
-      <c r="C5" s="37" t="n"/>
+      <c r="B5" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>9</v>
+      </c>
       <c r="D5" s="37" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="37" t="n"/>
-      <c r="F5" s="37" t="n"/>
+        <v>3455</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="37" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="37" t="n"/>
-      <c r="C6" s="37" t="n"/>
+        <v>12</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>10</v>
+      </c>
       <c r="D6" s="37" t="n">
         <v>0</v>
       </c>
-      <c r="E6" s="37" t="n"/>
-      <c r="F6" s="37" t="n"/>
+      <c r="E6" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="37" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="37" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B7" s="37" t="n"/>
       <c r="C7" s="37" t="n"/>
@@ -2604,7 +2635,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="37" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B8" s="37" t="n"/>
       <c r="C8" s="37" t="n"/>
@@ -2616,7 +2647,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="37" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B9" s="37" t="n"/>
       <c r="C9" s="37" t="n"/>
@@ -2628,801 +2659,817 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="37" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B10" s="37" t="n"/>
-      <c r="C10" s="38" t="n"/>
-      <c r="D10" s="38" t="n">
+      <c r="C10" s="37" t="n"/>
+      <c r="D10" s="37" t="n">
         <v>0</v>
       </c>
       <c r="E10" s="37" t="n"/>
       <c r="F10" s="37" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="11" s="35" spans="1:6" thickBot="1">
-      <c r="A11" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="21" t="n"/>
-      <c r="D11" s="21" t="n"/>
-      <c r="E11" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="29" t="n"/>
+      <c r="A11" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="37" t="n"/>
+      <c r="C11" s="37" t="n"/>
+      <c r="D11" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="37" t="n"/>
+      <c r="F11" s="37" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="12" s="35" spans="1:6" thickBot="1">
-      <c r="A12" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="29" t="n"/>
-      <c r="C12" s="21" t="n"/>
-      <c r="D12" s="21" t="n"/>
-      <c r="E12" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="29" t="n"/>
+      <c r="A12" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="37" t="n"/>
+      <c r="C12" s="38" t="n"/>
+      <c r="D12" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="37" t="n"/>
+      <c r="F12" s="37" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="13" s="35" spans="1:6" thickBot="1">
       <c r="A13" s="29" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C13" s="21" t="n"/>
-      <c r="D13" s="21" t="n">
-        <v>40530177</v>
-      </c>
+      <c r="D13" s="21" t="n"/>
       <c r="E13" s="29" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F13" s="29" t="n"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="29" t="n"/>
+      <c r="C14" s="21" t="n"/>
+      <c r="D14" s="21" t="n"/>
+      <c r="E14" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="21" t="n"/>
-      <c r="E14" s="29" t="n"/>
       <c r="F14" s="29" t="n"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="29" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C15" s="21" t="n"/>
-      <c r="D15" s="21" t="n"/>
+      <c r="D15" s="21" t="n">
+        <v>40530177</v>
+      </c>
       <c r="E15" s="29" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F15" s="29" t="n"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="30" t="n"/>
-      <c r="D16" s="30" t="n"/>
-      <c r="E16" s="30" t="s">
+      <c r="A16" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="F16" s="30" t="n"/>
+      <c r="B16" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="21" t="n"/>
+      <c r="E16" s="29" t="n"/>
+      <c r="F16" s="29" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="17" s="35" spans="1:6" thickBot="1">
-      <c r="A17" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="10" t="n"/>
-      <c r="C17" s="11" t="n"/>
-      <c r="D17" s="11" t="n"/>
-      <c r="E17" s="11" t="n"/>
-      <c r="F17" s="12" t="n"/>
+      <c r="A17" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="21" t="n"/>
+      <c r="D17" s="21" t="n"/>
+      <c r="E17" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="29" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="18" s="35" spans="1:6" thickBot="1">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="30" t="n"/>
+      <c r="D18" s="30" t="n"/>
+      <c r="E18" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="30" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="19" s="35" spans="1:6" thickBot="1">
+      <c r="A19" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="10" t="n"/>
+      <c r="C19" s="11" t="n"/>
+      <c r="D19" s="11" t="n"/>
+      <c r="E19" s="11" t="n"/>
+      <c r="F19" s="12" t="n"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row customHeight="1" ht="15.75" r="19" s="35" spans="1:6" thickBot="1">
-      <c r="A19" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="20" t="n">
-        <v>33001706</v>
-      </c>
-      <c r="D19" s="20" t="n">
-        <v>40531993</v>
-      </c>
-      <c r="E19" s="28" t="n"/>
-      <c r="F19" s="28" t="n"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="21" t="n">
-        <v>328139</v>
-      </c>
-      <c r="D20" s="21" t="n">
-        <v>40751057</v>
-      </c>
-      <c r="E20" s="29" t="n"/>
-      <c r="F20" s="29" t="n"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="21" t="n"/>
-      <c r="D21" s="21" t="n"/>
-      <c r="E21" s="21" t="n">
-        <v>1655137</v>
-      </c>
-      <c r="F21" s="29" t="n"/>
+        <v>35</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="20" t="n">
+        <v>33001706</v>
+      </c>
+      <c r="D21" s="20" t="n">
+        <v>40531993</v>
+      </c>
+      <c r="E21" s="28" t="n"/>
+      <c r="F21" s="28" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="22" s="35" spans="1:6" thickBot="1">
       <c r="A22" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" s="29" t="n"/>
+        <v>35</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>37</v>
+      </c>
       <c r="C22" s="21" t="n">
-        <v>3267765</v>
+        <v>328139</v>
       </c>
       <c r="D22" s="21" t="n">
-        <v>20359005</v>
+        <v>40751057</v>
       </c>
       <c r="E22" s="29" t="n"/>
       <c r="F22" s="29" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="23" s="35" spans="1:6" thickBot="1">
-      <c r="A23" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" s="3" t="n"/>
-      <c r="C23" s="4" t="n"/>
-      <c r="D23" s="4" t="n"/>
-      <c r="E23" s="4" t="n"/>
-      <c r="F23" s="5" t="n"/>
+      <c r="A23" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="21" t="n"/>
+      <c r="D23" s="21" t="n"/>
+      <c r="E23" s="21" t="n">
+        <v>1655137</v>
+      </c>
+      <c r="F23" s="29" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="24" s="35" spans="1:6" thickBot="1">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="29" t="n"/>
+      <c r="C24" s="21" t="n">
+        <v>3267765</v>
+      </c>
+      <c r="D24" s="21" t="n">
+        <v>20359005</v>
+      </c>
+      <c r="E24" s="29" t="n"/>
+      <c r="F24" s="29" t="n"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="3" t="n"/>
+      <c r="C25" s="4" t="n"/>
+      <c r="D25" s="4" t="n"/>
+      <c r="E25" s="4" t="n"/>
+      <c r="F25" s="5" t="n"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F26" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="B25" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" s="20" t="n"/>
-      <c r="D25" s="20" t="n"/>
-      <c r="E25" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="F25" s="28" t="n"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="B26" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="C26" s="21" t="n"/>
-      <c r="D26" s="21" t="n"/>
-      <c r="E26" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="F26" s="29" t="n"/>
-    </row>
     <row customHeight="1" ht="15.75" r="27" s="35" spans="1:6" thickBot="1">
-      <c r="A27" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="B27" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" s="21" t="n"/>
-      <c r="D27" s="21" t="n"/>
-      <c r="E27" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="F27" s="29" t="n"/>
+      <c r="A27" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="20" t="n"/>
+      <c r="D27" s="20" t="n"/>
+      <c r="E27" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="F27" s="28" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="28" s="35" spans="1:6" thickBot="1">
-      <c r="A28" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B28" s="3" t="n"/>
-      <c r="C28" s="4" t="n"/>
-      <c r="D28" s="4" t="n"/>
-      <c r="E28" s="4" t="n"/>
-      <c r="F28" s="5" t="n"/>
+      <c r="A28" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="21" t="n"/>
+      <c r="D28" s="21" t="n"/>
+      <c r="E28" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" s="29" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="29" s="35" spans="1:6" thickBot="1">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="21" t="n"/>
+      <c r="D29" s="21" t="n"/>
+      <c r="E29" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="F29" s="29" t="n"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" s="3" t="n"/>
+      <c r="C30" s="4" t="n"/>
+      <c r="D30" s="4" t="n"/>
+      <c r="E30" s="4" t="n"/>
+      <c r="F30" s="5" t="n"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F31" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="B30" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="C30" s="20" t="n">
+    <row customHeight="1" ht="15.75" r="32" s="35" spans="1:6" thickBot="1">
+      <c r="A32" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="20" t="n">
         <v>1040</v>
       </c>
-      <c r="D30" s="20" t="n"/>
-      <c r="E30" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="F30" s="28" t="n"/>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="B31" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="C31" s="21" t="n"/>
-      <c r="D31" s="21" t="n"/>
-      <c r="E31" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="F31" s="29" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="32" s="35" spans="1:6" thickBot="1">
-      <c r="A32" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="B32" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="C32" s="21" t="s">
+      <c r="D32" s="20" t="n"/>
+      <c r="E32" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="F32" s="28" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="33" s="35" spans="1:6" thickBot="1">
+      <c r="A33" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="D32" s="21" t="n">
+      <c r="C33" s="21" t="n"/>
+      <c r="D33" s="21" t="n"/>
+      <c r="E33" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="F33" s="29" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="34" s="35" spans="1:6" thickBot="1">
+      <c r="A34" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="D34" s="21" t="n">
         <v>40530103</v>
       </c>
-      <c r="E32" s="29" t="n"/>
-      <c r="F32" s="29" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="33" s="35" spans="1:6" thickBot="1">
-      <c r="A33" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B33" s="3" t="n"/>
-      <c r="C33" s="4" t="n"/>
-      <c r="D33" s="4" t="n"/>
-      <c r="E33" s="4" t="n"/>
-      <c r="F33" s="5" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="34" s="35" spans="1:6" thickBot="1">
-      <c r="A34" s="1" t="s">
+      <c r="E34" s="29" t="n"/>
+      <c r="F34" s="29" t="n"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B35" s="3" t="n"/>
+      <c r="C35" s="4" t="n"/>
+      <c r="D35" s="4" t="n"/>
+      <c r="E35" s="4" t="n"/>
+      <c r="F35" s="5" t="n"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E36" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="F36" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="B35" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="C35" s="20" t="n"/>
-      <c r="D35" s="20" t="n"/>
-      <c r="E35" s="28" t="n"/>
-      <c r="F35" s="28" t="n"/>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="B36" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" s="21" t="n"/>
-      <c r="D36" s="21" t="n">
+    <row r="37" spans="1:6">
+      <c r="A37" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="B37" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37" s="20" t="n"/>
+      <c r="D37" s="20" t="n"/>
+      <c r="E37" s="28" t="n"/>
+      <c r="F37" s="28" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="38" s="35" spans="1:6" thickBot="1">
+      <c r="A38" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="B38" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C38" s="21" t="n"/>
+      <c r="D38" s="21" t="n">
         <v>40725385</v>
       </c>
-      <c r="E36" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="F36" s="29" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="B37" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" s="21" t="n"/>
-      <c r="D37" s="21" t="n">
+      <c r="E38" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="F38" s="29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.75" r="39" s="35" spans="1:6" thickBot="1">
+      <c r="A39" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="B39" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C39" s="21" t="n"/>
+      <c r="D39" s="21" t="n">
         <v>40723864</v>
       </c>
-      <c r="E37" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="F37" s="29" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.75" r="38" s="35" spans="1:6" thickBot="1">
-      <c r="A38" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B38" s="3" t="n"/>
-      <c r="C38" s="4" t="n"/>
-      <c r="D38" s="4" t="n"/>
-      <c r="E38" s="4" t="n"/>
-      <c r="F38" s="5" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="39" s="35" spans="1:6" thickBot="1">
-      <c r="A39" s="1" t="s">
+      <c r="E39" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="F39" s="29" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.75" r="40" s="35" spans="1:6" thickBot="1">
+      <c r="A40" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B40" s="3" t="n"/>
+      <c r="C40" s="4" t="n"/>
+      <c r="D40" s="4" t="n"/>
+      <c r="E40" s="4" t="n"/>
+      <c r="F40" s="5" t="n"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B41" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C41" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D41" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E41" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="F41" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="15.75" r="40" s="35" spans="1:6" thickBot="1">
-      <c r="A40" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="B40" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="C40" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="D40" s="28" t="n"/>
-      <c r="E40" s="28" t="n"/>
-      <c r="F40" s="28" t="n"/>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B41" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="C41" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="D41" s="29" t="n"/>
-      <c r="E41" s="29" t="n"/>
-      <c r="F41" s="29" t="n"/>
-    </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="B42" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="C42" s="21" t="n">
-        <v>6132415944</v>
-      </c>
-      <c r="D42" s="21" t="n">
-        <v>20182108</v>
-      </c>
-      <c r="E42" s="29" t="n"/>
-      <c r="F42" s="29" t="n"/>
+      <c r="A42" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="B42" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C42" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D42" s="28" t="n"/>
+      <c r="E42" s="28" t="n"/>
+      <c r="F42" s="28" t="n"/>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="29" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C43" s="21" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D43" s="29" t="n"/>
       <c r="E43" s="29" t="n"/>
       <c r="F43" s="29" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="44" s="35" spans="1:6" thickBot="1">
-      <c r="A44" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B44" s="3" t="n"/>
-      <c r="C44" s="4" t="n"/>
-      <c r="D44" s="4" t="n"/>
-      <c r="E44" s="4" t="n"/>
-      <c r="F44" s="5" t="n"/>
+      <c r="A44" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B44" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="C44" s="21" t="n">
+        <v>6132415944</v>
+      </c>
+      <c r="D44" s="21" t="n">
+        <v>20182108</v>
+      </c>
+      <c r="E44" s="29" t="n"/>
+      <c r="F44" s="29" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="45" s="35" spans="1:6" thickBot="1">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="B45" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="C45" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="D45" s="29" t="n"/>
+      <c r="E45" s="29" t="n"/>
+      <c r="F45" s="29" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="46" s="35" spans="1:6" thickBot="1">
+      <c r="A46" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B46" s="3" t="n"/>
+      <c r="C46" s="4" t="n"/>
+      <c r="D46" s="4" t="n"/>
+      <c r="E46" s="4" t="n"/>
+      <c r="F46" s="5" t="n"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B47" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C47" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D47" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="E47" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="F47" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="15.75" r="46" s="35" spans="1:6" thickBot="1">
-      <c r="A46" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="B46" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="C46" s="20" t="s">
+    <row r="48" spans="1:6">
+      <c r="A48" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="B48" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="D46" s="6" t="n"/>
-      <c r="E46" s="28" t="n"/>
-      <c r="F46" s="28" t="n"/>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="B47" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="C47" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="D47" s="7" t="n"/>
-      <c r="E47" s="29" t="n"/>
-      <c r="F47" s="29" t="n"/>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="B48" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="C48" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="D48" s="7" t="n"/>
-      <c r="E48" s="29" t="n"/>
-      <c r="F48" s="29" t="n"/>
+      <c r="C48" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="D48" s="6" t="n"/>
+      <c r="E48" s="28" t="n"/>
+      <c r="F48" s="28" t="n"/>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="29" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B49" s="29" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C49" s="21" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D49" s="7" t="n"/>
       <c r="E49" s="29" t="n"/>
       <c r="F49" s="29" t="n"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B50" s="3" t="n"/>
-      <c r="C50" s="4" t="n"/>
-      <c r="D50" s="4" t="n"/>
-      <c r="E50" s="4" t="n"/>
-      <c r="F50" s="5" t="n"/>
+      <c r="A50" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="B50" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="C50" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D50" s="7" t="n"/>
+      <c r="E50" s="29" t="n"/>
+      <c r="F50" s="29" t="n"/>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="B51" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="C51" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="D51" s="7" t="n"/>
+      <c r="E51" s="29" t="n"/>
+      <c r="F51" s="29" t="n"/>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B52" s="3" t="n"/>
+      <c r="C52" s="4" t="n"/>
+      <c r="D52" s="4" t="n"/>
+      <c r="E52" s="4" t="n"/>
+      <c r="F52" s="5" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="53" s="35" spans="1:6" thickBot="1">
+      <c r="A53" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B53" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C53" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D53" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="E53" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F51" s="1" t="s">
+      <c r="F53" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="B52" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="C52" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="D52" s="28" t="n"/>
-      <c r="E52" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="F52" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="53" s="35" spans="1:6" thickBot="1">
-      <c r="A53" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="B53" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="C53" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="D53" s="29" t="n"/>
-      <c r="E53" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="F53" s="29" t="n"/>
-    </row>
     <row customHeight="1" ht="15.75" r="54" s="35" spans="1:6" thickBot="1">
-      <c r="A54" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="B54" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="C54" s="21" t="s">
+      <c r="A54" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B54" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="D54" s="29" t="n"/>
-      <c r="E54" s="29" t="s">
+      <c r="C54" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="F54" s="29" t="n"/>
+      <c r="D54" s="28" t="n"/>
+      <c r="E54" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="F54" s="28" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="55" s="35" spans="1:6" thickBot="1">
       <c r="A55" s="29" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="B55" s="29" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C55" s="21" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D55" s="29" t="n"/>
       <c r="E55" s="29" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F55" s="29" t="n"/>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B56" s="29" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C56" s="21" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D56" s="29" t="n"/>
       <c r="E56" s="29" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F56" s="29" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="57" s="35" spans="1:6" thickBot="1">
       <c r="A57" s="29" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="B57" s="29" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C57" s="21" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D57" s="29" t="n"/>
       <c r="E57" s="29" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F57" s="29" t="n"/>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="B58" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="C58" s="27" t="s">
+      <c r="A58" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="D58" s="30" t="n"/>
-      <c r="E58" s="30" t="s">
+      <c r="B58" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="C58" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="F58" s="30" t="n"/>
+      <c r="D58" s="29" t="n"/>
+      <c r="E58" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="F58" s="29" t="n"/>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B59" s="3" t="n"/>
-      <c r="C59" s="4" t="n"/>
-      <c r="D59" s="4" t="n"/>
-      <c r="E59" s="4" t="n"/>
-      <c r="F59" s="5" t="n"/>
+      <c r="A59" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="B59" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="C59" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D59" s="29" t="n"/>
+      <c r="E59" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="F59" s="29" t="n"/>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="14" t="s">
+      <c r="A60" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="B60" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="C60" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="D60" s="30" t="n"/>
+      <c r="E60" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="F60" s="30" t="n"/>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B61" s="3" t="n"/>
+      <c r="C61" s="4" t="n"/>
+      <c r="D61" s="4" t="n"/>
+      <c r="E61" s="4" t="n"/>
+      <c r="F61" s="5" t="n"/>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B60" s="14" t="s">
+      <c r="B62" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C60" s="14" t="s">
+      <c r="C62" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D60" s="14" t="s">
+      <c r="D62" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E60" s="14" t="s">
+      <c r="E62" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="F60" s="14" t="s">
+      <c r="F62" s="14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
-      <c r="A61" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="B61" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="C61" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="D61" s="28" t="n"/>
-      <c r="E61" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="F61" s="28" t="n"/>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="B62" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="C62" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="D62" s="27" t="n"/>
-      <c r="E62" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="F62" s="27" t="n"/>
-    </row>
     <row r="63" spans="1:6">
-      <c r="C63" s="13" t="n"/>
-      <c r="D63" s="13" t="n"/>
+      <c r="A63" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="B63" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="C63" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="D63" s="28" t="n"/>
+      <c r="E63" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="F63" s="28" t="n"/>
     </row>
     <row r="64" spans="1:6">
-      <c r="C64" s="13" t="n"/>
-      <c r="D64" s="13" t="n"/>
+      <c r="A64" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="B64" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="C64" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="D64" s="27" t="n"/>
+      <c r="E64" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="F64" s="27" t="n"/>
     </row>
     <row r="65" spans="1:6">
       <c r="C65" s="13" t="n"/>
@@ -3441,30 +3488,28 @@
       <c r="D68" s="13" t="n"/>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="13" t="n"/>
       <c r="C69" s="13" t="n"/>
       <c r="D69" s="13" t="n"/>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="15" t="n"/>
+      <c r="C70" s="13" t="n"/>
+      <c r="D70" s="13" t="n"/>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="15" t="n"/>
-      <c r="B71" s="15" t="n"/>
-      <c r="C71" s="15" t="n"/>
-      <c r="D71" s="15" t="n"/>
-      <c r="E71" s="15" t="n"/>
-      <c r="F71" s="15" t="n"/>
+      <c r="A71" s="13" t="n"/>
+      <c r="C71" s="13" t="n"/>
+      <c r="D71" s="13" t="n"/>
     </row>
     <row r="72" spans="1:6">
-      <c r="C72" s="13" t="n"/>
-      <c r="D72" s="13" t="n"/>
-      <c r="E72" s="13" t="n"/>
+      <c r="A72" s="15" t="n"/>
     </row>
     <row r="73" spans="1:6">
-      <c r="C73" s="13" t="n"/>
-      <c r="D73" s="13" t="n"/>
-      <c r="E73" s="13" t="n"/>
+      <c r="A73" s="15" t="n"/>
+      <c r="B73" s="15" t="n"/>
+      <c r="C73" s="15" t="n"/>
+      <c r="D73" s="15" t="n"/>
+      <c r="E73" s="15" t="n"/>
+      <c r="F73" s="15" t="n"/>
     </row>
     <row r="74" spans="1:6">
       <c r="C74" s="13" t="n"/>
@@ -3475,6 +3520,16 @@
       <c r="C75" s="13" t="n"/>
       <c r="D75" s="13" t="n"/>
       <c r="E75" s="13" t="n"/>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="C76" s="13" t="n"/>
+      <c r="D76" s="13" t="n"/>
+      <c r="E76" s="13" t="n"/>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="C77" s="13" t="n"/>
+      <c r="D77" s="13" t="n"/>
+      <c r="E77" s="13" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3509,7 +3564,7 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="34" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="2" s="35" spans="1:14" thickBot="1"/>
@@ -3553,7 +3608,7 @@
     </row>
     <row customHeight="1" ht="15.75" r="6" s="35" spans="1:14" thickBot="1">
       <c r="A6" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B6" s="3" t="n"/>
       <c r="C6" s="4" t="n"/>
@@ -3591,7 +3646,7 @@
     </row>
     <row customHeight="1" ht="15.75" r="9" s="35" spans="1:14" thickBot="1">
       <c r="A9" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B9" s="3" t="n"/>
       <c r="C9" s="4" t="n"/>
@@ -3629,7 +3684,7 @@
     </row>
     <row customHeight="1" ht="15.75" r="12" s="35" spans="1:14" thickBot="1">
       <c r="A12" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B12" s="3" t="n"/>
       <c r="C12" s="4" t="n"/>
@@ -3660,13 +3715,13 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="20" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="D14" s="20" t="n"/>
       <c r="E14" s="28" t="n"/>
@@ -3674,13 +3729,13 @@
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="21" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="D15" s="21" t="n">
         <v>20554531</v>
@@ -3690,29 +3745,29 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="21" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="D16" s="29" t="n"/>
       <c r="E16" s="29" t="n"/>
       <c r="F16" s="29" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="B17" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="B17" s="21" t="s">
-        <v>103</v>
-      </c>
       <c r="C17" s="21" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="D17" s="17" t="n"/>
       <c r="E17" s="17" t="n"/>
@@ -3720,11 +3775,11 @@
     </row>
     <row customHeight="1" ht="15.75" r="18" s="35" spans="1:14" thickBot="1">
       <c r="A18" s="27" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B18" s="27" t="n"/>
       <c r="C18" s="27" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="D18" s="30" t="n"/>
       <c r="E18" s="30" t="n"/>
@@ -3732,7 +3787,7 @@
     </row>
     <row customHeight="1" ht="15.75" r="19" s="35" spans="1:14" thickBot="1">
       <c r="A19" s="2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B19" s="3" t="n"/>
       <c r="C19" s="4" t="n"/>
@@ -3763,29 +3818,29 @@
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="20" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="D21" s="20" t="n"/>
       <c r="E21" s="28" t="n"/>
       <c r="F21" s="28" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="21" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="D22" s="21" t="n">
         <v>20443838</v>
@@ -3795,45 +3850,45 @@
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="21" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="D23" s="21" t="n"/>
       <c r="E23" s="29" t="n"/>
       <c r="F23" s="29" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="21" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D24" s="21" t="n"/>
       <c r="E24" s="29" t="n"/>
       <c r="F24" s="29" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="21" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="D25" s="21" t="n"/>
       <c r="E25" s="29" t="n"/>
@@ -3841,13 +3896,13 @@
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="B26" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="B26" s="21" t="s">
-        <v>117</v>
-      </c>
       <c r="C26" s="21" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="D26" s="21" t="n"/>
       <c r="E26" s="29" t="n"/>
@@ -3855,23 +3910,23 @@
     </row>
     <row customHeight="1" ht="15.75" r="27" s="35" spans="1:14" thickBot="1">
       <c r="A27" s="27" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B27" s="27" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C27" s="27" t="n">
         <v>143168328</v>
       </c>
       <c r="D27" s="19" t="n"/>
       <c r="E27" s="27" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="F27" s="24" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="28" s="35" spans="1:14" thickBot="1">
       <c r="A28" s="9" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B28" s="10" t="n"/>
       <c r="C28" s="11" t="n"/>
@@ -3901,13 +3956,13 @@
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="20" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B30" s="28" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="D30" s="20" t="n">
         <v>20443838</v>
@@ -3917,13 +3972,13 @@
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="21" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B31" s="29" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="D31" s="21" t="n"/>
       <c r="E31" s="29" t="n"/>
@@ -3931,29 +3986,29 @@
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="21" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B32" s="29" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="D32" s="21" t="n"/>
       <c r="E32" s="29" t="n"/>
       <c r="F32" s="29" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="21" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B33" s="29" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="D33" s="21" t="n">
         <v>40573024</v>
@@ -3963,13 +4018,13 @@
     </row>
     <row customHeight="1" ht="15.75" r="34" s="35" spans="1:14" thickBot="1">
       <c r="A34" s="21" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B34" s="29" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="D34" s="21" t="n"/>
       <c r="E34" s="29" t="n"/>
@@ -3977,7 +4032,7 @@
     </row>
     <row customHeight="1" ht="15.75" r="35" s="35" spans="1:14" thickBot="1">
       <c r="A35" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B35" s="3" t="n"/>
       <c r="C35" s="4" t="n"/>
@@ -4007,23 +4062,23 @@
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="28" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="20" t="n"/>
       <c r="D37" s="20" t="n"/>
       <c r="E37" s="28" t="n"/>
       <c r="F37" s="28" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="29" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="B38" s="29" t="n"/>
       <c r="C38" s="21" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="D38" s="21" t="n"/>
       <c r="E38" s="29" t="n"/>
@@ -4031,11 +4086,11 @@
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="29" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B39" s="29" t="n"/>
       <c r="C39" s="21" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="D39" s="21" t="n"/>
       <c r="E39" s="29" t="n"/>
@@ -4043,11 +4098,11 @@
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="21" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B40" s="29" t="n"/>
       <c r="C40" s="29" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="D40" s="29" t="n"/>
       <c r="E40" s="29" t="n"/>
@@ -4055,11 +4110,11 @@
     </row>
     <row customHeight="1" ht="15.75" r="41" s="35" spans="1:14" thickBot="1">
       <c r="A41" s="27" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B41" s="24" t="n"/>
       <c r="C41" s="27" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="D41" s="24" t="n"/>
       <c r="E41" s="24" t="n"/>
@@ -4067,7 +4122,7 @@
     </row>
     <row customHeight="1" ht="15.75" r="42" s="35" spans="1:14" thickBot="1">
       <c r="A42" s="9" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B42" s="10" t="n"/>
       <c r="C42" s="11" t="n"/>
@@ -4097,10 +4152,10 @@
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="28" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B44" s="28" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="C44" s="20" t="n"/>
       <c r="D44" s="20" t="n"/>
@@ -4109,25 +4164,25 @@
     </row>
     <row customHeight="1" ht="15.75" r="45" s="35" spans="1:14" thickBot="1">
       <c r="A45" s="29" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B45" s="29" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C45" s="21" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="D45" s="21" t="n">
         <v>20351207</v>
       </c>
       <c r="E45" s="21" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F45" s="29" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="46" s="35" spans="1:14" thickBot="1">
       <c r="A46" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B46" s="3" t="n"/>
       <c r="C46" s="4" t="n"/>
@@ -4157,34 +4212,34 @@
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="28" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B48" s="28" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="D48" s="20" t="n"/>
       <c r="E48" s="20" t="n"/>
       <c r="F48" s="28" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="49" s="35" spans="1:14" thickBot="1">
       <c r="A49" s="30" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="B49" s="30" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C49" s="27" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="D49" s="27" t="n"/>
       <c r="E49" s="27" t="n"/>
       <c r="F49" s="30" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -4212,7 +4267,7 @@
       <c r="D54" s="13" t="n"/>
       <c r="E54" s="13" t="n"/>
       <c r="I54" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="55" spans="1:14">
@@ -4414,7 +4469,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="34" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="2" s="35" spans="1:12" thickBot="1"/>
@@ -4450,19 +4505,19 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="28" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="B5" s="28" t="n"/>
       <c r="C5" s="20" t="n"/>
       <c r="D5" s="20" t="n"/>
       <c r="E5" s="28" t="n"/>
       <c r="F5" s="28" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="29" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B6" s="29" t="n"/>
       <c r="C6" s="21" t="n">
@@ -4474,10 +4529,10 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="29" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="C7" s="21" t="n">
         <v>6205</v>
@@ -4488,13 +4543,13 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="29" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="D8" s="21" t="n">
         <v>40004045</v>
@@ -4504,13 +4559,13 @@
     </row>
     <row customHeight="1" ht="15.75" r="9" s="35" spans="1:12" thickBot="1">
       <c r="A9" s="29" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="D9" s="21" t="n">
         <v>40518388</v>
@@ -4520,7 +4575,7 @@
     </row>
     <row customHeight="1" ht="15.75" r="10" s="35" spans="1:12" thickBot="1">
       <c r="A10" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B10" s="3" t="n"/>
       <c r="C10" s="4" t="n"/>
@@ -4550,7 +4605,7 @@
     </row>
     <row customHeight="1" ht="15.75" r="12" s="35" spans="1:12" thickBot="1">
       <c r="A12" s="20" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="B12" s="20" t="n"/>
       <c r="C12" s="28" t="n"/>
@@ -4560,7 +4615,7 @@
     </row>
     <row customHeight="1" ht="15.75" r="13" s="35" spans="1:12" thickBot="1">
       <c r="A13" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B13" s="3" t="n"/>
       <c r="C13" s="4" t="n"/>
@@ -4598,7 +4653,7 @@
     </row>
     <row customHeight="1" ht="15.75" r="16" s="35" spans="1:12" thickBot="1">
       <c r="A16" s="9" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B16" s="3" t="n"/>
       <c r="C16" s="4" t="n"/>
@@ -4636,7 +4691,7 @@
     </row>
     <row customHeight="1" ht="15.75" r="19" s="35" spans="1:12" thickBot="1">
       <c r="A19" s="2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B19" s="3" t="n"/>
       <c r="C19" s="4" t="n"/>
@@ -4674,7 +4729,7 @@
     </row>
     <row customHeight="1" ht="15.75" r="22" s="35" spans="1:12" thickBot="1">
       <c r="A22" s="2" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B22" s="3" t="n"/>
       <c r="C22" s="4" t="n"/>
@@ -4712,7 +4767,7 @@
     </row>
     <row customHeight="1" ht="15.75" r="25" s="35" spans="1:12" thickBot="1">
       <c r="A25" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B25" s="3" t="n"/>
       <c r="C25" s="4" t="n"/>
@@ -4742,13 +4797,13 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="28" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B27" s="28" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="D27" s="20" t="n"/>
       <c r="E27" s="28" t="n"/>
@@ -4756,13 +4811,13 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="29" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B28" s="29" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="D28" s="21" t="n"/>
       <c r="E28" s="29" t="n"/>
@@ -4770,7 +4825,7 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="29" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="B29" s="29" t="n"/>
       <c r="C29" s="21" t="n"/>
@@ -4780,13 +4835,13 @@
     </row>
     <row customHeight="1" ht="15.75" r="30" s="35" spans="1:12" thickBot="1">
       <c r="A30" s="27" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="B30" s="30" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C30" s="30" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="D30" s="30" t="n"/>
       <c r="E30" s="30" t="n"/>
@@ -4794,7 +4849,7 @@
     </row>
     <row customHeight="1" ht="15.75" r="31" s="35" spans="1:12" thickBot="1">
       <c r="A31" s="9" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B31" s="10" t="n"/>
       <c r="C31" s="11" t="n"/>
@@ -4824,10 +4879,10 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="28" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="B33" s="28" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C33" s="20" t="n">
         <v>13046432</v>
@@ -4836,16 +4891,16 @@
         <v>40531992</v>
       </c>
       <c r="E33" s="20" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="F33" s="28" t="n"/>
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="29" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="B34" s="29" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C34" s="21" t="n">
         <v>13046437</v>
@@ -4856,23 +4911,23 @@
     </row>
     <row customHeight="1" ht="15.75" r="35" s="35" spans="1:12" thickBot="1">
       <c r="A35" s="27" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="B35" s="30" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C35" s="27" t="n">
         <v>13046438</v>
       </c>
       <c r="D35" s="30" t="n"/>
       <c r="E35" s="30" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="F35" s="30" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="36" s="35" spans="1:12" thickBot="1">
       <c r="A36" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B36" s="10" t="n"/>
       <c r="C36" s="11" t="n"/>
@@ -4902,10 +4957,10 @@
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="32" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="B38" s="32" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="C38" s="33" t="n"/>
       <c r="D38" s="33" t="n">
@@ -4916,13 +4971,13 @@
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="29" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="B39" s="29" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C39" s="21" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="D39" s="21" t="n"/>
       <c r="E39" s="21" t="n"/>
@@ -4930,13 +4985,13 @@
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="29" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="D40" s="21" t="n"/>
       <c r="E40" s="21" t="n"/>
@@ -4944,10 +4999,10 @@
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="29" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="C41" s="21" t="n"/>
       <c r="D41" s="21" t="n"/>
@@ -4956,10 +5011,10 @@
     </row>
     <row customHeight="1" ht="15.75" r="42" s="35" spans="1:12" thickBot="1">
       <c r="A42" s="30" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="B42" s="30" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="C42" s="27" t="n"/>
       <c r="D42" s="27" t="n"/>
@@ -5026,7 +5081,7 @@
       <c r="D54" s="13" t="n"/>
       <c r="E54" s="13" t="n"/>
       <c r="I54" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -5225,7 +5280,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="34" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="2" s="35" spans="1:12" thickBot="1"/>
@@ -5261,11 +5316,11 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="28" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="B5" s="28" t="n"/>
       <c r="C5" s="20" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="D5" s="20" t="n"/>
       <c r="E5" s="28" t="n"/>
@@ -5273,11 +5328,11 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="29" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="B6" s="29" t="n"/>
       <c r="C6" s="21" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="D6" s="21" t="n"/>
       <c r="E6" s="29" t="n"/>
@@ -5285,7 +5340,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="29" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="B7" s="29" t="n"/>
       <c r="C7" s="21" t="n">
@@ -5297,13 +5352,13 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="29" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="D8" s="21" t="n"/>
       <c r="E8" s="29" t="n"/>
@@ -5311,11 +5366,11 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="29" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="B9" s="29" t="n"/>
       <c r="C9" s="21" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="D9" s="21" t="n"/>
       <c r="E9" s="29" t="n"/>
@@ -5323,11 +5378,11 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="29" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="B10" s="29" t="n"/>
       <c r="C10" s="21" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="D10" s="21" t="n"/>
       <c r="E10" s="29" t="n"/>
@@ -5335,11 +5390,11 @@
     </row>
     <row customHeight="1" ht="15.75" r="11" s="35" spans="1:12" thickBot="1">
       <c r="A11" s="27" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="B11" s="30" t="n"/>
       <c r="C11" s="27" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="D11" s="30" t="n"/>
       <c r="E11" s="30" t="n"/>
@@ -5347,7 +5402,7 @@
     </row>
     <row customHeight="1" ht="15.75" r="12" s="35" spans="1:12" thickBot="1">
       <c r="A12" s="9" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B12" s="10" t="n"/>
       <c r="C12" s="11" t="n"/>
@@ -5377,10 +5432,10 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="38" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B14" s="38" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="C14" s="37" t="n"/>
       <c r="D14" s="38" t="n">
@@ -5391,243 +5446,243 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="21" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="D15" s="21" t="n"/>
       <c r="E15" s="21" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="21" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="D16" s="21" t="n"/>
       <c r="E16" s="21" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="21" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="D17" s="21" t="n"/>
       <c r="E17" s="21" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="21" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="D18" s="21" t="n"/>
       <c r="E18" s="21" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="21" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="D19" s="29" t="n"/>
       <c r="E19" s="21" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="21" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="D20" s="17" t="n"/>
       <c r="E20" s="21" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="21" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="D21" s="21" t="n">
         <v>40529080</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="21" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="D22" s="21" t="n"/>
       <c r="E22" s="21" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="F22" s="21" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="21" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="D23" s="21" t="n"/>
       <c r="E23" s="21" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="F23" s="21" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="21" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="D24" s="21" t="n"/>
       <c r="E24" s="21" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="21" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="C25" s="29" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="D25" s="21" t="n"/>
       <c r="E25" s="21" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="F25" s="21" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="21" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="C26" s="29" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="D26" s="21" t="n"/>
       <c r="E26" s="21" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="F26" s="21" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="27" s="35" spans="1:12" thickBot="1">
       <c r="A27" s="21" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="C27" s="29" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="D27" s="29" t="n"/>
       <c r="E27" s="21" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="F27" s="21" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="28" s="35" spans="1:12" thickBot="1">
       <c r="A28" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B28" s="3" t="n"/>
       <c r="C28" s="4" t="n"/>
@@ -5657,99 +5712,99 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="21" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="B30" s="29" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="C30" s="21" t="n"/>
       <c r="D30" s="21" t="n"/>
       <c r="E30" s="29" t="n"/>
       <c r="F30" s="29" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="21" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="B31" s="29" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="D31" s="21" t="n"/>
       <c r="E31" s="29" t="n"/>
       <c r="F31" s="29" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="21" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="B32" s="29" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="D32" s="21" t="n"/>
       <c r="E32" s="29" t="n"/>
       <c r="F32" s="29" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="21" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="B33" s="29" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="D33" s="21" t="n"/>
       <c r="E33" s="29" t="n"/>
       <c r="F33" s="29" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="21" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="B34" s="29" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="C34" s="21" t="n"/>
       <c r="D34" s="21" t="n"/>
       <c r="E34" s="29" t="n"/>
       <c r="F34" s="29" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="35" s="35" spans="1:12" thickBot="1">
       <c r="A35" s="27" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="B35" s="30" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="C35" s="27" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="D35" s="30" t="n"/>
       <c r="E35" s="30" t="n"/>
       <c r="F35" s="30" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="36" s="35" spans="1:12" thickBot="1">
       <c r="A36" s="9" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B36" s="10" t="n"/>
       <c r="C36" s="11" t="n"/>
@@ -5779,41 +5834,41 @@
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="28" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="B38" s="28" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="C38" s="28" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="D38" s="20" t="n">
         <v>40753928</v>
       </c>
       <c r="E38" s="28" t="n"/>
       <c r="F38" s="28" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="39" s="35" spans="1:12" thickBot="1">
       <c r="A39" s="30" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="B39" s="30" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="C39" s="30" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="D39" s="27" t="n"/>
       <c r="E39" s="30" t="n"/>
       <c r="F39" s="30" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="40" s="35" spans="1:12" thickBot="1">
       <c r="A40" s="9" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B40" s="10" t="n"/>
       <c r="C40" s="11" t="n"/>
@@ -5843,95 +5898,95 @@
     </row>
     <row r="42" spans="1:12">
       <c r="A42" s="28" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="B42" s="28" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="D42" s="28" t="n"/>
       <c r="E42" s="28" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="F42" s="28" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="29" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="C43" s="21" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="D43" s="29" t="n"/>
       <c r="E43" s="29" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="F43" s="29" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
     </row>
     <row r="44" spans="1:12">
       <c r="A44" s="29" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="B44" s="29" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="C44" s="21" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="D44" s="29" t="n"/>
       <c r="E44" s="29" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="F44" s="29" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="29" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="B45" s="29" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="C45" s="21" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="D45" s="29" t="n"/>
       <c r="E45" s="29" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="F45" s="29" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="46" s="35" spans="1:12" thickBot="1">
       <c r="A46" s="30" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="B46" s="30" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="C46" s="27" t="n"/>
       <c r="D46" s="30" t="n"/>
       <c r="E46" s="30" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="F46" s="30" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="47" s="35" spans="1:12" thickBot="1">
       <c r="A47" s="2" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B47" s="3" t="n"/>
       <c r="C47" s="4" t="n"/>
@@ -5961,10 +6016,10 @@
     </row>
     <row r="49" spans="1:12">
       <c r="A49" s="20" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="B49" s="28" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="C49" s="20" t="n"/>
       <c r="D49" s="20" t="n"/>
@@ -5973,13 +6028,13 @@
     </row>
     <row r="50" spans="1:12">
       <c r="A50" s="21" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="B50" s="29" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="C50" s="21" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="D50" s="21" t="n"/>
       <c r="E50" s="29" t="n"/>
@@ -5987,10 +6042,10 @@
     </row>
     <row r="51" spans="1:12">
       <c r="A51" s="21" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="B51" s="29" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="C51" s="21" t="n">
         <v>58016483333</v>
@@ -6001,13 +6056,13 @@
     </row>
     <row r="52" spans="1:12">
       <c r="A52" s="21" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="B52" s="29" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C52" s="21" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="D52" s="21" t="n"/>
       <c r="E52" s="29" t="n"/>
@@ -6015,13 +6070,13 @@
     </row>
     <row r="53" spans="1:12">
       <c r="A53" s="21" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="B53" s="29" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C53" s="21" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="D53" s="21" t="n"/>
       <c r="E53" s="29" t="n"/>
@@ -6029,10 +6084,10 @@
     </row>
     <row r="54" spans="1:12">
       <c r="A54" s="21" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="B54" s="29" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C54" s="21" t="n"/>
       <c r="D54" s="21" t="n">
@@ -6041,18 +6096,18 @@
       <c r="E54" s="29" t="n"/>
       <c r="F54" s="29" t="n"/>
       <c r="I54" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="55" spans="1:12">
       <c r="A55" s="21" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="B55" s="29" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="C55" s="21" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="D55" s="21" t="n"/>
       <c r="E55" s="29" t="n"/>
@@ -6060,10 +6115,10 @@
     </row>
     <row customHeight="1" ht="15.75" r="56" s="35" spans="1:12" thickBot="1">
       <c r="A56" s="27" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="B56" s="30" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="C56" s="30" t="n"/>
       <c r="D56" s="27" t="n"/>
@@ -6072,7 +6127,7 @@
     </row>
     <row customHeight="1" ht="15.75" r="57" s="35" spans="1:12" thickBot="1">
       <c r="A57" s="9" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B57" s="10" t="n"/>
       <c r="C57" s="11" t="n"/>
@@ -6102,26 +6157,26 @@
     </row>
     <row r="59" spans="1:12">
       <c r="A59" s="28" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="B59" s="28" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="C59" s="20" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="D59" s="6" t="n"/>
       <c r="E59" s="28" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="F59" s="28" t="n"/>
     </row>
     <row r="60" spans="1:12">
       <c r="A60" s="29" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="B60" s="29" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="C60" s="21" t="n">
         <v>64684477</v>
@@ -6132,23 +6187,23 @@
     </row>
     <row customHeight="1" ht="15.75" r="61" s="35" spans="1:12" thickBot="1">
       <c r="A61" s="29" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="B61" s="29" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="C61" s="21" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="D61" s="7" t="n"/>
       <c r="E61" s="29" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="F61" s="29" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="62" s="35" spans="1:12" thickBot="1">
       <c r="A62" s="2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B62" s="3" t="n"/>
       <c r="C62" s="4" t="n"/>
@@ -6178,13 +6233,13 @@
     </row>
     <row r="64" spans="1:12">
       <c r="A64" s="28" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="B64" s="28" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="C64" s="20" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="D64" s="20" t="n">
         <v>20268121</v>
@@ -6194,13 +6249,13 @@
     </row>
     <row customHeight="1" ht="15.75" r="65" s="35" spans="1:12" thickBot="1">
       <c r="A65" s="29" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="B65" s="29" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="C65" s="21" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="D65" s="21" t="n"/>
       <c r="E65" s="21" t="n"/>
@@ -6208,7 +6263,7 @@
     </row>
     <row customHeight="1" ht="15.75" r="66" s="35" spans="1:12" thickBot="1">
       <c r="A66" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B66" s="3" t="n"/>
       <c r="C66" s="4" t="n"/>
@@ -6238,13 +6293,13 @@
     </row>
     <row customHeight="1" ht="15.75" r="68" s="35" spans="1:12" thickBot="1">
       <c r="A68" s="28" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="B68" s="28" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="C68" s="20" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="D68" s="20" t="n"/>
       <c r="E68" s="20" t="n"/>
@@ -6252,13 +6307,13 @@
     </row>
     <row customHeight="1" ht="15.75" r="69" s="35" spans="1:12" thickBot="1">
       <c r="A69" s="29" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="B69" s="29" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="C69" s="21" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D69" s="21" t="n"/>
       <c r="E69" s="21" t="n"/>
@@ -6267,13 +6322,13 @@
     </row>
     <row r="70" spans="1:12">
       <c r="A70" s="29" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="B70" s="29" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="C70" s="21" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D70" s="21" t="n"/>
       <c r="E70" s="21" t="n"/>
@@ -6281,13 +6336,13 @@
     </row>
     <row customHeight="1" ht="15.75" r="71" s="35" spans="1:12" thickBot="1">
       <c r="A71" s="30" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="B71" s="30" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="C71" s="27" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="D71" s="27" t="n"/>
       <c r="E71" s="27" t="n"/>
@@ -6404,7 +6459,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="34" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="2" s="35" spans="1:6" thickBot="1"/>
@@ -6440,26 +6495,26 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="28" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="C5" s="20" t="n">
         <v>116698</v>
       </c>
       <c r="D5" s="20" t="n"/>
       <c r="E5" s="28" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="F5" s="28" t="n"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="29" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="C6" s="21" t="n">
         <v>233001</v>
@@ -6468,36 +6523,36 @@
         <v>40529817</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="29" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="C7" s="21" t="n">
         <v>7840004</v>
       </c>
       <c r="D7" s="21" t="n"/>
       <c r="E7" s="29" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="F7" s="29" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="29" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="C8" s="21" t="n">
         <v>203044</v>
@@ -6506,47 +6561,47 @@
         <v>40767475</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="F8" s="29" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="29" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="C9" s="21" t="n">
         <v>194771</v>
       </c>
       <c r="D9" s="21" t="n"/>
       <c r="E9" s="29" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="F9" s="29" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="10" s="35" spans="1:6" thickBot="1">
       <c r="A10" s="30" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="C10" s="27" t="n"/>
       <c r="D10" s="27" t="n"/>
       <c r="E10" s="30" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="F10" s="30" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="11" s="35" spans="1:6" thickBot="1">
       <c r="A11" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B11" s="3" t="n"/>
       <c r="C11" s="4" t="n"/>
@@ -6576,26 +6631,26 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="29" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="C13" s="20" t="n">
         <v>88200</v>
       </c>
       <c r="D13" s="20" t="n"/>
       <c r="E13" s="28" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="F13" s="28" t="n"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="29" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="C14" s="21" t="n">
         <v>89258</v>
@@ -6604,16 +6659,16 @@
         <v>40529814</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="F14" s="29" t="n"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="29" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="C15" s="21" t="n">
         <v>106466</v>
@@ -6622,45 +6677,45 @@
         <v>40529954</v>
       </c>
       <c r="E15" s="29" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="F15" s="29" t="n"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="29" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="C16" s="21" t="n">
         <v>7840016</v>
       </c>
       <c r="D16" s="21" t="n"/>
       <c r="E16" s="29" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="F16" s="29" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="17" s="35" spans="1:6" thickBot="1">
       <c r="A17" s="29" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="C17" s="27" t="n">
         <v>126072</v>
       </c>
       <c r="D17" s="27" t="n"/>
       <c r="E17" s="30" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="F17" s="30" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="18" s="35" spans="1:6" thickBot="1">
       <c r="A18" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B18" s="3" t="n"/>
       <c r="C18" s="4" t="n"/>
@@ -6690,117 +6745,117 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="37" t="s">
-        <v>304</v>
-      </c>
-      <c r="B20" s="37" t="s"/>
-      <c r="C20" s="37" t="s"/>
+        <v>310</v>
+      </c>
+      <c r="B20" s="37" t="n"/>
+      <c r="C20" s="37" t="n"/>
       <c r="D20" s="37" t="n">
         <v>0</v>
       </c>
-      <c r="E20" s="37" t="s"/>
-      <c r="F20" s="37" t="s"/>
+      <c r="E20" s="37" t="n"/>
+      <c r="F20" s="37" t="n"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="28" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="D21" s="20" t="n">
         <v>40053659</v>
       </c>
       <c r="E21" s="28" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="F21" s="28" t="n"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="29" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="D22" s="21" t="n"/>
       <c r="E22" s="29" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F22" s="29" t="n"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="29" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="D23" s="21" t="n"/>
       <c r="E23" s="29" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="F23" s="29" t="n"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="29" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="C24" s="21" t="n">
         <v>231195</v>
       </c>
       <c r="D24" s="21" t="n"/>
       <c r="E24" s="29" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="F24" s="29" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="25" s="35" spans="1:6" thickBot="1">
       <c r="A25" s="29" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="C25" s="21" t="n">
         <v>209869</v>
       </c>
       <c r="D25" s="21" t="n"/>
       <c r="E25" s="29" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="F25" s="29" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="26" s="35" spans="1:6" thickBot="1">
       <c r="A26" s="30" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="B26" s="30" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="C26" s="27" t="n">
         <v>190149</v>
       </c>
       <c r="D26" s="27" t="n"/>
       <c r="E26" s="30" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="F26" s="30" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="27" s="35" spans="1:6" thickBot="1">
       <c r="A27" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B27" s="3" t="n"/>
       <c r="C27" s="4" t="n"/>
@@ -6830,185 +6885,185 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="37" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="B29" s="37" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C29" s="37" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="D29" s="38" t="n">
         <v>34355</v>
       </c>
       <c r="E29" s="37" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="F29" s="37" t="s">
-        <v>317</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="29" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="B30" s="29" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C30" s="29" t="n"/>
       <c r="D30" s="21" t="n">
         <v>20497539</v>
       </c>
       <c r="E30" s="29" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="F30" s="29" t="n"/>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="29" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="B31" s="29" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C31" s="29" t="n"/>
       <c r="D31" s="21" t="n"/>
       <c r="E31" s="29" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="F31" s="29" t="n"/>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="29" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="B32" s="29" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C32" s="29" t="n"/>
       <c r="D32" s="21" t="n"/>
       <c r="E32" s="29" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="F32" s="29" t="n"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="29" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="B33" s="29" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C33" s="29" t="n"/>
       <c r="D33" s="21" t="n"/>
       <c r="E33" s="29" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="F33" s="29" t="n"/>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="29" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="B34" s="29" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C34" s="29" t="n"/>
       <c r="D34" s="21" t="n"/>
       <c r="E34" s="29" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="F34" s="29" t="n"/>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="29" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="B35" s="29" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C35" s="29" t="n"/>
       <c r="D35" s="21" t="n"/>
       <c r="E35" s="29" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="F35" s="29" t="n"/>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="29" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="B36" s="29" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C36" s="29" t="n"/>
       <c r="D36" s="21" t="n"/>
       <c r="E36" s="29" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="F36" s="29" t="n"/>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="29" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="B37" s="29" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C37" s="29" t="n"/>
       <c r="D37" s="21" t="n">
         <v>20408068</v>
       </c>
       <c r="E37" s="29" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="F37" s="29" t="n"/>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="29" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="B38" s="29" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C38" s="29" t="n"/>
       <c r="D38" s="21" t="n"/>
       <c r="E38" s="29" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="F38" s="29" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="39" s="35" spans="1:6" thickBot="1">
       <c r="A39" s="29" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="B39" s="29" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C39" s="29" t="n"/>
       <c r="D39" s="21" t="n"/>
       <c r="E39" s="29" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="F39" s="29" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="40" s="35" spans="1:6" thickBot="1">
       <c r="A40" s="27" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="B40" s="30" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C40" s="30" t="n"/>
       <c r="D40" s="30" t="n"/>
       <c r="E40" s="30" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="F40" s="30" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="41" s="35" spans="1:6" thickBot="1">
       <c r="A41" s="9" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B41" s="10" t="n"/>
       <c r="C41" s="11" t="n"/>
@@ -7038,13 +7093,13 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="28" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="B43" s="28" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="D43" s="28" t="n"/>
       <c r="E43" s="28" t="n"/>
@@ -7052,13 +7107,13 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="29" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="B44" s="29" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="C44" s="21" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="D44" s="29" t="n"/>
       <c r="E44" s="29" t="n"/>
@@ -7066,13 +7121,13 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="29" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="B45" s="29" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="C45" s="21" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="D45" s="29" t="n"/>
       <c r="E45" s="29" t="n"/>
@@ -7080,37 +7135,37 @@
     </row>
     <row customHeight="1" ht="15.75" r="46" s="35" spans="1:6" thickBot="1">
       <c r="A46" s="29" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="B46" s="29" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C46" s="21" t="n"/>
       <c r="D46" s="29" t="n"/>
       <c r="E46" s="29" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="F46" s="29" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="47" s="35" spans="1:6" thickBot="1">
       <c r="A47" s="30" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="B47" s="30" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="C47" s="27" t="n">
         <v>120602</v>
       </c>
       <c r="D47" s="30" t="n"/>
       <c r="E47" s="30" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="F47" s="30" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="48" s="35" spans="1:6" thickBot="1">
       <c r="A48" s="2" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B48" s="3" t="n"/>
       <c r="C48" s="4" t="n"/>
@@ -7140,10 +7195,10 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="28" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="B50" s="28" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="C50" s="20" t="n">
         <v>21553</v>
@@ -7151,18 +7206,18 @@
       <c r="D50" s="28" t="n"/>
       <c r="E50" s="28" t="n"/>
       <c r="F50" s="28" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="29" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="B51" s="29" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="C51" s="21" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="D51" s="29" t="n"/>
       <c r="E51" s="29" t="n"/>
@@ -7170,56 +7225,56 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="29" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="B52" s="29" t="n"/>
       <c r="C52" s="21" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="D52" s="29" t="n"/>
       <c r="E52" s="29" t="n"/>
       <c r="F52" s="29" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="29" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="B53" s="29" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="C53" s="21" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="D53" s="29" t="n"/>
       <c r="E53" s="29" t="n"/>
       <c r="F53" s="29" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="29" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="B54" s="29" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="C54" s="21" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="D54" s="29" t="n"/>
       <c r="E54" s="29" t="n"/>
       <c r="F54" s="29" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="55" s="35" spans="1:6" thickBot="1">
       <c r="A55" s="29" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="B55" s="29" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="C55" s="21" t="n">
         <v>1024</v>
@@ -7227,28 +7282,28 @@
       <c r="D55" s="29" t="n"/>
       <c r="E55" s="29" t="n"/>
       <c r="F55" s="29" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="56" s="35" spans="1:6" thickBot="1">
       <c r="A56" s="30" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="B56" s="30" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="C56" s="27" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="D56" s="30" t="n"/>
       <c r="E56" s="30" t="n"/>
       <c r="F56" s="30" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="57" s="35" spans="1:6" thickBot="1">
       <c r="A57" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B57" s="3" t="n"/>
       <c r="C57" s="4" t="n"/>
@@ -7278,138 +7333,138 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="28" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="B59" s="28" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="C59" s="20" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="D59" s="6" t="n"/>
       <c r="E59" s="28" t="n"/>
       <c r="F59" s="28" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="29" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="B60" s="29" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C60" s="21" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="D60" s="7" t="n"/>
       <c r="E60" s="29" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="F60" s="29" t="n"/>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="29" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="B61" s="29" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C61" s="21" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="D61" s="7" t="n"/>
       <c r="E61" s="29" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="F61" s="29" t="n"/>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="29" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="B62" s="29" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C62" s="21" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="D62" s="7" t="n"/>
       <c r="E62" s="29" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="F62" s="29" t="n"/>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="29" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="B63" s="29" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C63" s="21" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="D63" s="7" t="n"/>
       <c r="E63" s="29" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="F63" s="29" t="n"/>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="29" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="B64" s="29" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="C64" s="21" t="n">
         <v>44223657</v>
       </c>
       <c r="D64" s="7" t="n"/>
       <c r="E64" s="29" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="F64" s="29" t="n"/>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="29" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="B65" s="29" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C65" s="21" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="D65" s="7" t="n"/>
       <c r="E65" s="29" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="F65" s="29" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="66" s="35" spans="1:6" thickBot="1">
       <c r="A66" s="29" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="B66" s="29" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C66" s="21" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="D66" s="7" t="n"/>
       <c r="E66" s="29" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="F66" s="29" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="67" s="35" spans="1:6" thickBot="1">
       <c r="A67" s="27" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="B67" s="29" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="C67" s="27" t="n">
         <v>906393</v>
@@ -7418,13 +7473,13 @@
         <v>20225727</v>
       </c>
       <c r="E67" s="29" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="F67" s="30" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="68" s="35" spans="1:6" thickBot="1">
       <c r="A68" s="2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B68" s="3" t="n"/>
       <c r="C68" s="4" t="n"/>
@@ -7454,44 +7509,44 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="28" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="B70" s="28" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C70" s="20" t="n">
         <v>45128</v>
       </c>
       <c r="D70" s="20" t="n"/>
       <c r="E70" s="20" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="F70" s="28" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="29" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="B71" s="29" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C71" s="21" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="D71" s="21" t="n"/>
       <c r="E71" s="21" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="F71" s="29" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="72" s="35" spans="1:6" thickBot="1">
       <c r="A72" s="29" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="B72" s="29" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="C72" s="21" t="n">
         <v>95903</v>
@@ -7503,15 +7558,15 @@
         <v>95903</v>
       </c>
       <c r="F72" s="29" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="73" s="35" spans="1:6" thickBot="1">
       <c r="A73" s="30" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="B73" s="30" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="C73" s="27" t="n"/>
       <c r="D73" s="27" t="n">
@@ -7519,12 +7574,12 @@
       </c>
       <c r="E73" s="27" t="n"/>
       <c r="F73" s="30" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="74" s="35" spans="1:6" thickBot="1">
       <c r="A74" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B74" s="3" t="n"/>
       <c r="C74" s="4" t="n"/>
@@ -7554,83 +7609,83 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="28" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="B76" s="28" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C76" s="20" t="n"/>
       <c r="D76" s="20" t="n">
         <v>40115241</v>
       </c>
       <c r="E76" s="28" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="F76" s="28" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="29" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="B77" s="29" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C77" s="21" t="n"/>
       <c r="D77" s="21" t="n">
         <v>40529710</v>
       </c>
       <c r="E77" s="29" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="F77" s="29" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="29" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="B78" s="29" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C78" s="21" t="n"/>
       <c r="D78" s="21" t="n"/>
       <c r="E78" s="29" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="F78" s="29" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="79" s="35" spans="1:6" thickBot="1">
       <c r="A79" s="29" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="B79" s="29" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C79" s="21" t="n"/>
       <c r="D79" s="21" t="n"/>
       <c r="E79" s="29" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="F79" s="29" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="30" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="B80" s="30" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="C80" s="27" t="n"/>
       <c r="D80" s="27" t="n"/>
       <c r="E80" s="30" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="F80" s="30" t="n"/>
     </row>
@@ -7667,7 +7722,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="34" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="2" s="35" spans="1:6" thickBot="1"/>
@@ -7703,29 +7758,29 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="28" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="D5" s="20" t="n"/>
       <c r="E5" s="28" t="n"/>
       <c r="F5" s="28" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="29" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="D6" s="21" t="n"/>
       <c r="E6" s="29" t="n"/>
@@ -7733,103 +7788,103 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="29" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="D7" s="21" t="n"/>
       <c r="E7" s="29" t="n"/>
       <c r="F7" s="29" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="29" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C8" s="21" t="n"/>
       <c r="D8" s="21" t="n"/>
       <c r="E8" s="29" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="F8" s="29" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="29" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="D9" s="21" t="n"/>
       <c r="E9" s="29" t="n"/>
       <c r="F9" s="29" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="29" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="D10" s="21" t="n"/>
       <c r="E10" s="29" t="n"/>
       <c r="F10" s="29" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="21" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="D11" s="29" t="n"/>
       <c r="E11" s="29" t="n"/>
       <c r="F11" s="29" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="12" s="35" spans="1:6" thickBot="1">
       <c r="A12" s="27" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="D12" s="16" t="n"/>
       <c r="E12" s="16" t="n"/>
       <c r="F12" s="27" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="13" s="35" spans="1:6" thickBot="1">
       <c r="A13" s="9" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B13" s="10" t="n"/>
       <c r="C13" s="11" t="n"/>
@@ -7859,43 +7914,43 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="28" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="C15" s="20" t="n"/>
       <c r="D15" s="20" t="n"/>
       <c r="E15" s="28" t="n"/>
       <c r="F15" s="28" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="29" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="D16" s="21" t="n"/>
       <c r="E16" s="29" t="n"/>
       <c r="F16" s="29" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="29" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="D17" s="21" t="n"/>
       <c r="E17" s="29" t="n"/>
@@ -7903,87 +7958,87 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="29" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="D18" s="21" t="n"/>
       <c r="E18" s="29" t="n"/>
       <c r="F18" s="29" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="29" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="D19" s="21" t="n"/>
       <c r="E19" s="29" t="n"/>
       <c r="F19" s="29" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="21" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="D20" s="29" t="n"/>
       <c r="E20" s="29" t="n"/>
       <c r="F20" s="29" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="21" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="D21" s="17" t="n"/>
       <c r="E21" s="17" t="n"/>
       <c r="F21" s="21" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="22" s="35" spans="1:6" thickBot="1">
       <c r="A22" s="30" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="B22" s="30" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="D22" s="27" t="n"/>
       <c r="E22" s="30" t="n"/>
       <c r="F22" s="30" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="23" s="35" spans="1:6" thickBot="1">
       <c r="A23" s="9" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B23" s="10" t="n"/>
       <c r="C23" s="11" t="n"/>
@@ -8013,79 +8068,79 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="28" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="D25" s="20" t="n"/>
       <c r="E25" s="28" t="n"/>
       <c r="F25" s="28" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="29" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="B26" s="29" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="D26" s="21" t="n"/>
       <c r="E26" s="29" t="n"/>
       <c r="F26" s="29" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="29" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="B27" s="29" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="D27" s="21" t="n">
         <v>20263950</v>
       </c>
       <c r="E27" s="29" t="n"/>
       <c r="F27" s="29" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="29" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="B28" s="29" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="D28" s="21" t="n"/>
       <c r="E28" s="29" t="n"/>
       <c r="F28" s="29" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="29" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="B29" s="29" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="D29" s="21" t="n"/>
       <c r="E29" s="29" t="n"/>
@@ -8093,13 +8148,13 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="29" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="B30" s="29" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="D30" s="21" t="n"/>
       <c r="E30" s="29" t="n"/>
@@ -8107,13 +8162,13 @@
     </row>
     <row customHeight="1" ht="15.75" r="31" s="35" spans="1:6" thickBot="1">
       <c r="A31" s="27" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="B31" s="30" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C31" s="27" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="D31" s="30" t="n"/>
       <c r="E31" s="30" t="n"/>
@@ -8121,7 +8176,7 @@
     </row>
     <row customHeight="1" ht="15.75" r="32" s="35" spans="1:6" thickBot="1">
       <c r="A32" s="9" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B32" s="10" t="n"/>
       <c r="C32" s="11" t="n"/>
@@ -8151,13 +8206,13 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="28" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="B34" s="28" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C34" s="28" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="D34" s="20" t="n">
         <v>40529448</v>
@@ -8167,31 +8222,31 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="29" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="B35" s="29" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="C35" s="29" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="D35" s="21" t="n">
         <v>40789692</v>
       </c>
       <c r="E35" s="29" t="n"/>
       <c r="F35" s="29" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="29" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="B36" s="29" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="C36" s="29" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="D36" s="21" t="n"/>
       <c r="E36" s="29" t="n"/>
@@ -8199,13 +8254,13 @@
     </row>
     <row customHeight="1" ht="15.75" r="37" s="35" spans="1:6" thickBot="1">
       <c r="A37" s="29" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="B37" s="29" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="C37" s="29" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="D37" s="21" t="n"/>
       <c r="E37" s="29" t="n"/>
@@ -8213,7 +8268,7 @@
     </row>
     <row customHeight="1" ht="15.75" r="38" s="35" spans="1:6" thickBot="1">
       <c r="A38" s="2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B38" s="3" t="n"/>
       <c r="C38" s="4" t="n"/>
@@ -8243,13 +8298,13 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="29" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="C40" s="29" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="D40" s="21" t="n">
         <v>2033604</v>
@@ -8259,13 +8314,13 @@
     </row>
     <row customHeight="1" ht="15.75" r="41" s="35" spans="1:6" thickBot="1">
       <c r="A41" s="29" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="C41" s="29" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="D41" s="21" t="n"/>
       <c r="E41" s="29" t="n"/>
@@ -8273,7 +8328,7 @@
     </row>
     <row customHeight="1" ht="15.75" r="42" s="35" spans="1:6" thickBot="1">
       <c r="A42" s="2" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B42" s="3" t="n"/>
       <c r="C42" s="4" t="n"/>
@@ -8311,7 +8366,7 @@
     </row>
     <row customHeight="1" ht="15.75" r="45" s="35" spans="1:6" thickBot="1">
       <c r="A45" s="9" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B45" s="10" t="n"/>
       <c r="C45" s="11" t="n"/>
@@ -8349,7 +8404,7 @@
     </row>
     <row customHeight="1" ht="15.75" r="48" s="35" spans="1:6" thickBot="1">
       <c r="A48" s="9" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B48" s="10" t="n"/>
       <c r="C48" s="11" t="n"/>
@@ -8379,11 +8434,11 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="28" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="B50" s="28" t="n"/>
       <c r="C50" s="20" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="D50" s="20" t="n">
         <v>40591666</v>
@@ -8393,11 +8448,11 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="29" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="B51" s="29" t="n"/>
       <c r="C51" s="21" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="D51" s="21" t="n">
         <v>40533656</v>
@@ -8407,19 +8462,19 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="29" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="B52" s="29" t="n"/>
       <c r="C52" s="21" t="n"/>
       <c r="D52" s="21" t="n"/>
       <c r="E52" s="21" t="n"/>
       <c r="F52" s="29" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="53" s="35" spans="1:6" thickBot="1">
       <c r="A53" s="30" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="B53" s="30" t="n"/>
       <c r="C53" s="27" t="n"/>
@@ -8428,12 +8483,12 @@
       </c>
       <c r="E53" s="27" t="n"/>
       <c r="F53" s="30" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="54" s="35" spans="1:6" thickBot="1">
       <c r="A54" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B54" s="3" t="n"/>
       <c r="C54" s="4" t="n"/>
@@ -8463,13 +8518,13 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="28" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="B56" s="28" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="C56" s="20" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="D56" s="20" t="n">
         <v>40529639</v>
@@ -8479,13 +8534,13 @@
     </row>
     <row customHeight="1" ht="15.75" r="57" s="35" spans="1:6" thickBot="1">
       <c r="A57" s="30" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="B57" s="30" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="C57" s="27" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="D57" s="27" t="n"/>
       <c r="E57" s="30" t="n"/>
@@ -8652,7 +8707,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="34" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="2" s="35" spans="1:6" thickBot="1"/>
@@ -8688,13 +8743,13 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="28" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="D5" s="20" t="n"/>
       <c r="E5" s="28" t="n"/>
@@ -8702,13 +8757,13 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="29" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="D6" s="21" t="n"/>
       <c r="E6" s="29" t="n"/>
@@ -8716,19 +8771,19 @@
     </row>
     <row customHeight="1" ht="15.75" r="7" s="35" spans="1:6" thickBot="1">
       <c r="A7" s="29" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="B7" s="29" t="n"/>
       <c r="C7" s="21" t="n"/>
       <c r="D7" s="21" t="n"/>
       <c r="E7" s="29" t="n"/>
       <c r="F7" s="29" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="8" s="35" spans="1:6" thickBot="1">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B8" s="3" t="n"/>
       <c r="C8" s="4" t="n"/>
@@ -8758,108 +8813,108 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="20" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="B10" s="20" t="n"/>
       <c r="C10" s="20" t="n"/>
       <c r="D10" s="20" t="n"/>
       <c r="E10" s="28" t="n"/>
       <c r="F10" s="20" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="21" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="B11" s="21" t="n"/>
       <c r="C11" s="21" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="D11" s="21" t="n"/>
       <c r="E11" s="29" t="n"/>
       <c r="F11" s="21" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="21" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="D12" s="21" t="n"/>
       <c r="E12" s="29" t="n"/>
       <c r="F12" s="21" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="21" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="D13" s="21" t="n"/>
       <c r="E13" s="29" t="n"/>
       <c r="F13" s="21" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="21" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="C14" s="21" t="n"/>
       <c r="D14" s="21" t="n"/>
       <c r="E14" s="29" t="n"/>
       <c r="F14" s="21" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="21" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="B15" s="21" t="n"/>
       <c r="C15" s="29" t="n"/>
       <c r="D15" s="29" t="n"/>
       <c r="E15" s="29" t="n"/>
       <c r="F15" s="21" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="21" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C16" s="17" t="n"/>
       <c r="D16" s="17" t="n"/>
       <c r="E16" s="17" t="n"/>
       <c r="F16" s="21" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="21" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="C17" s="21" t="n">
         <v>6356048</v>
@@ -8867,28 +8922,28 @@
       <c r="D17" s="21" t="n"/>
       <c r="E17" s="29" t="n"/>
       <c r="F17" s="21" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="18" s="35" spans="1:6" thickBot="1">
       <c r="A18" s="27" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="D18" s="27" t="n"/>
       <c r="E18" s="30" t="n"/>
       <c r="F18" s="27" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="19" s="35" spans="1:6" thickBot="1">
       <c r="A19" s="9" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B19" s="10" t="n"/>
       <c r="C19" s="11" t="n"/>
@@ -8918,7 +8973,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="32" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="B21" s="32" t="n"/>
       <c r="C21" s="33" t="n"/>
@@ -8930,13 +8985,13 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="29" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="D22" s="21" t="n"/>
       <c r="E22" s="29" t="n"/>
@@ -8944,13 +8999,13 @@
     </row>
     <row customHeight="1" ht="15.75" r="23" s="35" spans="1:6" thickBot="1">
       <c r="A23" s="29" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="D23" s="21" t="n"/>
       <c r="E23" s="29" t="n"/>
@@ -8958,7 +9013,7 @@
     </row>
     <row customHeight="1" ht="15.75" r="24" s="35" spans="1:6" thickBot="1">
       <c r="A24" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B24" s="3" t="n"/>
       <c r="C24" s="4" t="n"/>
@@ -8988,13 +9043,13 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="28" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="C26" s="28" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="D26" s="20" t="n">
         <v>40726083</v>
@@ -9004,13 +9059,13 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="21" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="C27" s="29" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="D27" s="21" t="n"/>
       <c r="E27" s="29" t="n"/>
@@ -9018,13 +9073,13 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="21" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="C28" s="29" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="D28" s="21" t="n"/>
       <c r="E28" s="17" t="n"/>
@@ -9032,31 +9087,31 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="21" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="C29" s="29" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="D29" s="21" t="n">
         <v>41127143</v>
       </c>
       <c r="E29" s="17" t="n"/>
       <c r="F29" s="21" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="21" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="C30" s="29" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="D30" s="21" t="n"/>
       <c r="E30" s="29" t="n"/>
@@ -9064,13 +9119,13 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="21" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="C31" s="29" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="D31" s="21" t="n"/>
       <c r="E31" s="29" t="n"/>
@@ -9078,13 +9133,13 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="21" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="C32" s="29" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="D32" s="21" t="n"/>
       <c r="E32" s="29" t="n"/>
@@ -9092,13 +9147,13 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="21" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="C33" s="29" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="D33" s="21" t="n"/>
       <c r="E33" s="29" t="n"/>
@@ -9106,13 +9161,13 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="21" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="C34" s="29" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="D34" s="21" t="n"/>
       <c r="E34" s="29" t="n"/>
@@ -9120,13 +9175,13 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="21" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="C35" s="29" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="D35" s="21" t="n"/>
       <c r="E35" s="29" t="n"/>
@@ -9134,13 +9189,13 @@
     </row>
     <row customHeight="1" ht="15.75" r="36" s="35" spans="1:6" thickBot="1">
       <c r="A36" s="27" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="B36" s="27" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="C36" s="30" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="30" t="n"/>
@@ -9148,7 +9203,7 @@
     </row>
     <row customHeight="1" ht="15.75" r="37" s="35" spans="1:6" thickBot="1">
       <c r="A37" s="9" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B37" s="10" t="n"/>
       <c r="C37" s="11" t="n"/>
@@ -9178,13 +9233,13 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="28" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="D39" s="28" t="n"/>
       <c r="E39" s="28" t="n"/>
@@ -9192,13 +9247,13 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="29" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="D40" s="29" t="n"/>
       <c r="E40" s="29" t="n"/>
@@ -9206,13 +9261,13 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="29" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="C41" s="21" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="D41" s="17" t="n"/>
       <c r="E41" s="17" t="n"/>
@@ -9220,13 +9275,13 @@
     </row>
     <row customHeight="1" ht="15.75" r="42" s="35" spans="1:6" thickBot="1">
       <c r="A42" s="30" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="B42" s="27" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="C42" s="27" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="D42" s="30" t="n"/>
       <c r="E42" s="30" t="n"/>
@@ -9234,7 +9289,7 @@
     </row>
     <row customHeight="1" ht="15.75" r="43" s="35" spans="1:6" thickBot="1">
       <c r="A43" s="9" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B43" s="10" t="n"/>
       <c r="C43" s="11" t="n"/>
@@ -9264,13 +9319,13 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="20" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="D45" s="20" t="n">
         <v>2206375</v>
@@ -9280,13 +9335,13 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="21" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="B46" s="21" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="C46" s="21" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="D46" s="21" t="n">
         <v>20530237</v>
@@ -9296,13 +9351,13 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="21" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="B47" s="21" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="C47" s="21" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="D47" s="21" t="n"/>
       <c r="E47" s="29" t="n"/>
@@ -9310,13 +9365,13 @@
     </row>
     <row customHeight="1" ht="15.75" r="48" s="35" spans="1:6" thickBot="1">
       <c r="A48" s="27" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="B48" s="27" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="C48" s="27" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="D48" s="27" t="n">
         <v>20492096</v>
@@ -9326,7 +9381,7 @@
     </row>
     <row customHeight="1" ht="15.75" r="49" s="35" spans="1:6" thickBot="1">
       <c r="A49" s="9" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B49" s="10" t="n"/>
       <c r="C49" s="11" t="n"/>
@@ -9356,13 +9411,13 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="28" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="B51" s="28" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="C51" s="20" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="D51" s="6" t="n"/>
       <c r="E51" s="28" t="n"/>
@@ -9370,13 +9425,13 @@
     </row>
     <row customHeight="1" ht="15.75" r="52" s="35" spans="1:6" thickBot="1">
       <c r="A52" s="29" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="B52" s="29" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="C52" s="21" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="D52" s="7" t="n"/>
       <c r="E52" s="29" t="n"/>
@@ -9384,7 +9439,7 @@
     </row>
     <row customHeight="1" ht="15.75" r="53" s="35" spans="1:6" thickBot="1">
       <c r="A53" s="2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B53" s="3" t="n"/>
       <c r="C53" s="4" t="n"/>
@@ -9414,29 +9469,29 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="20" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="B55" s="28" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="C55" s="20" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="D55" s="20" t="n"/>
       <c r="E55" s="20" t="n"/>
       <c r="F55" s="28" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="21" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="B56" s="29" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="C56" s="21" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="D56" s="21" t="n"/>
       <c r="E56" s="21" t="n"/>
@@ -9444,29 +9499,29 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="21" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="B57" s="29" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="C57" s="21" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="D57" s="21" t="n"/>
       <c r="E57" s="21" t="n"/>
       <c r="F57" s="29" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="21" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="B58" s="29" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="C58" s="21" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="D58" s="21" t="n"/>
       <c r="E58" s="21" t="n"/>
@@ -9474,13 +9529,13 @@
     </row>
     <row customHeight="1" ht="15.75" r="59" s="35" spans="1:6" thickBot="1">
       <c r="A59" s="27" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="B59" s="30" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="C59" s="27" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="D59" s="30" t="n"/>
       <c r="E59" s="30" t="n"/>
@@ -9488,7 +9543,7 @@
     </row>
     <row customHeight="1" ht="15.75" r="60" s="35" spans="1:6" thickBot="1">
       <c r="A60" s="9" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B60" s="10" t="n"/>
       <c r="C60" s="11" t="n"/>
@@ -9518,13 +9573,13 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="28" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="B62" s="28" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="C62" s="20" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="D62" s="20" t="n"/>
       <c r="E62" s="28" t="n"/>
@@ -9532,13 +9587,13 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="29" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="B63" s="29" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="C63" s="21" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="D63" s="21" t="n"/>
       <c r="E63" s="29" t="n"/>
@@ -9546,13 +9601,13 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="29" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="B64" s="29" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="C64" s="21" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="D64" s="21" t="n"/>
       <c r="E64" s="29" t="n"/>
@@ -9560,13 +9615,13 @@
     </row>
     <row customHeight="1" ht="15.75" r="65" s="35" spans="1:6" thickBot="1">
       <c r="A65" s="30" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="B65" s="30" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="C65" s="27" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="D65" s="27" t="n">
         <v>20493517</v>
@@ -9686,7 +9741,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="34" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="2" s="35" spans="1:6" thickBot="1"/>
@@ -9722,24 +9777,24 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="28" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="C5" s="20" t="n"/>
       <c r="D5" s="20" t="n"/>
       <c r="E5" s="28" t="n"/>
       <c r="F5" s="28" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="29" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="C6" s="21" t="n">
         <v>228011</v>
@@ -9750,13 +9805,13 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="29" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="D7" s="21" t="n"/>
       <c r="E7" s="29" t="n"/>
@@ -9764,13 +9819,13 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="29" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="D8" s="21" t="n"/>
       <c r="E8" s="29" t="n"/>
@@ -9778,10 +9833,10 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="29" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="C9" s="21" t="n">
         <v>228111</v>
@@ -9792,27 +9847,27 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="29" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="B10" s="29" t="n"/>
       <c r="C10" s="21" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="D10" s="21" t="n"/>
       <c r="E10" s="29" t="n"/>
       <c r="F10" s="29" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="11" s="35" spans="1:6" thickBot="1">
       <c r="A11" s="27" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="D11" s="30" t="n"/>
       <c r="E11" s="30" t="n"/>
@@ -9820,7 +9875,7 @@
     </row>
     <row customHeight="1" ht="15.75" r="12" s="35" spans="1:6" thickBot="1">
       <c r="A12" s="9" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B12" s="10" t="n"/>
       <c r="C12" s="11" t="n"/>
@@ -9850,13 +9905,13 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="20" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="D14" s="23" t="n"/>
       <c r="E14" s="23" t="n"/>
@@ -9864,45 +9919,45 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="21" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="D15" s="21" t="n"/>
       <c r="E15" s="29" t="n"/>
       <c r="F15" s="21" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="21" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="D16" s="21" t="n"/>
       <c r="E16" s="29" t="n"/>
       <c r="F16" s="21" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="21" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="D17" s="21" t="n"/>
       <c r="E17" s="29" t="n"/>
@@ -9910,77 +9965,77 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="21" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="D18" s="21" t="n"/>
       <c r="E18" s="29" t="n"/>
       <c r="F18" s="21" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="21" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="D19" s="21" t="n"/>
       <c r="E19" s="29" t="n"/>
       <c r="F19" s="21" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="21" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="D20" s="29" t="n"/>
       <c r="E20" s="29" t="n"/>
       <c r="F20" s="21" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="21" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="D21" s="17" t="n"/>
       <c r="E21" s="17" t="n"/>
       <c r="F21" s="21" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="21" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="D22" s="21" t="n"/>
       <c r="E22" s="29" t="n"/>
@@ -9988,13 +10043,13 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="21" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="D23" s="29" t="n"/>
       <c r="E23" s="29" t="n"/>
@@ -10002,10 +10057,10 @@
     </row>
     <row customHeight="1" ht="15.75" r="24" s="35" spans="1:6" thickBot="1">
       <c r="A24" s="27" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="C24" s="27" t="n">
         <v>110051</v>
@@ -10016,7 +10071,7 @@
     </row>
     <row customHeight="1" ht="15.75" r="25" s="35" spans="1:6" thickBot="1">
       <c r="A25" s="9" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B25" s="10" t="n"/>
       <c r="C25" s="11" t="n"/>
@@ -10046,7 +10101,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="20" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="B27" s="20" t="n"/>
       <c r="C27" s="20" t="n">
@@ -10055,12 +10110,12 @@
       <c r="D27" s="20" t="n"/>
       <c r="E27" s="28" t="n"/>
       <c r="F27" s="28" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="21" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="B28" s="21" t="n"/>
       <c r="C28" s="21" t="n">
@@ -10069,18 +10124,18 @@
       <c r="D28" s="21" t="n"/>
       <c r="E28" s="29" t="n"/>
       <c r="F28" s="29" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="21" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="D29" s="21" t="n"/>
       <c r="E29" s="29" t="n"/>
@@ -10088,29 +10143,29 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="21" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="D30" s="21" t="n"/>
       <c r="E30" s="29" t="n"/>
       <c r="F30" s="29" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="21" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="D31" s="21" t="n">
         <v>40525991</v>
@@ -10120,29 +10175,29 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="21" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="D32" s="21" t="n"/>
       <c r="E32" s="29" t="n"/>
       <c r="F32" s="29" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="21" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="D33" s="18" t="n"/>
       <c r="E33" s="17" t="n"/>
@@ -10150,13 +10205,13 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="21" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="D34" s="21" t="n"/>
       <c r="E34" s="29" t="n"/>
@@ -10164,13 +10219,13 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="21" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="D35" s="21" t="n"/>
       <c r="E35" s="29" t="n"/>
@@ -10178,13 +10233,13 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="21" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="B36" s="21" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="D36" s="21" t="n"/>
       <c r="E36" s="29" t="n"/>
@@ -10192,13 +10247,13 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="21" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="D37" s="21" t="n"/>
       <c r="E37" s="29" t="n"/>
@@ -10206,13 +10261,13 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="21" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="C38" s="21" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="D38" s="21" t="n">
         <v>20404654</v>
@@ -10222,13 +10277,13 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="21" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C39" s="21" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="D39" s="18" t="n"/>
       <c r="E39" s="17" t="n"/>
@@ -10236,13 +10291,13 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="21" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="D40" s="21" t="n"/>
       <c r="E40" s="29" t="n"/>
@@ -10250,13 +10305,13 @@
     </row>
     <row customHeight="1" ht="15.75" r="41" s="35" spans="1:6" thickBot="1">
       <c r="A41" s="21" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="C41" s="21" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="D41" s="21" t="n"/>
       <c r="E41" s="29" t="n"/>
@@ -10264,7 +10319,7 @@
     </row>
     <row customHeight="1" ht="15.75" r="42" s="35" spans="1:6" thickBot="1">
       <c r="A42" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B42" s="3" t="n"/>
       <c r="C42" s="4" t="n"/>
@@ -10294,13 +10349,13 @@
     </row>
     <row customHeight="1" ht="15.75" r="44" s="35" spans="1:6" thickBot="1">
       <c r="A44" s="25" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="B44" s="25" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="C44" s="31" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="D44" s="31" t="n">
         <v>40753876</v>
@@ -10310,7 +10365,7 @@
     </row>
     <row customHeight="1" ht="15.75" r="45" s="35" spans="1:6" thickBot="1">
       <c r="A45" s="9" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B45" s="10" t="n"/>
       <c r="C45" s="11" t="n"/>
@@ -10340,13 +10395,13 @@
     </row>
     <row customHeight="1" ht="15.75" r="47" s="35" spans="1:6" thickBot="1">
       <c r="A47" s="29" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="B47" s="29" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="C47" s="29" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="D47" s="21" t="n"/>
       <c r="E47" s="29" t="n"/>
@@ -10354,7 +10409,7 @@
     </row>
     <row customHeight="1" ht="15.75" r="48" s="35" spans="1:6" thickBot="1">
       <c r="A48" s="2" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B48" s="3" t="n"/>
       <c r="C48" s="4" t="n"/>
@@ -10384,10 +10439,10 @@
     </row>
     <row customHeight="1" ht="15.75" r="50" s="35" spans="1:6" thickBot="1">
       <c r="A50" s="36" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="B50" s="37" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="C50" s="37" t="n"/>
       <c r="D50" s="37" t="n">
@@ -10398,7 +10453,7 @@
     </row>
     <row customHeight="1" ht="15.75" r="51" s="35" spans="1:6" thickBot="1">
       <c r="A51" s="9" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B51" s="10" t="n"/>
       <c r="C51" s="11" t="n"/>
@@ -10436,7 +10491,7 @@
     </row>
     <row customHeight="1" ht="15.75" r="54" s="35" spans="1:6" thickBot="1">
       <c r="A54" s="9" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B54" s="10" t="n"/>
       <c r="C54" s="11" t="n"/>
@@ -10474,7 +10529,7 @@
     </row>
     <row customHeight="1" ht="15.75" r="57" s="35" spans="1:6" thickBot="1">
       <c r="A57" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B57" s="3" t="n"/>
       <c r="C57" s="4" t="n"/>
@@ -10504,47 +10559,47 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="20" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B59" s="20" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="C59" s="28" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="D59" s="20" t="n">
         <v>40528338</v>
       </c>
       <c r="E59" s="28" t="n"/>
       <c r="F59" s="20" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="21" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B60" s="21" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="C60" s="29" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="D60" s="21" t="n"/>
       <c r="E60" s="29" t="n"/>
       <c r="F60" s="21" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="21" t="s">
+        <v>619</v>
+      </c>
+      <c r="B61" s="21" t="s">
         <v>614</v>
       </c>
-      <c r="B61" s="21" t="s">
-        <v>609</v>
-      </c>
       <c r="C61" s="29" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="D61" s="21" t="n"/>
       <c r="E61" s="29" t="n"/>
@@ -10552,13 +10607,13 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="21" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B62" s="21" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="C62" s="29" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
       <c r="D62" s="21" t="n">
         <v>41181778</v>
@@ -10568,31 +10623,31 @@
     </row>
     <row customHeight="1" ht="15.75" r="63" s="35" spans="1:6" thickBot="1">
       <c r="A63" s="21" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B63" s="21" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="C63" s="29" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="D63" s="21" t="n">
         <v>40528355</v>
       </c>
       <c r="E63" s="29" t="n"/>
       <c r="F63" s="21" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="27" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
       <c r="B64" s="27" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="C64" s="30" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="D64" s="27" t="n"/>
       <c r="E64" s="30" t="n"/>
